--- a/OREI_files/40-herd data/descriptive stat sheets by group.xlsx
+++ b/OREI_files/40-herd data/descriptive stat sheets by group.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/40-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="528" documentId="8_{126BB96A-507C-4CDA-9D59-67A075BB21DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D99E8BA-350F-439D-98DF-DCAF6C08FE64}"/>
+  <xr:revisionPtr revIDLastSave="707" documentId="8_{126BB96A-507C-4CDA-9D59-67A075BB21DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C837EB6E-94A4-4685-B936-1FA481DCB31C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{BD75E345-1D78-4F68-86D2-D9942F22A602}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="4" xr2:uid="{BD75E345-1D78-4F68-86D2-D9942F22A602}"/>
   </bookViews>
   <sheets>
     <sheet name="farm traits + lact cow housing" sheetId="1" r:id="rId1"/>
     <sheet name="lact bedding details + mgmt" sheetId="2" r:id="rId2"/>
     <sheet name="milking procedures" sheetId="3" r:id="rId3"/>
     <sheet name="mastitis control" sheetId="4" r:id="rId4"/>
+    <sheet name="outcome- udder health+prod" sheetId="5" r:id="rId5"/>
+    <sheet name="outcome- XXX" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="214">
   <si>
     <t>Range</t>
   </si>
@@ -166,9 +168,6 @@
     <t>Air quality (technician-assessed)</t>
   </si>
   <si>
-    <t>Ventilation system</t>
-  </si>
-  <si>
     <t>Laying surface</t>
   </si>
   <si>
@@ -199,9 +198,6 @@
     <t>Excellent</t>
   </si>
   <si>
-    <t>think this category is too messed up to use</t>
-  </si>
-  <si>
     <t>Deep bedded</t>
   </si>
   <si>
@@ -305,9 +301,6 @@
   </si>
   <si>
     <t>1-12</t>
-  </si>
-  <si>
-    <t>Categorize this? 4 and less, above 4x/month?</t>
   </si>
   <si>
     <t>If facility is freestall or tiestall:</t>
@@ -487,9 +480,6 @@
     <t>Mastitis control practices</t>
   </si>
   <si>
-    <t>Methods used to recognize or identify a case of CLINICAL mastitis</t>
-  </si>
-  <si>
     <t>Clinical signs</t>
   </si>
   <si>
@@ -571,9 +561,6 @@
     <t>*100% correlated with variable above</t>
   </si>
   <si>
-    <t>*too many groups</t>
-  </si>
-  <si>
     <t>*almost all in 1 group</t>
   </si>
   <si>
@@ -605,13 +592,115 @@
   </si>
   <si>
     <t xml:space="preserve">All lactating cows regularly </t>
+  </si>
+  <si>
+    <t>If answer to methods of detecting case of CLINICAL mastitis included some sort of clinical sign (abnormal cow/abnormal udder) AND forestripping (check for abnormal milk)</t>
+  </si>
+  <si>
+    <t>Won't use in modelling, just here for completeness</t>
+  </si>
+  <si>
+    <t>Methods used to recognize or identify a case of CLINICAL mastitis (won't use in model, too many small groups)</t>
+  </si>
+  <si>
+    <t>Provide a supplemental source of vit. E and selenium for lactating or dry cows (beyond grain)</t>
+  </si>
+  <si>
+    <t>*unable to determine for 1 farm</t>
+  </si>
+  <si>
+    <t>Age of housing facility for lactating cows (years)</t>
+  </si>
+  <si>
+    <t>2-200</t>
+  </si>
+  <si>
+    <t>Attentiveness to bedded pack score</t>
+  </si>
+  <si>
+    <t>n=5 (0.7, 0.9, 0.9, 1.0, 1.0)</t>
+  </si>
+  <si>
+    <t>0.7-1.0</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>perc_new_IMI</t>
+  </si>
+  <si>
+    <t>perc_chron_IMI</t>
+  </si>
+  <si>
+    <t>perc_IMI</t>
+  </si>
+  <si>
+    <t>std_150_milk</t>
+  </si>
+  <si>
+    <t>avg_LS_unweighted</t>
+  </si>
+  <si>
+    <t>avg_LS_weighted</t>
+  </si>
+  <si>
+    <t>Percent NEW IMI</t>
+  </si>
+  <si>
+    <t>OUTCOME: Udder health and productivity data</t>
+  </si>
+  <si>
+    <t>Categorical outcomes</t>
+  </si>
+  <si>
+    <t>Continuous outcomes</t>
+  </si>
+  <si>
+    <t>Sample size</t>
+  </si>
+  <si>
+    <t>Percent CHRONIC IMI</t>
+  </si>
+  <si>
+    <t>Percent ANY IMI</t>
+  </si>
+  <si>
+    <t>Standardized 150-day milk</t>
+  </si>
+  <si>
+    <t>Average linear score of cow (unweighted)</t>
+  </si>
+  <si>
+    <t>Average linear score of cow (weighted by production)</t>
+  </si>
+  <si>
+    <t>0-12.3</t>
+  </si>
+  <si>
+    <t>2.9-23.1</t>
+  </si>
+  <si>
+    <t>8.6-36.9</t>
+  </si>
+  <si>
+    <t>33.5-68</t>
+  </si>
+  <si>
+    <t>1.7-3.3</t>
+  </si>
+  <si>
+    <t>2.4-5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -669,6 +758,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -747,15 +844,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -771,7 +862,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -799,7 +889,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -861,6 +950,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1181,10 +1302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BA11CA-1FD6-4FCA-95C7-2B3DA00AB707}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1194,39 +1315,39 @@
     <col min="4" max="4" width="12.54296875" customWidth="1"/>
     <col min="5" max="5" width="14.08984375" customWidth="1"/>
     <col min="7" max="7" width="6.90625" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" style="10"/>
+    <col min="8" max="8" width="8.7265625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1241,12 +1362,12 @@
       <c r="G3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
@@ -1260,7 +1381,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B5" s="6"/>
+      <c r="B5" s="4"/>
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -1271,21 +1392,21 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
+    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <v>10</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>47.6</v>
       </c>
-      <c r="H6" s="15"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
@@ -1299,7 +1420,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="6"/>
+      <c r="B8" s="4"/>
       <c r="C8" t="s">
         <v>18</v>
       </c>
@@ -1310,21 +1431,21 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9" t="s">
+    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="7">
         <v>15</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="7">
         <v>71.400000000000006</v>
       </c>
-      <c r="H9" s="15"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
@@ -1338,7 +1459,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B11" s="6"/>
+      <c r="B11" s="4"/>
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -1350,7 +1471,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B12" s="6"/>
+      <c r="B12" s="4"/>
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -1361,21 +1482,21 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9" t="s">
+    <row r="13" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="6"/>
+      <c r="C13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="7">
         <v>10</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="7">
         <v>47.6</v>
       </c>
-      <c r="H13" s="15"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C14" t="s">
@@ -1389,7 +1510,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B15" s="6"/>
+      <c r="B15" s="4"/>
       <c r="C15" t="s">
         <v>24</v>
       </c>
@@ -1401,7 +1522,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="6"/>
+      <c r="B16" s="4"/>
       <c r="C16" t="s">
         <v>25</v>
       </c>
@@ -1413,7 +1534,7 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="6"/>
+      <c r="B17" s="4"/>
       <c r="C17" t="s">
         <v>26</v>
       </c>
@@ -1425,7 +1546,7 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B18" s="6"/>
+      <c r="B18" s="4"/>
       <c r="C18" t="s">
         <v>27</v>
       </c>
@@ -1437,7 +1558,7 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B19" s="6"/>
+      <c r="B19" s="4"/>
       <c r="C19" t="s">
         <v>28</v>
       </c>
@@ -1449,7 +1570,7 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B20" s="6"/>
+      <c r="B20" s="4"/>
       <c r="C20" t="s">
         <v>29</v>
       </c>
@@ -1461,7 +1582,7 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B21" s="6"/>
+      <c r="B21" s="4"/>
       <c r="C21" t="s">
         <v>30</v>
       </c>
@@ -1472,21 +1593,21 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="22" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="8"/>
-      <c r="C22" s="9" t="s">
+    <row r="22" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="6"/>
+      <c r="C22" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="7">
         <v>1</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="7">
         <v>4.8</v>
       </c>
-      <c r="H22" s="15"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C23" t="s">
@@ -1500,7 +1621,7 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B24" s="6"/>
+      <c r="B24" s="4"/>
       <c r="C24" t="s">
         <v>33</v>
       </c>
@@ -1512,7 +1633,7 @@
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B25" s="6"/>
+      <c r="B25" s="4"/>
       <c r="C25" t="s">
         <v>34</v>
       </c>
@@ -1523,21 +1644,21 @@
         <v>47.6</v>
       </c>
     </row>
-    <row r="26" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="8"/>
-      <c r="C26" s="9" t="s">
+    <row r="26" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="6"/>
+      <c r="C26" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="7">
         <v>2</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="7">
         <v>9.5</v>
       </c>
-      <c r="H26" s="15"/>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C27" t="s">
@@ -1555,12 +1676,12 @@
       <c r="G27">
         <v>17.100000000000001</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B28" s="6"/>
+      <c r="B28" s="4"/>
       <c r="C28" t="s">
         <v>37</v>
       </c>
@@ -1571,272 +1692,304 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="29" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="8"/>
-      <c r="C29" s="9" t="s">
+    <row r="29" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="6"/>
+      <c r="C29" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="7">
         <v>9</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="7">
         <v>42.8</v>
       </c>
-      <c r="H29" s="15"/>
-    </row>
-    <row r="30" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="7" t="s">
+      <c r="H29" s="12"/>
+    </row>
+    <row r="30" spans="2:8" s="30" customFormat="1" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="30">
+        <v>12</v>
+      </c>
+      <c r="E30" s="30">
+        <v>60</v>
+      </c>
+      <c r="H30" s="51"/>
+    </row>
+    <row r="31" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="7">
+        <v>8</v>
+      </c>
+      <c r="E31" s="7">
+        <v>40</v>
+      </c>
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C33" t="s">
         <v>50</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C31" t="s">
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C34" t="s">
         <v>51</v>
       </c>
-      <c r="D31">
+      <c r="D34">
+        <v>8</v>
+      </c>
+      <c r="E34">
+        <v>38.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="7">
+        <v>7</v>
+      </c>
+      <c r="E35" s="7">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="H35" s="12"/>
+    </row>
+    <row r="36" spans="1:8" ht="56" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B37" s="4"/>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37">
         <v>5</v>
       </c>
-      <c r="E31">
+      <c r="E37">
         <v>23.8</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32">
+    <row r="38" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="6"/>
+      <c r="C38" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="7">
+        <v>16</v>
+      </c>
+      <c r="E38" s="7">
+        <v>76.2</v>
+      </c>
+      <c r="H38" s="12"/>
+    </row>
+    <row r="39" spans="1:8" s="10" customFormat="1" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F39" s="10">
+        <v>47</v>
+      </c>
+      <c r="G39" s="10">
+        <v>42</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B40" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40">
         <v>8</v>
       </c>
-      <c r="E32">
+      <c r="E40">
         <v>38.1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="9">
+    <row r="41" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="7">
+        <v>13</v>
+      </c>
+      <c r="E41" s="7">
+        <v>61.9</v>
+      </c>
+      <c r="H41" s="12"/>
+    </row>
+    <row r="42" spans="1:8" s="10" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="10">
+        <v>6</v>
+      </c>
+      <c r="F42" s="10">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G42" s="10">
+        <v>0.38</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="30"/>
+      <c r="C44" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="7">
         <v>7</v>
       </c>
-      <c r="E33" s="9">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="H33" s="15"/>
-    </row>
-    <row r="34" spans="1:8" ht="56" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B35" s="6"/>
-      <c r="C35" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35">
+      <c r="E44" s="7">
+        <v>70</v>
+      </c>
+      <c r="H44" s="12"/>
+    </row>
+    <row r="45" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C46" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="7">
+        <v>2</v>
+      </c>
+      <c r="E46" s="7">
+        <v>40</v>
+      </c>
+      <c r="H46" s="12"/>
+    </row>
+    <row r="47" spans="1:8" s="10" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="10">
         <v>5</v>
       </c>
-      <c r="E35">
-        <v>23.8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="8"/>
-      <c r="C36" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="9">
-        <v>16</v>
-      </c>
-      <c r="E36" s="9">
-        <v>76.2</v>
-      </c>
-      <c r="H36" s="15"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B37" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B38" s="6"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B39" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39">
-        <v>8</v>
-      </c>
-      <c r="E39">
-        <v>38.1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="9">
-        <v>13</v>
-      </c>
-      <c r="E40" s="9">
-        <v>61.9</v>
-      </c>
-      <c r="H40" s="15"/>
-    </row>
-    <row r="41" spans="1:8" s="13" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D41" s="13">
-        <v>6</v>
-      </c>
-      <c r="F41" s="13">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="G41" s="13">
-        <v>0.38</v>
-      </c>
-      <c r="H41" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="F47" s="10">
+        <v>52.2</v>
+      </c>
+      <c r="G47" s="10">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="H47" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D42">
-        <v>3</v>
-      </c>
-      <c r="E42">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C43" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="9">
-        <v>7</v>
-      </c>
-      <c r="E43" s="9">
-        <v>70</v>
-      </c>
-      <c r="H43" s="15"/>
-    </row>
-    <row r="44" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" s="7" t="s">
+    </row>
+    <row r="48" spans="1:8" s="10" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="10">
+        <v>5</v>
+      </c>
+      <c r="F48" s="10">
+        <v>8.1</v>
+      </c>
+      <c r="G48" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="H48" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C44" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44">
-        <v>3</v>
-      </c>
-      <c r="E44">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C45" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45" s="9">
-        <v>2</v>
-      </c>
-      <c r="E45" s="9">
-        <v>40</v>
-      </c>
-      <c r="H45" s="15"/>
-    </row>
-    <row r="46" spans="1:8" s="13" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D46" s="13">
+    </row>
+    <row r="49" spans="2:8" s="10" customFormat="1" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="10">
         <v>5</v>
       </c>
-      <c r="F46" s="13">
-        <v>52.2</v>
-      </c>
-      <c r="G46" s="13">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="H46" s="16" t="s">
+      <c r="F49" s="10">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G49" s="10">
+        <v>0.23</v>
+      </c>
+      <c r="H49" s="13" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" s="13" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="13">
-        <v>5</v>
-      </c>
-      <c r="F47" s="13">
-        <v>8.1</v>
-      </c>
-      <c r="G47" s="13">
-        <v>1.7</v>
-      </c>
-      <c r="H47" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" s="13" customFormat="1" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" s="13">
-        <v>5</v>
-      </c>
-      <c r="F48" s="13">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="G48" s="13">
-        <v>0.23</v>
-      </c>
-      <c r="H48" s="16" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1845,58 +1998,59 @@
     <mergeCell ref="F2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC7B1E9-526D-41DC-A523-0A5494D9C7DD}">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="24.453125" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="22.26953125" customWidth="1"/>
     <col min="4" max="4" width="12.54296875" customWidth="1"/>
     <col min="5" max="5" width="14.08984375" customWidth="1"/>
     <col min="7" max="7" width="6.90625" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" style="30"/>
+    <col min="8" max="8" width="8.7265625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="A1" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1911,19 +2065,19 @@
       <c r="G3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="31" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -1932,25 +2086,25 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="9" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="21"/>
-      <c r="C5" s="9" t="s">
+    <row r="5" spans="1:8" s="7" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="18"/>
+      <c r="C5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="7">
+        <v>12</v>
+      </c>
+      <c r="E5" s="7">
+        <v>60</v>
+      </c>
+      <c r="H5" s="32"/>
+    </row>
+    <row r="6" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
         <v>66</v>
-      </c>
-      <c r="D5" s="9">
-        <v>12</v>
-      </c>
-      <c r="E5" s="9">
-        <v>60</v>
-      </c>
-      <c r="H5" s="36"/>
-    </row>
-    <row r="6" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" t="s">
-        <v>68</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1959,32 +2113,32 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="9" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="9" t="s">
+    <row r="7" spans="1:8" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="9">
+      <c r="C7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="7">
         <v>17</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>94.4</v>
       </c>
-      <c r="H7" s="36"/>
+      <c r="H7" s="32"/>
     </row>
     <row r="8" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="19" t="s">
-        <v>77</v>
+      <c r="B9" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1993,25 +2147,25 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="9" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="27"/>
-      <c r="C10" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="9">
+    <row r="10" spans="1:8" s="7" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="23"/>
+      <c r="C10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="7">
         <v>1</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="7">
         <v>33.299999999999997</v>
       </c>
-      <c r="H10" s="36"/>
+      <c r="H10" s="32"/>
     </row>
     <row r="11" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="19" t="s">
-        <v>108</v>
+      <c r="B11" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2020,25 +2174,25 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="27"/>
-      <c r="C12" s="9" t="s">
+    <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="23"/>
+      <c r="C12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2</v>
+      </c>
+      <c r="E12" s="7">
+        <v>66.7</v>
+      </c>
+      <c r="H12" s="32"/>
+    </row>
+    <row r="13" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
         <v>81</v>
-      </c>
-      <c r="D12" s="9">
-        <v>2</v>
-      </c>
-      <c r="E12" s="9">
-        <v>66.7</v>
-      </c>
-      <c r="H12" s="36"/>
-    </row>
-    <row r="13" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" t="s">
-        <v>83</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2047,24 +2201,24 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="9">
+    <row r="14" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="7">
         <v>2</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="7">
         <v>66.7</v>
       </c>
-      <c r="H14" s="36"/>
+      <c r="H14" s="32"/>
     </row>
     <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="B15" s="19" t="s">
-        <v>85</v>
+      <c r="B15" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2074,9 +2228,9 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="18"/>
+      <c r="B16" s="15"/>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2085,46 +2239,46 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="21"/>
-      <c r="C17" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="9">
+    <row r="17" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="18"/>
+      <c r="C17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="7">
         <v>1</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="7">
         <v>33.299999999999997</v>
       </c>
-      <c r="H17" s="36"/>
+      <c r="H17" s="32"/>
     </row>
     <row r="18" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="20" t="s">
-        <v>87</v>
+      <c r="B18" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="9" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="29"/>
-      <c r="C19" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="9">
+    <row r="19" spans="1:8" s="7" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="25"/>
+      <c r="C19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="7">
         <v>16</v>
       </c>
-      <c r="H19" s="36"/>
+      <c r="H19" s="32"/>
     </row>
     <row r="20" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="19" t="s">
-        <v>88</v>
+      <c r="B20" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F20">
         <v>6.2</v>
@@ -2132,81 +2286,80 @@
       <c r="G20">
         <v>5.4</v>
       </c>
-      <c r="H20" s="30" t="s">
+      <c r="H20" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="7" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="23"/>
+      <c r="C21" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="50"/>
+      <c r="H21" s="32"/>
+    </row>
+    <row r="22" spans="1:8" s="7" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="23" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" s="9" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="34"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="H21" s="36"/>
-    </row>
-    <row r="22" spans="1:8" s="9" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="32" t="s">
+      <c r="C22" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="F22" s="7">
+        <v>12.2</v>
+      </c>
+      <c r="G22" s="7">
+        <v>10</v>
+      </c>
+      <c r="H22" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="9" t="s">
+    </row>
+    <row r="23" spans="1:8" s="10" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="22"/>
+      <c r="B23" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="10">
+        <v>27.6</v>
+      </c>
+      <c r="G23" s="10">
+        <v>13.6</v>
+      </c>
+      <c r="H23" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="9">
-        <v>12.2</v>
-      </c>
-      <c r="G22" s="9">
-        <v>10</v>
-      </c>
-      <c r="H22" s="36" t="s">
+    </row>
+    <row r="24" spans="1:8" s="10" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="G24" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="H24" s="33" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="13" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="26"/>
-      <c r="B23" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="F23" s="13">
-        <v>27.6</v>
-      </c>
-      <c r="G23" s="13">
-        <v>13.6</v>
-      </c>
-      <c r="H23" s="37" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="13" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="28" t="s">
+    <row r="25" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="13">
-        <v>4.5</v>
-      </c>
-      <c r="G24" s="13">
-        <v>3.5</v>
-      </c>
-      <c r="H24" s="37" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -2215,22 +2368,22 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="21"/>
-      <c r="C26" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D26" s="9">
+    <row r="26" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="18"/>
+      <c r="C26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="7">
         <v>4</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="7">
         <v>66.7</v>
       </c>
-      <c r="H26" s="36"/>
+      <c r="H26" s="32"/>
     </row>
     <row r="27" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="38" t="s">
-        <v>104</v>
+      <c r="B27" s="34" t="s">
+        <v>101</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -2239,134 +2392,155 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="27"/>
-      <c r="C28" s="9">
+    <row r="28" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="23"/>
+      <c r="C28" s="7">
         <v>14</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="7">
         <v>70</v>
       </c>
-      <c r="H28" s="36"/>
-    </row>
-    <row r="29" spans="1:8" s="34" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="34">
+      <c r="H28" s="32"/>
+    </row>
+    <row r="29" spans="1:8" s="30" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="30">
         <v>0</v>
       </c>
-      <c r="D29" s="34">
+      <c r="D29" s="30">
         <v>40</v>
       </c>
-      <c r="H29" s="39"/>
-    </row>
-    <row r="30" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="31"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="34">
+      <c r="H29" s="35"/>
+    </row>
+    <row r="30" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="27"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="30">
         <v>3.5</v>
       </c>
-      <c r="D30" s="34">
+      <c r="D30" s="30">
         <v>20</v>
       </c>
-      <c r="H30" s="39"/>
-    </row>
-    <row r="31" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="32"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="9">
+      <c r="H30" s="35"/>
+    </row>
+    <row r="31" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="28"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="7">
         <v>14</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="7">
         <v>40</v>
       </c>
-      <c r="H31" s="36"/>
-    </row>
-    <row r="32" spans="1:8" s="34" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B32" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="34">
+      <c r="H31" s="32"/>
+    </row>
+    <row r="32" spans="1:8" s="30" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B32" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="30">
         <v>10.199999999999999</v>
       </c>
-      <c r="D32" s="34">
+      <c r="D32" s="30">
         <v>33.299999999999997</v>
       </c>
-      <c r="H32" s="39"/>
-    </row>
-    <row r="33" spans="2:8" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="38"/>
-      <c r="C33" s="34">
+      <c r="H32" s="35"/>
+    </row>
+    <row r="33" spans="2:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="34"/>
+      <c r="C33" s="30">
         <v>23.3</v>
       </c>
-      <c r="D33" s="34">
+      <c r="D33" s="30">
         <v>33.299999999999997</v>
       </c>
-      <c r="H33" s="39"/>
-    </row>
-    <row r="34" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="27"/>
-      <c r="C34" s="9">
+      <c r="H33" s="35"/>
+    </row>
+    <row r="34" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="23"/>
+      <c r="C34" s="7">
         <v>30.5</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="7">
         <v>33.299999999999997</v>
       </c>
-      <c r="H34" s="36"/>
-    </row>
-    <row r="35" spans="2:8" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="34">
+      <c r="H34" s="32"/>
+    </row>
+    <row r="35" spans="2:8" s="30" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B35" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="F35" s="30">
         <v>0.9</v>
       </c>
-      <c r="D35" s="34">
+      <c r="G35" s="30">
+        <v>0.12</v>
+      </c>
+      <c r="H35" s="35" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="34"/>
+      <c r="H36" s="35"/>
+    </row>
+    <row r="37" spans="2:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="30">
+        <v>0.9</v>
+      </c>
+      <c r="D37" s="30">
         <v>20</v>
       </c>
-      <c r="H35" s="39"/>
-    </row>
-    <row r="36" spans="2:8" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="38"/>
-      <c r="C36" s="34">
+      <c r="H37" s="35"/>
+    </row>
+    <row r="38" spans="2:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="34"/>
+      <c r="C38" s="30">
         <v>1.2</v>
       </c>
-      <c r="D36" s="34">
+      <c r="D38" s="30">
         <v>40</v>
       </c>
-      <c r="H36" s="39"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B37" s="18"/>
-      <c r="C37">
+      <c r="H38" s="35"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B39" s="15"/>
+      <c r="C39">
         <v>1.5</v>
       </c>
-      <c r="D37">
+      <c r="D39">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B38" s="18"/>
-      <c r="C38">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B40" s="15"/>
+      <c r="C40">
         <v>1.7</v>
       </c>
-      <c r="D38">
+      <c r="D40">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B39" s="18"/>
-    </row>
-    <row r="46" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="56" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" ht="32" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" ht="46.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" ht="45.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B41" s="15"/>
+    </row>
+    <row r="48" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="56" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="32" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="46.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="45.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D2:E2"/>
@@ -2374,6 +2548,7 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2381,8 +2556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21AE885A-FF7F-4688-80AC-54ECDDAC6CBC}">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2393,39 +2568,39 @@
     <col min="4" max="4" width="12.54296875" customWidth="1"/>
     <col min="5" max="5" width="14.08984375" customWidth="1"/>
     <col min="7" max="7" width="6.90625" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" style="30"/>
+    <col min="8" max="8" width="8.7265625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="A1" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -2440,31 +2615,31 @@
       <c r="G3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="31" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="9" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="9" t="s">
+    <row r="4" spans="1:8" s="7" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="7">
+        <v>20</v>
+      </c>
+      <c r="E4" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="21"/>
+      <c r="B5" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" t="s">
         <v>110</v>
-      </c>
-      <c r="D4" s="9">
-        <v>20</v>
-      </c>
-      <c r="E4" s="9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="24"/>
-      <c r="B5" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" t="s">
-        <v>113</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -2476,7 +2651,7 @@
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2486,26 +2661,26 @@
       </c>
       <c r="H6"/>
     </row>
-    <row r="7" spans="1:8" s="9" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="9" t="s">
+    <row r="7" spans="1:8" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <v>13</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>61.9</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>116</v>
+      <c r="A8" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -2516,9 +2691,9 @@
       <c r="H8"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="42"/>
+      <c r="A9" s="38"/>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -2528,23 +2703,23 @@
       </c>
       <c r="H9"/>
     </row>
-    <row r="10" spans="1:8" s="9" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="9">
+    <row r="10" spans="1:8" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="7">
         <v>2</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="7">
         <v>28.6</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="52" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2555,8 +2730,8 @@
       <c r="H11"/>
     </row>
     <row r="12" spans="1:8" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="4" t="s">
-        <v>122</v>
+      <c r="C12" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -2566,39 +2741,39 @@
       </c>
       <c r="H12"/>
     </row>
-    <row r="13" spans="1:8" s="9" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="44"/>
-      <c r="C13" s="45" t="s">
+    <row r="13" spans="1:8" s="7" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="40"/>
+      <c r="C13" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="7">
+        <v>4</v>
+      </c>
+      <c r="E13" s="7">
+        <v>57.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="10" customFormat="1" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="43"/>
+      <c r="B14" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="9">
-        <v>4</v>
-      </c>
-      <c r="E13" s="9">
-        <v>57.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="13" customFormat="1" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="47"/>
-      <c r="B14" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="13">
+      <c r="C14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="10">
         <v>21</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="10">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B15" s="6" t="s">
-        <v>125</v>
+      <c r="B15" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="C15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D15">
         <v>18</v>
@@ -2608,38 +2783,38 @@
       </c>
       <c r="H15"/>
     </row>
-    <row r="16" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16" s="9">
+    <row r="16" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="7">
         <v>3</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="7">
         <v>41.3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="13" customFormat="1" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="13">
+    <row r="17" spans="1:8" s="10" customFormat="1" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="10">
         <v>21</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="10">
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="24"/>
-      <c r="B18" s="6" t="s">
-        <v>129</v>
+      <c r="A18" s="21"/>
+      <c r="B18" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D18">
         <v>20</v>
@@ -2649,25 +2824,25 @@
       </c>
       <c r="H18"/>
     </row>
-    <row r="19" spans="1:8" s="9" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="44"/>
-      <c r="C19" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" s="9">
+    <row r="19" spans="1:8" s="7" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="40"/>
+      <c r="C19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="7">
         <v>1</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="7">
         <v>4.8</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="24"/>
-      <c r="B20" s="7" t="s">
-        <v>131</v>
+      <c r="A20" s="21"/>
+      <c r="B20" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20">
         <v>18</v>
@@ -2677,25 +2852,25 @@
       </c>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:8" s="9" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="44"/>
-      <c r="C21" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="9">
+    <row r="21" spans="1:8" s="7" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="40"/>
+      <c r="C21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="7">
         <v>3</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="7">
         <v>14.3</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="24"/>
-      <c r="B22" s="46" t="s">
-        <v>132</v>
+      <c r="A22" s="21"/>
+      <c r="B22" s="42" t="s">
+        <v>129</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D22">
         <v>20</v>
@@ -2705,30 +2880,30 @@
       </c>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:8" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="44"/>
-      <c r="B23" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="9">
+    <row r="23" spans="1:8" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="40"/>
+      <c r="B23" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="7">
         <v>1</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="7">
         <v>4.8</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>134</v>
+      <c r="A24" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="C24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -2738,23 +2913,23 @@
       </c>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:8" s="9" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="9" t="s">
+    <row r="25" spans="1:8" s="7" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="7">
+        <v>17</v>
+      </c>
+      <c r="E25" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" t="s">
         <v>136</v>
-      </c>
-      <c r="D25" s="9">
-        <v>17</v>
-      </c>
-      <c r="E25" s="9">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C26" t="s">
-        <v>139</v>
       </c>
       <c r="D26">
         <v>16</v>
@@ -2766,7 +2941,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2776,24 +2951,24 @@
       </c>
       <c r="H27"/>
     </row>
-    <row r="28" spans="1:8" s="9" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="44"/>
-      <c r="C28" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="D28" s="9">
+    <row r="28" spans="1:8" s="7" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="40"/>
+      <c r="C28" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" s="7">
         <v>3</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="7">
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="7" t="s">
-        <v>141</v>
+      <c r="B29" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="C29" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D29">
         <v>11</v>
@@ -2805,7 +2980,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D30">
         <v>4</v>
@@ -2816,8 +2991,8 @@
       <c r="H30"/>
     </row>
     <row r="31" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="4" t="s">
-        <v>144</v>
+      <c r="C31" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="D31">
         <v>5</v>
@@ -2878,53 +3053,53 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D8786C-3CBC-46E6-B609-6E603B1DCDFC}">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="29.6328125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="33.36328125" style="5" customWidth="1"/>
     <col min="3" max="3" width="23.81640625" customWidth="1"/>
     <col min="4" max="4" width="12.54296875" customWidth="1"/>
     <col min="5" max="5" width="14.08984375" customWidth="1"/>
     <col min="7" max="7" width="6.90625" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" style="30"/>
+    <col min="8" max="8" width="8.7265625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="A1" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="5"/>
+      <c r="B2" s="3"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -2939,16 +3114,16 @@
       <c r="G3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="31" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="49" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="46" t="s">
-        <v>146</v>
+      <c r="B4" s="42" t="s">
+        <v>183</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -2959,11 +3134,8 @@
       <c r="H4"/>
     </row>
     <row r="5" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -2974,8 +3146,8 @@
       <c r="H5"/>
     </row>
     <row r="6" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="4" t="s">
-        <v>149</v>
+      <c r="C6" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2986,9 +3158,9 @@
       <c r="H6"/>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="49"/>
+      <c r="A7" s="45"/>
       <c r="C7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2999,8 +3171,8 @@
       <c r="H7"/>
     </row>
     <row r="8" spans="1:8" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="4" t="s">
-        <v>151</v>
+      <c r="C8" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -3012,7 +3184,7 @@
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -3024,7 +3196,7 @@
     </row>
     <row r="10" spans="1:8" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -3036,7 +3208,7 @@
     </row>
     <row r="11" spans="1:8" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -3048,7 +3220,7 @@
     </row>
     <row r="12" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -3058,305 +3230,299 @@
       </c>
       <c r="H12"/>
     </row>
-    <row r="13" spans="1:8" s="9" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="50"/>
-      <c r="C13" s="9" t="s">
+    <row r="13" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="30">
+        <v>2</v>
+      </c>
+      <c r="E13" s="30">
+        <v>9.5</v>
+      </c>
+      <c r="H13"/>
+    </row>
+    <row r="14" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="H14"/>
+    </row>
+    <row r="15" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="30">
+        <v>8</v>
+      </c>
+      <c r="E15" s="30">
+        <v>38.1</v>
+      </c>
+      <c r="H15"/>
+    </row>
+    <row r="16" spans="1:8" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="46"/>
+      <c r="C16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="7">
+        <v>13</v>
+      </c>
+      <c r="E16" s="7">
+        <v>61.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>76.2</v>
+      </c>
+      <c r="H17"/>
+    </row>
+    <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="46"/>
+      <c r="C18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="7">
+        <v>5</v>
+      </c>
+      <c r="E18" s="7">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>9.5</v>
+      </c>
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="1:8" s="7" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="40"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="7">
+        <v>19</v>
+      </c>
+      <c r="E20" s="7">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="21"/>
+      <c r="B21" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" t="s">
         <v>156</v>
       </c>
-      <c r="D13" s="9">
-        <v>2</v>
-      </c>
-      <c r="E13" s="9">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="7" t="s">
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>38.1</v>
+      </c>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="21"/>
+      <c r="C22" t="s">
         <v>157</v>
       </c>
-      <c r="C14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14">
-        <v>16</v>
-      </c>
-      <c r="E14">
-        <v>76.2</v>
-      </c>
-      <c r="H14"/>
-    </row>
-    <row r="15" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="50"/>
-      <c r="C15" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="9">
-        <v>5</v>
-      </c>
-      <c r="E15" s="9">
-        <v>23.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="7" t="s">
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>19</v>
+      </c>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
         <v>158</v>
       </c>
-      <c r="C16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>9.5</v>
-      </c>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="1:8" s="9" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="44"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="9">
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>14.3</v>
+      </c>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="1:8" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="46"/>
+      <c r="C24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" s="7">
+        <v>6</v>
+      </c>
+      <c r="E24" s="7">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>26.7</v>
+      </c>
+      <c r="H25"/>
+    </row>
+    <row r="26" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>66.7</v>
+      </c>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="1:8" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="46"/>
+      <c r="C27" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" t="s">
+        <v>156</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
         <v>19</v>
-      </c>
-      <c r="E17" s="9">
-        <v>90.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="24"/>
-      <c r="B18" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C18" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18">
-        <v>8</v>
-      </c>
-      <c r="E18">
-        <v>38.1</v>
-      </c>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="24"/>
-      <c r="C19" t="s">
-        <v>161</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>19</v>
-      </c>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" t="s">
-        <v>162</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20">
-        <v>14.3</v>
-      </c>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="1:8" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="50"/>
-      <c r="C21" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D21" s="9">
-        <v>6</v>
-      </c>
-      <c r="E21" s="9">
-        <v>28.6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C22" t="s">
-        <v>136</v>
-      </c>
-      <c r="D22">
-        <v>10</v>
-      </c>
-      <c r="E22">
-        <v>26.7</v>
-      </c>
-      <c r="H22"/>
-    </row>
-    <row r="23" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C23" t="s">
-        <v>164</v>
-      </c>
-      <c r="D23">
-        <v>4</v>
-      </c>
-      <c r="E23">
-        <v>66.7</v>
-      </c>
-      <c r="H23"/>
-    </row>
-    <row r="24" spans="1:8" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="50"/>
-      <c r="C24" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D24" s="9">
-        <v>1</v>
-      </c>
-      <c r="E24" s="9">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C25" t="s">
-        <v>160</v>
-      </c>
-      <c r="D25">
-        <v>4</v>
-      </c>
-      <c r="E25">
-        <v>19</v>
-      </c>
-      <c r="H25"/>
-    </row>
-    <row r="26" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C26" t="s">
-        <v>161</v>
-      </c>
-      <c r="D26">
-        <v>9</v>
-      </c>
-      <c r="E26">
-        <v>42.9</v>
-      </c>
-      <c r="H26"/>
-    </row>
-    <row r="27" spans="1:8" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="50"/>
-      <c r="C27" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D27" s="9">
-        <v>8</v>
-      </c>
-      <c r="E27" s="9">
-        <v>38.1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C28" t="s">
-        <v>160</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28">
-        <v>14.3</v>
       </c>
       <c r="H28"/>
     </row>
     <row r="29" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D29">
+        <v>9</v>
+      </c>
+      <c r="E29">
+        <v>42.9</v>
+      </c>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="1:8" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="46"/>
+      <c r="C30" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" s="7">
+        <v>8</v>
+      </c>
+      <c r="E30" s="7">
+        <v>38.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>14.3</v>
+      </c>
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C32" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32">
         <v>6</v>
       </c>
-      <c r="E29">
+      <c r="E32">
         <v>28.6</v>
       </c>
-      <c r="H29"/>
-    </row>
-    <row r="30" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="44"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D30" s="9">
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="40"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" s="7">
         <v>12</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E33" s="7">
         <v>57.1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="24"/>
-      <c r="B31" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C31" t="s">
-        <v>160</v>
-      </c>
-      <c r="D31">
+    <row r="34" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="21"/>
+      <c r="B34" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" t="s">
+        <v>156</v>
+      </c>
+      <c r="D34">
         <v>0</v>
       </c>
-      <c r="E31">
+      <c r="E34">
         <v>0</v>
       </c>
-      <c r="H31"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C32" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="H32"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C33" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="D33">
-        <v>17</v>
-      </c>
-      <c r="E33">
-        <v>81</v>
-      </c>
-      <c r="H33"/>
-    </row>
-    <row r="34" spans="1:8" s="9" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="50"/>
-      <c r="C34" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="D34" s="9">
-        <v>4</v>
-      </c>
-      <c r="E34" s="9">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="B35" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="C35" t="s">
-        <v>160</v>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C35" s="30" t="s">
+        <v>157</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -3366,198 +3532,237 @@
       </c>
       <c r="H35"/>
     </row>
-    <row r="36" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="24"/>
-      <c r="B36" s="7" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C36" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="D36">
+        <v>17</v>
+      </c>
+      <c r="E36">
+        <v>81</v>
+      </c>
+      <c r="H36"/>
+    </row>
+    <row r="37" spans="1:8" s="7" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="46"/>
+      <c r="C37" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" s="7">
+        <v>4</v>
+      </c>
+      <c r="E37" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B38" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="H38"/>
+    </row>
+    <row r="39" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="21"/>
+      <c r="B39" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="H39"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C40" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="D40">
+        <v>17</v>
+      </c>
+      <c r="E40">
+        <v>81</v>
+      </c>
+      <c r="H40"/>
+    </row>
+    <row r="41" spans="1:8" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B41" s="46"/>
+      <c r="C41" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="D41" s="7">
+        <v>4</v>
+      </c>
+      <c r="E41" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="37"/>
+      <c r="B42" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" t="s">
+        <v>172</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>4.8</v>
+      </c>
+      <c r="H42"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="21"/>
+      <c r="C43" t="s">
         <v>173</v>
       </c>
-      <c r="C36" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="H36"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C37" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="D37">
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>23.8</v>
+      </c>
+      <c r="H43"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C44" t="s">
+        <v>174</v>
+      </c>
+      <c r="D44">
+        <v>8</v>
+      </c>
+      <c r="E44">
+        <v>38.1</v>
+      </c>
+      <c r="H44"/>
+    </row>
+    <row r="45" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="46"/>
+      <c r="C45" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D45" s="7">
+        <v>7</v>
+      </c>
+      <c r="E45" s="7">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46">
         <v>17</v>
       </c>
-      <c r="E37">
+      <c r="E46">
         <v>81</v>
       </c>
-      <c r="H37"/>
-    </row>
-    <row r="38" spans="1:8" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B38" s="50"/>
-      <c r="C38" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="D38" s="9">
+    </row>
+    <row r="47" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="46"/>
+      <c r="C47" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="7">
         <v>4</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E47" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="41"/>
-      <c r="B39" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="H47" s="32"/>
+    </row>
+    <row r="48" spans="1:8" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="21"/>
+      <c r="B48" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>4.8</v>
-      </c>
-      <c r="H39"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="24"/>
-      <c r="C40" t="s">
+      <c r="C48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48">
+        <v>15</v>
+      </c>
+      <c r="E48">
+        <v>71.400000000000006</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="40"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="7">
+        <v>6</v>
+      </c>
+      <c r="E49" s="7">
+        <v>28.6</v>
+      </c>
+      <c r="H49" s="32"/>
+    </row>
+    <row r="50" spans="1:8" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="21"/>
+      <c r="B50" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D40">
+      <c r="C50" t="s">
+        <v>180</v>
+      </c>
+      <c r="D50">
         <v>5</v>
       </c>
-      <c r="E40">
+      <c r="E50">
         <v>23.8</v>
       </c>
-      <c r="H40"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C41" t="s">
+    </row>
+    <row r="51" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="21"/>
+      <c r="C51" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D41">
-        <v>8</v>
-      </c>
-      <c r="E41">
-        <v>38.1</v>
-      </c>
-      <c r="H41"/>
-    </row>
-    <row r="42" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="50"/>
-      <c r="C42" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="D42" s="9">
-        <v>7</v>
-      </c>
-      <c r="E42" s="9">
-        <v>33.299999999999997</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C43" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43">
-        <v>17</v>
-      </c>
-      <c r="E43">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="50"/>
-      <c r="C44" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" s="9">
-        <v>4</v>
-      </c>
-      <c r="E44" s="9">
-        <v>19</v>
-      </c>
-      <c r="H44" s="36"/>
-    </row>
-    <row r="45" spans="1:8" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="24"/>
-      <c r="B45" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C45" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45">
-        <v>15</v>
-      </c>
-      <c r="E45">
-        <v>71.400000000000006</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="9" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="44"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D46" s="9">
-        <v>6</v>
-      </c>
-      <c r="E46" s="9">
-        <v>28.6</v>
-      </c>
-      <c r="H46" s="36"/>
-    </row>
-    <row r="47" spans="1:8" ht="52" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="24"/>
-      <c r="B47" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C47" t="s">
-        <v>185</v>
-      </c>
-      <c r="D47">
+      <c r="D51">
         <v>5</v>
       </c>
-      <c r="E47">
+      <c r="E51">
         <v>23.8</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="24"/>
-      <c r="C48" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D48">
-        <v>5</v>
-      </c>
-      <c r="E48">
-        <v>23.8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C49" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52">
         <v>11</v>
       </c>
-      <c r="E49">
+      <c r="E52">
         <v>52.4</v>
       </c>
     </row>
-    <row r="50" spans="3:5" ht="56" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" spans="3:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" spans="3:5" ht="32" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" spans="3:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="3:5" ht="45.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="1:8" ht="56" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="46.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="45.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
@@ -3566,4 +3771,524 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450D3C41-EA67-4045-92C3-4FCA41EBE615}">
+  <dimension ref="A1:F50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+    </row>
+    <row r="3" spans="1:6" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="62">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>5.7</v>
+      </c>
+      <c r="E4">
+        <v>3.7</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="62"/>
+    </row>
+    <row r="6" spans="1:6" s="58" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="59" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="63">
+        <v>19</v>
+      </c>
+      <c r="D6" s="58">
+        <v>13.6</v>
+      </c>
+      <c r="E6" s="58">
+        <v>5.8</v>
+      </c>
+      <c r="F6" s="64" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+    </row>
+    <row r="8" spans="1:6" s="58" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="59" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" s="65">
+        <v>19</v>
+      </c>
+      <c r="D8" s="58">
+        <v>25</v>
+      </c>
+      <c r="E8" s="58">
+        <v>7.8</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+    </row>
+    <row r="10" spans="1:6" s="58" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="60" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="66">
+        <v>18</v>
+      </c>
+      <c r="D10" s="58">
+        <v>50</v>
+      </c>
+      <c r="E10" s="58">
+        <v>10.1</v>
+      </c>
+      <c r="F10" s="64" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="56"/>
+      <c r="C11" s="55"/>
+    </row>
+    <row r="12" spans="1:6" s="58" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="C12" s="65">
+        <v>20</v>
+      </c>
+      <c r="D12" s="58">
+        <v>2.44</v>
+      </c>
+      <c r="E12" s="58">
+        <v>0.42</v>
+      </c>
+      <c r="F12" s="64" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="54"/>
+      <c r="C13" s="57"/>
+    </row>
+    <row r="14" spans="1:6" s="58" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="61" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="66">
+        <v>20</v>
+      </c>
+      <c r="D14" s="58">
+        <v>3.72</v>
+      </c>
+      <c r="E14" s="58">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F14" s="64" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F16"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F17"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F18"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F19"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F20"/>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F21"/>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F22"/>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F23"/>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F24"/>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F25"/>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F26"/>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F27"/>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F28"/>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F29"/>
+    </row>
+    <row r="30" spans="6:6" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F30"/>
+    </row>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F31"/>
+    </row>
+    <row r="32" spans="6:6" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F32"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F33"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F34"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F35"/>
+    </row>
+    <row r="36" spans="6:6" ht="56" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F36"/>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F37"/>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F38"/>
+    </row>
+    <row r="39" spans="6:6" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F39"/>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F40"/>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F41"/>
+    </row>
+    <row r="42" spans="6:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F42"/>
+    </row>
+    <row r="43" spans="6:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F43"/>
+    </row>
+    <row r="44" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F44"/>
+    </row>
+    <row r="45" spans="6:6" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F45"/>
+    </row>
+    <row r="46" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F46"/>
+    </row>
+    <row r="47" spans="6:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F47"/>
+    </row>
+    <row r="48" spans="6:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F48"/>
+    </row>
+    <row r="49" spans="6:6" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F49"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0CDADA-377C-4F3B-B52C-F15973102B77}">
+  <dimension ref="A1:G50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="22.453125" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" customWidth="1"/>
+    <col min="6" max="6" width="6.90625" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="1"/>
+      <c r="C2" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="6"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B13" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B14" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G26"/>
+    </row>
+    <row r="27" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G27"/>
+    </row>
+    <row r="28" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G28"/>
+    </row>
+    <row r="29" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G29"/>
+    </row>
+    <row r="30" spans="7:7" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G30"/>
+    </row>
+    <row r="31" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="7:7" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G32"/>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G34"/>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="7:7" ht="56" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G37"/>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G38"/>
+    </row>
+    <row r="39" spans="7:7" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G39"/>
+    </row>
+    <row r="40" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G40"/>
+    </row>
+    <row r="41" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G41"/>
+    </row>
+    <row r="42" spans="7:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G42"/>
+    </row>
+    <row r="43" spans="7:7" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G43"/>
+    </row>
+    <row r="44" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G44"/>
+    </row>
+    <row r="45" spans="7:7" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G45"/>
+    </row>
+    <row r="46" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G46"/>
+    </row>
+    <row r="47" spans="7:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G47"/>
+    </row>
+    <row r="48" spans="7:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G48"/>
+    </row>
+    <row r="49" spans="7:7" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G49"/>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/OREI_files/40-herd data/descriptive stat sheets by group.xlsx
+++ b/OREI_files/40-herd data/descriptive stat sheets by group.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/40-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="707" documentId="8_{126BB96A-507C-4CDA-9D59-67A075BB21DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C837EB6E-94A4-4685-B936-1FA481DCB31C}"/>
+  <xr:revisionPtr revIDLastSave="1030" documentId="8_{126BB96A-507C-4CDA-9D59-67A075BB21DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75F4BD05-3E48-4BF5-9DC2-34BE66D24FED}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="4" xr2:uid="{BD75E345-1D78-4F68-86D2-D9942F22A602}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="5" xr2:uid="{BD75E345-1D78-4F68-86D2-D9942F22A602}"/>
   </bookViews>
   <sheets>
     <sheet name="farm traits + lact cow housing" sheetId="1" r:id="rId1"/>
     <sheet name="lact bedding details + mgmt" sheetId="2" r:id="rId2"/>
     <sheet name="milking procedures" sheetId="3" r:id="rId3"/>
     <sheet name="mastitis control" sheetId="4" r:id="rId4"/>
-    <sheet name="outcome- udder health+prod" sheetId="5" r:id="rId5"/>
-    <sheet name="outcome- XXX" sheetId="6" r:id="rId6"/>
+    <sheet name="outcome- SCC (raw, log2, log10)" sheetId="8" r:id="rId5"/>
+    <sheet name="outcome- udder health+prod" sheetId="5" r:id="rId6"/>
+    <sheet name="outcome- udder hygiene" sheetId="7" r:id="rId7"/>
+    <sheet name="outcome- BTM culture" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="293">
   <si>
     <t>Range</t>
   </si>
@@ -627,33 +629,12 @@
     <t>Outcome</t>
   </si>
   <si>
-    <t>perc_new_IMI</t>
-  </si>
-  <si>
-    <t>perc_chron_IMI</t>
-  </si>
-  <si>
-    <t>perc_IMI</t>
-  </si>
-  <si>
-    <t>std_150_milk</t>
-  </si>
-  <si>
-    <t>avg_LS_unweighted</t>
-  </si>
-  <si>
-    <t>avg_LS_weighted</t>
-  </si>
-  <si>
     <t>Percent NEW IMI</t>
   </si>
   <si>
     <t>OUTCOME: Udder health and productivity data</t>
   </si>
   <si>
-    <t>Categorical outcomes</t>
-  </si>
-  <si>
     <t>Continuous outcomes</t>
   </si>
   <si>
@@ -691,6 +672,264 @@
   </si>
   <si>
     <t>2.4-5</t>
+  </si>
+  <si>
+    <t>2.9-12.3</t>
+  </si>
+  <si>
+    <t>3 (NA=2)</t>
+  </si>
+  <si>
+    <t>4 (NA=1)</t>
+  </si>
+  <si>
+    <t>38.5-56.3</t>
+  </si>
+  <si>
+    <t>1.7-3.1</t>
+  </si>
+  <si>
+    <t>2.4-4.3</t>
+  </si>
+  <si>
+    <t>0-10.5</t>
+  </si>
+  <si>
+    <t>7.8-20.8</t>
+  </si>
+  <si>
+    <t>17.6-32.8</t>
+  </si>
+  <si>
+    <t>8 (NA=2)</t>
+  </si>
+  <si>
+    <t>33.5-68.0</t>
+  </si>
+  <si>
+    <t>2.2-2.8</t>
+  </si>
+  <si>
+    <t>3.4-4.4</t>
+  </si>
+  <si>
+    <t>0-9.8</t>
+  </si>
+  <si>
+    <t>5.7-23.1</t>
+  </si>
+  <si>
+    <t>11.6-36.5</t>
+  </si>
+  <si>
+    <t>38.7-67.7</t>
+  </si>
+  <si>
+    <t>1.9-3.3</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>Average hygiene score</t>
+  </si>
+  <si>
+    <t>Proportion hygiene scores 3 + 4</t>
+  </si>
+  <si>
+    <t>OUTCOME: Udder hygiene data</t>
+  </si>
+  <si>
+    <t>1.7-3.04</t>
+  </si>
+  <si>
+    <t>0.1-0.79</t>
+  </si>
+  <si>
+    <t>1.7-2.48</t>
+  </si>
+  <si>
+    <t>0.1-0.48</t>
+  </si>
+  <si>
+    <t>1.9-3.04</t>
+  </si>
+  <si>
+    <t>0.21-0.79</t>
+  </si>
+  <si>
+    <t>1.8-2.48</t>
+  </si>
+  <si>
+    <t>0.16-0.55</t>
+  </si>
+  <si>
+    <t>OUTCOME: BTM Somatic cell count data</t>
+  </si>
+  <si>
+    <t>Somatic cell count (raw)</t>
+  </si>
+  <si>
+    <t>Somatic cell count (log2)</t>
+  </si>
+  <si>
+    <t>Somatic cell count (log10)</t>
+  </si>
+  <si>
+    <t>54,000-250,000</t>
+  </si>
+  <si>
+    <t>2.11-4.32</t>
+  </si>
+  <si>
+    <t>4.73-5.40</t>
+  </si>
+  <si>
+    <t>54,000-160,000</t>
+  </si>
+  <si>
+    <t>2.11-3.68</t>
+  </si>
+  <si>
+    <t>4.73-5.2</t>
+  </si>
+  <si>
+    <t>97,000-250,000</t>
+  </si>
+  <si>
+    <t>2.96-4.32</t>
+  </si>
+  <si>
+    <t>4.99-5.40</t>
+  </si>
+  <si>
+    <t>98,000-250,000</t>
+  </si>
+  <si>
+    <t>2.97-4.32</t>
+  </si>
+  <si>
+    <t>OUTCOME: BTM culture data</t>
+  </si>
+  <si>
+    <t>Coliform count (CFU/mL)</t>
+  </si>
+  <si>
+    <t>Non-ag Strep count (CFU/mL)</t>
+  </si>
+  <si>
+    <t>Staph. aureus count (CFU/mL)</t>
+  </si>
+  <si>
+    <t>Staph. species count (CFU/mL)</t>
+  </si>
+  <si>
+    <t>Count outcomes</t>
+  </si>
+  <si>
+    <t>0 CFU</t>
+  </si>
+  <si>
+    <t>5 CFU</t>
+  </si>
+  <si>
+    <t>n=5</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>10-1250</t>
+  </si>
+  <si>
+    <t>S. aureus present= 13</t>
+  </si>
+  <si>
+    <t>0-320</t>
+  </si>
+  <si>
+    <t>0-665</t>
+  </si>
+  <si>
+    <t>n=1</t>
+  </si>
+  <si>
+    <t>n=4</t>
+  </si>
+  <si>
+    <t>10-80</t>
+  </si>
+  <si>
+    <t>S. aureus absent= 8</t>
+  </si>
+  <si>
+    <t>S. aureus absent= 3</t>
+  </si>
+  <si>
+    <t>S. aureus present= 2</t>
+  </si>
+  <si>
+    <t>0-30</t>
+  </si>
+  <si>
+    <t>0-130</t>
+  </si>
+  <si>
+    <t>n=7</t>
+  </si>
+  <si>
+    <t>n=3</t>
+  </si>
+  <si>
+    <t>20-1250</t>
+  </si>
+  <si>
+    <t>S. aureus present= 7</t>
+  </si>
+  <si>
+    <t>15-665</t>
+  </si>
+  <si>
+    <t>25-260</t>
+  </si>
+  <si>
+    <t>S. aureus absent= 2</t>
+  </si>
+  <si>
+    <t>S. aureus present= 4</t>
+  </si>
+  <si>
+    <t>0-100</t>
+  </si>
+  <si>
+    <t>5-125</t>
+  </si>
+  <si>
+    <t>Wood shavings</t>
+  </si>
+  <si>
+    <t>3-4.4</t>
+  </si>
+  <si>
+    <t>1.8-3.04</t>
+  </si>
+  <si>
+    <t>0.16-0.79</t>
+  </si>
+  <si>
+    <t>n=11</t>
+  </si>
+  <si>
+    <t>S. aureus absent= 4</t>
+  </si>
+  <si>
+    <t>S. aureus present= 11</t>
+  </si>
+  <si>
+    <t>5-665</t>
+  </si>
+  <si>
+    <t>*"Wood shavings" is wood shaving bedding managed in any type of stall</t>
   </si>
 </sst>
 </file>
@@ -844,7 +1083,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -950,12 +1189,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -982,6 +1215,47 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1305,7 +1579,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1333,15 +1607,15 @@
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47" t="s">
+      <c r="E2" s="65"/>
+      <c r="F2" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -1706,7 +1980,7 @@
       <c r="H29" s="12"/>
     </row>
     <row r="30" spans="2:8" s="30" customFormat="1" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="47" t="s">
         <v>184</v>
       </c>
       <c r="C30" s="30" t="s">
@@ -1718,10 +1992,10 @@
       <c r="E30" s="30">
         <v>60</v>
       </c>
-      <c r="H30" s="51"/>
+      <c r="H30" s="49"/>
     </row>
     <row r="31" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="50" t="s">
         <v>185</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -2006,8 +2280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC7B1E9-526D-41DC-A523-0A5494D9C7DD}">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2022,29 +2296,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47" t="s">
+      <c r="E2" s="65"/>
+      <c r="F2" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -2292,11 +2566,11 @@
     </row>
     <row r="21" spans="1:8" s="7" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="23"/>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="48" t="s">
         <v>182</v>
       </c>
       <c r="D21" s="29"/>
-      <c r="E21" s="50"/>
+      <c r="E21" s="48"/>
       <c r="H21" s="32"/>
     </row>
     <row r="22" spans="1:8" s="7" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2556,8 +2830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21AE885A-FF7F-4688-80AC-54ECDDAC6CBC}">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2572,29 +2846,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47" t="s">
+      <c r="E2" s="65"/>
+      <c r="F2" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -3056,7 +3330,7 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3071,29 +3345,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="3"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47" t="s">
+      <c r="E2" s="65"/>
+      <c r="F2" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
@@ -3571,7 +3845,7 @@
       </c>
       <c r="H38"/>
     </row>
-    <row r="39" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="21"/>
       <c r="B39" s="5" t="s">
         <v>169</v>
@@ -3774,287 +4048,534 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450D3C41-EA67-4045-92C3-4FCA41EBE615}">
-  <dimension ref="A1:F50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038FDC8F-9E4C-4978-BA7D-5D5F8FB46B0A}">
+  <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.453125" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="8"/>
+    <col min="2" max="2" width="22.7265625" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" customWidth="1"/>
+    <col min="7" max="7" width="16.7265625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G1" s="20"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-    </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="1"/>
+      <c r="E2" s="65" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>202</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C4" s="62">
-        <v>19</v>
-      </c>
-      <c r="D4">
-        <v>5.7</v>
-      </c>
-      <c r="E4">
-        <v>3.7</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="62"/>
-    </row>
-    <row r="6" spans="1:6" s="58" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="59" t="s">
-        <v>203</v>
-      </c>
-      <c r="C6" s="63">
-        <v>19</v>
-      </c>
-      <c r="D6" s="58">
-        <v>13.6</v>
-      </c>
-      <c r="E6" s="58">
-        <v>5.8</v>
-      </c>
-      <c r="F6" s="64" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-    </row>
-    <row r="8" spans="1:6" s="58" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="59" t="s">
-        <v>204</v>
-      </c>
-      <c r="C8" s="65">
-        <v>19</v>
-      </c>
-      <c r="D8" s="58">
-        <v>25</v>
-      </c>
-      <c r="E8" s="58">
-        <v>7.8</v>
-      </c>
-      <c r="F8" s="64" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-    </row>
-    <row r="10" spans="1:6" s="58" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="60" t="s">
-        <v>205</v>
-      </c>
-      <c r="C10" s="66">
-        <v>18</v>
-      </c>
-      <c r="D10" s="58">
-        <v>50</v>
-      </c>
-      <c r="E10" s="58">
-        <v>10.1</v>
-      </c>
-      <c r="F10" s="64" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="56"/>
-      <c r="C11" s="55"/>
-    </row>
-    <row r="12" spans="1:6" s="58" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="61" t="s">
-        <v>206</v>
-      </c>
-      <c r="C12" s="65">
-        <v>20</v>
-      </c>
-      <c r="D12" s="58">
-        <v>2.44</v>
-      </c>
-      <c r="E12" s="58">
-        <v>0.42</v>
-      </c>
-      <c r="F12" s="64" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="54"/>
-      <c r="C13" s="57"/>
-    </row>
-    <row r="14" spans="1:6" s="58" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="C14" s="66">
-        <v>20</v>
-      </c>
-      <c r="D14" s="58">
-        <v>3.72</v>
-      </c>
-      <c r="E14" s="58">
+        <v>238</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="60">
+        <v>21</v>
+      </c>
+      <c r="E4" s="69">
+        <v>144286</v>
+      </c>
+      <c r="F4" s="70">
+        <v>53934.35</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="68">
+        <v>5</v>
+      </c>
+      <c r="E5" s="69">
+        <v>107600</v>
+      </c>
+      <c r="F5" s="70">
+        <v>42582.9</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="60">
+        <v>10</v>
+      </c>
+      <c r="E6" s="69">
+        <v>146400</v>
+      </c>
+      <c r="F6" s="70">
+        <v>52055.95</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="60">
+        <v>6</v>
+      </c>
+      <c r="E7" s="69">
+        <v>171333</v>
+      </c>
+      <c r="F7" s="70">
+        <v>55449.68</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="67"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="4"/>
+      <c r="C9" s="57" t="s">
+        <v>284</v>
+      </c>
+      <c r="D9" s="61">
+        <v>15</v>
+      </c>
+      <c r="E9" s="79">
+        <v>152800</v>
+      </c>
+      <c r="F9" s="80">
+        <v>53455.19</v>
+      </c>
+      <c r="G9" s="62" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="4"/>
+      <c r="C10" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="68">
+        <v>5</v>
+      </c>
+      <c r="E10" s="69">
+        <v>107600</v>
+      </c>
+      <c r="F10" s="70">
+        <v>42582.9</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="60"/>
+    </row>
+    <row r="12" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="57" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" s="57"/>
+      <c r="D12" s="61">
+        <v>21</v>
+      </c>
+      <c r="E12" s="56">
+        <v>3.43</v>
+      </c>
+      <c r="F12" s="56">
         <v>0.56000000000000005</v>
       </c>
-      <c r="F14" s="64" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F16"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F17"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F18"/>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F19"/>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F20"/>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F21"/>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F22"/>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F23"/>
-    </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F24"/>
-    </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F25"/>
-    </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F26"/>
-    </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F27"/>
-    </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F28"/>
-    </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F29"/>
-    </row>
-    <row r="30" spans="6:6" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F30"/>
-    </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F31"/>
-    </row>
-    <row r="32" spans="6:6" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F32"/>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F33"/>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F34"/>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F35"/>
-    </row>
-    <row r="36" spans="6:6" ht="56" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F36"/>
-    </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F37"/>
-    </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F38"/>
-    </row>
-    <row r="39" spans="6:6" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F39"/>
-    </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F40"/>
-    </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F41"/>
-    </row>
-    <row r="42" spans="6:6" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F42"/>
-    </row>
-    <row r="43" spans="6:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F43"/>
-    </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F44"/>
-    </row>
-    <row r="45" spans="6:6" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F45"/>
-    </row>
-    <row r="46" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F46"/>
-    </row>
-    <row r="47" spans="6:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F47"/>
-    </row>
-    <row r="48" spans="6:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F48"/>
-    </row>
-    <row r="49" spans="6:6" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F49"/>
-    </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F50"/>
+      <c r="G12" s="62" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="68">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>3.01</v>
+      </c>
+      <c r="F13">
+        <v>0.62</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="60">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>3.48</v>
+      </c>
+      <c r="F14">
+        <v>0.49</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="60">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>3.71</v>
+      </c>
+      <c r="F15">
+        <v>0.49</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="67"/>
+      <c r="D16" s="60"/>
+    </row>
+    <row r="17" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="57" t="s">
+        <v>284</v>
+      </c>
+      <c r="D17" s="61">
+        <v>15</v>
+      </c>
+      <c r="E17" s="56">
+        <v>3.53</v>
+      </c>
+      <c r="F17" s="56">
+        <v>0.49</v>
+      </c>
+      <c r="G17" s="62" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="68">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>3.01</v>
+      </c>
+      <c r="F18">
+        <v>0.62</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+    </row>
+    <row r="20" spans="2:7" s="56" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="57" t="s">
+        <v>240</v>
+      </c>
+      <c r="C20" s="57"/>
+      <c r="D20" s="63">
+        <v>21</v>
+      </c>
+      <c r="E20" s="56">
+        <v>5.13</v>
+      </c>
+      <c r="F20" s="56">
+        <v>0.17</v>
+      </c>
+      <c r="G20" s="62" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="68">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>0.19</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="60">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>5.14</v>
+      </c>
+      <c r="F22">
+        <v>0.15</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="60">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>5.21</v>
+      </c>
+      <c r="F23">
+        <v>0.15</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+    </row>
+    <row r="25" spans="2:7" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="57" t="s">
+        <v>284</v>
+      </c>
+      <c r="D25" s="61">
+        <v>15</v>
+      </c>
+      <c r="E25" s="56">
+        <v>5.16</v>
+      </c>
+      <c r="F25" s="56">
+        <v>0.15</v>
+      </c>
+      <c r="G25" s="62" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="68">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>0.19</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G27"/>
+    </row>
+    <row r="28" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G28"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="G29"/>
+    </row>
+    <row r="30" spans="2:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G30"/>
+    </row>
+    <row r="31" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G32"/>
+    </row>
+    <row r="33" spans="7:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G34"/>
+    </row>
+    <row r="35" spans="7:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="7:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="7:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G37"/>
+    </row>
+    <row r="38" spans="7:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G38"/>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G39"/>
+    </row>
+    <row r="40" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G40"/>
+    </row>
+    <row r="41" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G41"/>
+    </row>
+    <row r="42" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G42"/>
+    </row>
+    <row r="43" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G43"/>
+    </row>
+    <row r="44" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G44"/>
+    </row>
+    <row r="45" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G45"/>
+    </row>
+    <row r="46" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G46"/>
+    </row>
+    <row r="47" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G47"/>
+    </row>
+    <row r="48" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G48"/>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G49"/>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G50"/>
+    </row>
+    <row r="51" spans="7:7" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G51"/>
+    </row>
+    <row r="52" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G52"/>
+    </row>
+    <row r="53" spans="7:7" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G53"/>
+    </row>
+    <row r="54" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G54"/>
+    </row>
+    <row r="55" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G55"/>
+    </row>
+    <row r="56" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G56"/>
+    </row>
+    <row r="57" spans="7:7" ht="56" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G57"/>
+    </row>
+    <row r="58" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G58"/>
+    </row>
+    <row r="59" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G59"/>
+    </row>
+    <row r="60" spans="7:7" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G60"/>
+    </row>
+    <row r="61" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G61"/>
+    </row>
+    <row r="62" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G62"/>
+    </row>
+    <row r="63" spans="7:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G63"/>
+    </row>
+    <row r="64" spans="7:7" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G64"/>
+    </row>
+    <row r="65" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G65"/>
+    </row>
+    <row r="66" spans="7:7" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G66"/>
+    </row>
+    <row r="67" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G67"/>
+    </row>
+    <row r="68" spans="7:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G68"/>
+    </row>
+    <row r="69" spans="7:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G69"/>
+    </row>
+    <row r="70" spans="7:7" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G70"/>
+    </row>
+    <row r="71" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G71"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4062,25 +4583,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0CDADA-377C-4F3B-B52C-F15973102B77}">
-  <dimension ref="A1:G50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450D3C41-EA67-4045-92C3-4FCA41EBE615}">
+  <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="22.453125" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
     <col min="6" max="6" width="6.90625" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="8"/>
+    <col min="7" max="7" width="10.453125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -4088,28 +4610,850 @@
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
+      <c r="K1" s="83" t="s">
+        <v>292</v>
+      </c>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="65" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+    </row>
+    <row r="3" spans="1:14" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="60">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>5.7</v>
+      </c>
+      <c r="F4">
+        <v>3.7</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>4.8</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="60">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>5.4</v>
+      </c>
+      <c r="F6">
+        <v>3.9</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="60">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>5.6</v>
+      </c>
+      <c r="F7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="67"/>
+      <c r="D8" s="60"/>
+    </row>
+    <row r="9" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="4"/>
+      <c r="C9" s="57" t="s">
+        <v>284</v>
+      </c>
+      <c r="D9" s="61">
+        <v>15</v>
+      </c>
+      <c r="E9" s="56">
+        <v>5.53</v>
+      </c>
+      <c r="F9" s="56">
+        <v>3.7</v>
+      </c>
+      <c r="G9" s="62" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="4"/>
+      <c r="C10" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>208</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>4.8</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="60"/>
+    </row>
+    <row r="12" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="C12" s="57"/>
+      <c r="D12" s="61">
+        <v>19</v>
+      </c>
+      <c r="E12" s="56">
+        <v>13.6</v>
+      </c>
+      <c r="F12" s="56">
+        <v>5.8</v>
+      </c>
+      <c r="G12" s="62" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="68" t="s">
+        <v>208</v>
+      </c>
+      <c r="E13">
+        <v>14.5</v>
+      </c>
+      <c r="F13">
+        <v>10.4</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="60">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>14.3</v>
+      </c>
+      <c r="F14">
+        <v>3.9</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="60">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>6.6</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="67"/>
+      <c r="D16" s="60"/>
+    </row>
+    <row r="17" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="57" t="s">
+        <v>284</v>
+      </c>
+      <c r="D17" s="61">
+        <v>15</v>
+      </c>
+      <c r="E17" s="56">
+        <v>13.4</v>
+      </c>
+      <c r="F17" s="56">
+        <v>5.2</v>
+      </c>
+      <c r="G17" s="62" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>208</v>
+      </c>
+      <c r="E18">
+        <v>14.5</v>
+      </c>
+      <c r="F18">
+        <v>10.4</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+    </row>
+    <row r="20" spans="2:7" s="56" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" s="57"/>
+      <c r="D20" s="63">
+        <v>19</v>
+      </c>
+      <c r="E20" s="56">
+        <v>25</v>
+      </c>
+      <c r="F20" s="56">
+        <v>7.8</v>
+      </c>
+      <c r="G20" s="62" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="68" t="s">
+        <v>208</v>
+      </c>
+      <c r="E21">
+        <v>26</v>
+      </c>
+      <c r="F21">
+        <v>15.2</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="60">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>25.4</v>
+      </c>
+      <c r="F22">
+        <v>5.2</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="60">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>23.7</v>
+      </c>
+      <c r="F23">
+        <v>8.5</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="67"/>
+      <c r="D24" s="60"/>
+    </row>
+    <row r="25" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="57" t="s">
+        <v>284</v>
+      </c>
+      <c r="D25" s="61">
+        <v>15</v>
+      </c>
+      <c r="E25" s="56">
+        <v>24.7</v>
+      </c>
+      <c r="F25" s="56">
+        <v>6.6</v>
+      </c>
+      <c r="G25" s="62" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="68" t="s">
+        <v>208</v>
+      </c>
+      <c r="E26">
+        <v>26</v>
+      </c>
+      <c r="F26">
+        <v>15.2</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+    </row>
+    <row r="28" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="58" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28" s="58"/>
+      <c r="D28" s="64">
+        <v>18</v>
+      </c>
+      <c r="E28" s="56">
+        <v>50</v>
+      </c>
+      <c r="F28" s="56">
+        <v>10.1</v>
+      </c>
+      <c r="G28" s="62" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="E29">
+        <v>46.9</v>
+      </c>
+      <c r="F29">
+        <v>8.1</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E30">
+        <v>49.4</v>
+      </c>
+      <c r="F30">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="60">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>53</v>
+      </c>
+      <c r="F31">
+        <v>11.9</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="67"/>
+      <c r="D32" s="60"/>
+    </row>
+    <row r="33" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="57" t="s">
+        <v>284</v>
+      </c>
+      <c r="D33" s="61">
+        <v>15</v>
+      </c>
+      <c r="E33" s="56">
+        <v>51.4</v>
+      </c>
+      <c r="F33" s="56">
+        <v>11</v>
+      </c>
+      <c r="G33" s="62" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="E34">
+        <v>46.9</v>
+      </c>
+      <c r="F34">
+        <v>8.1</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="53"/>
+    </row>
+    <row r="36" spans="2:7" s="56" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="59" t="s">
+        <v>199</v>
+      </c>
+      <c r="C36" s="59"/>
+      <c r="D36" s="63">
+        <v>20</v>
+      </c>
+      <c r="E36" s="56">
+        <v>2.44</v>
+      </c>
+      <c r="F36" s="56">
+        <v>0.42</v>
+      </c>
+      <c r="G36" s="62" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="E37">
+        <v>2.38</v>
+      </c>
+      <c r="F37">
+        <v>0.61</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="60">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F38">
+        <v>0.23</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="60">
+        <v>6</v>
+      </c>
+      <c r="E39">
+        <v>2.5</v>
+      </c>
+      <c r="F39">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="67"/>
+      <c r="D40" s="60"/>
+    </row>
+    <row r="41" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="57" t="s">
+        <v>284</v>
+      </c>
+      <c r="D41" s="61">
+        <v>15</v>
+      </c>
+      <c r="E41" s="56">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F41" s="56">
+        <v>0.38</v>
+      </c>
+      <c r="G41" s="62" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="E42">
+        <v>2.38</v>
+      </c>
+      <c r="F42">
+        <v>0.61</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="55"/>
+    </row>
+    <row r="44" spans="2:7" s="56" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="C44" s="59"/>
+      <c r="D44" s="64">
+        <v>20</v>
+      </c>
+      <c r="E44" s="56">
+        <v>3.72</v>
+      </c>
+      <c r="F44" s="56">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G44" s="62" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C45" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="E45">
+        <v>3.48</v>
+      </c>
+      <c r="F45">
+        <v>0.81</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C46" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="60">
+        <v>10</v>
+      </c>
+      <c r="E46">
+        <v>3.75</v>
+      </c>
+      <c r="F46">
+        <v>0.38</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C47" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="60">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>3.83</v>
+      </c>
+      <c r="F47">
+        <v>0.71</v>
+      </c>
+      <c r="G47" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C49" s="57" t="s">
+        <v>284</v>
+      </c>
+      <c r="D49" s="61">
+        <v>15</v>
+      </c>
+      <c r="E49" s="56">
+        <v>3.7</v>
+      </c>
+      <c r="F49" s="56">
+        <v>0.4</v>
+      </c>
+      <c r="G49" s="62" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C50" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="E50">
+        <v>3.48</v>
+      </c>
+      <c r="F50">
+        <v>0.81</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="G51"/>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="G52"/>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="G53"/>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="G54"/>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="G55"/>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="G56"/>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="G57"/>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="G58"/>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="G59"/>
+    </row>
+    <row r="60" spans="3:7" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G60"/>
+    </row>
+    <row r="61" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="G61"/>
+    </row>
+    <row r="62" spans="3:7" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G62"/>
+    </row>
+    <row r="63" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="G63"/>
+    </row>
+    <row r="64" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="G64"/>
+    </row>
+    <row r="65" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G65"/>
+    </row>
+    <row r="66" spans="7:7" ht="56" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G66"/>
+    </row>
+    <row r="67" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G67"/>
+    </row>
+    <row r="68" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G68"/>
+    </row>
+    <row r="69" spans="7:7" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G69"/>
+    </row>
+    <row r="70" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G70"/>
+    </row>
+    <row r="71" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G71"/>
+    </row>
+    <row r="72" spans="7:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G72"/>
+    </row>
+    <row r="73" spans="7:7" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G73"/>
+    </row>
+    <row r="74" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G74"/>
+    </row>
+    <row r="75" spans="7:7" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G75"/>
+    </row>
+    <row r="76" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G76"/>
+    </row>
+    <row r="77" spans="7:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G77"/>
+    </row>
+    <row r="78" spans="7:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G78"/>
+    </row>
+    <row r="79" spans="7:7" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G79"/>
+    </row>
+    <row r="80" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G80"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AE9ADA-651B-4047-9589-3FDFC20B586D}">
+  <dimension ref="A1:G68"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="2" max="2" width="27.1796875" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="6" max="6" width="6.90625" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
-      <c r="C2" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="65" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>195</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
@@ -4123,123 +5467,273 @@
     </row>
     <row r="4" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="6"/>
-      <c r="G6" s="12"/>
+        <v>226</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="60">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="F4">
+        <v>0.39</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="68">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F5">
+        <v>0.31</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="60">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>2.5</v>
+      </c>
+      <c r="F6">
+        <v>0.42</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="G9"/>
-    </row>
-    <row r="10" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="54" t="s">
-        <v>193</v>
-      </c>
-      <c r="G10"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B11" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="G11"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B12" s="53" t="s">
-        <v>195</v>
-      </c>
-      <c r="G12"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B13" s="54" t="s">
-        <v>196</v>
-      </c>
-      <c r="G13"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B14" s="53" t="s">
-        <v>197</v>
-      </c>
-      <c r="G14"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G15"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G16"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G17"/>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G18"/>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="C7" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="60">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>2.15</v>
+      </c>
+      <c r="F7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="67"/>
+      <c r="D8" s="60"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="57" t="s">
+        <v>284</v>
+      </c>
+      <c r="D9" s="61">
+        <v>15</v>
+      </c>
+      <c r="E9" s="56">
+        <v>2.39</v>
+      </c>
+      <c r="F9" s="56">
+        <v>0.41</v>
+      </c>
+      <c r="G9" s="62" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="4"/>
+      <c r="C10" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="68">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F10">
+        <v>0.31</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="60"/>
+    </row>
+    <row r="12" spans="1:7" s="56" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="57" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" s="57"/>
+      <c r="D12" s="61">
+        <v>21</v>
+      </c>
+      <c r="E12" s="56">
+        <v>0.4</v>
+      </c>
+      <c r="F12" s="56">
+        <v>0.2</v>
+      </c>
+      <c r="G12" s="62" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="68">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>0.32</v>
+      </c>
+      <c r="F13">
+        <v>0.16</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="60">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>0.49</v>
+      </c>
+      <c r="F14">
+        <v>0.21</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="60">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>0.32</v>
+      </c>
+      <c r="F15">
+        <v>0.16</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+    </row>
+    <row r="17" spans="3:7" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="57" t="s">
+        <v>284</v>
+      </c>
+      <c r="D17" s="61">
+        <v>15</v>
+      </c>
+      <c r="E17" s="56">
+        <v>0.43</v>
+      </c>
+      <c r="F17" s="56">
+        <v>0.21</v>
+      </c>
+      <c r="G17" s="62" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="68">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>0.32</v>
+      </c>
+      <c r="F18">
+        <v>0.16</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G19"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G20"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.35">
       <c r="G21"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.35">
       <c r="G22"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G23"/>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G24"/>
     </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G25"/>
     </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.35">
       <c r="G26"/>
     </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G27"/>
     </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G28"/>
     </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G29"/>
     </row>
-    <row r="30" spans="7:7" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G30"/>
     </row>
-    <row r="31" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.35">
       <c r="G31"/>
     </row>
-    <row r="32" spans="7:7" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G32"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="7:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G33"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="7:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G34"/>
     </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="7:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G35"/>
-    </row>
-    <row r="36" spans="7:7" ht="56" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G36"/>
     </row>
     <row r="37" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G37"/>
@@ -4247,7 +5741,7 @@
     <row r="38" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G38"/>
     </row>
-    <row r="39" spans="7:7" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G39"/>
     </row>
     <row r="40" spans="7:7" x14ac:dyDescent="0.35">
@@ -4256,39 +5750,899 @@
     <row r="41" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G41"/>
     </row>
-    <row r="42" spans="7:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G42"/>
     </row>
-    <row r="43" spans="7:7" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G43"/>
     </row>
     <row r="44" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G44"/>
     </row>
-    <row r="45" spans="7:7" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G45"/>
     </row>
     <row r="46" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G46"/>
     </row>
-    <row r="47" spans="7:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G47"/>
     </row>
-    <row r="48" spans="7:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="7:7" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G48"/>
     </row>
-    <row r="49" spans="7:7" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G49"/>
     </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="7:7" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G50"/>
     </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G51"/>
+    </row>
+    <row r="52" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G52"/>
+    </row>
+    <row r="53" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G53"/>
+    </row>
+    <row r="54" spans="7:7" ht="56" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G54"/>
+    </row>
+    <row r="55" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G55"/>
+    </row>
+    <row r="56" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G56"/>
+    </row>
+    <row r="57" spans="7:7" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G57"/>
+    </row>
+    <row r="58" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G58"/>
+    </row>
+    <row r="59" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G59"/>
+    </row>
+    <row r="60" spans="7:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G60"/>
+    </row>
+    <row r="61" spans="7:7" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G61"/>
+    </row>
+    <row r="62" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G62"/>
+    </row>
+    <row r="63" spans="7:7" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G63"/>
+    </row>
+    <row r="64" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G64"/>
+    </row>
+    <row r="65" spans="7:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G65"/>
+    </row>
+    <row r="66" spans="7:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G66"/>
+    </row>
+    <row r="67" spans="7:7" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G67"/>
+    </row>
+    <row r="68" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G68"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C2:D2"/>
+  <mergeCells count="1">
     <mergeCell ref="E2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880F3C97-102F-43A4-90DB-1686244A8CC5}">
+  <dimension ref="A1:I74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="2" max="2" width="26.7265625" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="5" width="13.81640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" customWidth="1"/>
+    <col min="8" max="8" width="6.90625" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="65" t="s">
+        <v>257</v>
+      </c>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65" t="s">
+        <v>194</v>
+      </c>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+    </row>
+    <row r="3" spans="1:9" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" s="71" t="s">
+        <v>258</v>
+      </c>
+      <c r="F3" s="71" t="s">
+        <v>259</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="60">
+        <v>21</v>
+      </c>
+      <c r="E4" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>260</v>
+      </c>
+      <c r="G4" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="H4" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="I4" s="73" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="68">
+        <v>5</v>
+      </c>
+      <c r="E5" s="72" t="s">
+        <v>267</v>
+      </c>
+      <c r="F5" s="72" t="s">
+        <v>266</v>
+      </c>
+      <c r="G5" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="H5" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="I5" s="73" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="60">
+        <v>10</v>
+      </c>
+      <c r="E6" s="72" t="s">
+        <v>274</v>
+      </c>
+      <c r="F6" s="72" t="s">
+        <v>275</v>
+      </c>
+      <c r="G6" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="H6" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="I6" s="73" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="60">
+        <v>6</v>
+      </c>
+      <c r="E7" s="72" t="s">
+        <v>260</v>
+      </c>
+      <c r="F7" s="72" t="s">
+        <v>266</v>
+      </c>
+      <c r="G7" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="H7" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="I7" s="73" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="67"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+    </row>
+    <row r="9" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="4"/>
+      <c r="C9" s="57" t="s">
+        <v>284</v>
+      </c>
+      <c r="D9" s="61">
+        <v>15</v>
+      </c>
+      <c r="E9" s="81" t="s">
+        <v>288</v>
+      </c>
+      <c r="F9" s="81" t="s">
+        <v>267</v>
+      </c>
+      <c r="G9" s="82" t="s">
+        <v>261</v>
+      </c>
+      <c r="H9" s="82" t="s">
+        <v>261</v>
+      </c>
+      <c r="I9" s="82" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="4"/>
+      <c r="C10" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="68">
+        <v>5</v>
+      </c>
+      <c r="E10" s="72" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" s="72" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="H10" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="I10" s="73" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="60"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="57" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" s="57"/>
+      <c r="D12" s="61">
+        <v>21</v>
+      </c>
+      <c r="E12" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="F12" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="G12" s="73">
+        <v>156.4</v>
+      </c>
+      <c r="H12" s="56">
+        <v>268</v>
+      </c>
+      <c r="I12" s="62" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="68">
+        <v>5</v>
+      </c>
+      <c r="E13" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="F13" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="G13" s="73">
+        <v>39</v>
+      </c>
+      <c r="H13">
+        <v>25.3</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="60">
+        <v>10</v>
+      </c>
+      <c r="E14" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="F14" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="G14" s="73">
+        <v>255.5</v>
+      </c>
+      <c r="H14">
+        <v>364.6</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="60">
+        <v>6</v>
+      </c>
+      <c r="E15" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="F15" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="G15" s="73">
+        <v>89.2</v>
+      </c>
+      <c r="H15">
+        <v>97.5</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="67"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+    </row>
+    <row r="17" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="57" t="s">
+        <v>284</v>
+      </c>
+      <c r="D17" s="61">
+        <v>15</v>
+      </c>
+      <c r="E17" s="82" t="s">
+        <v>261</v>
+      </c>
+      <c r="F17" s="82" t="s">
+        <v>261</v>
+      </c>
+      <c r="G17" s="56">
+        <v>204</v>
+      </c>
+      <c r="H17" s="56">
+        <v>307</v>
+      </c>
+      <c r="I17" s="62" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="68">
+        <v>5</v>
+      </c>
+      <c r="E18" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="F18" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="G18" s="73">
+        <v>39</v>
+      </c>
+      <c r="H18">
+        <v>25.3</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="51"/>
+    </row>
+    <row r="20" spans="2:9" s="56" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="57" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="57"/>
+      <c r="D20" s="63">
+        <v>21</v>
+      </c>
+      <c r="E20" s="76" t="s">
+        <v>269</v>
+      </c>
+      <c r="F20" s="77" t="s">
+        <v>263</v>
+      </c>
+      <c r="G20" s="56">
+        <v>43.6</v>
+      </c>
+      <c r="H20" s="56">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="I20" s="62" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="68">
+        <v>5</v>
+      </c>
+      <c r="E21" s="76" t="s">
+        <v>270</v>
+      </c>
+      <c r="F21" s="78" t="s">
+        <v>271</v>
+      </c>
+      <c r="G21">
+        <v>9</v>
+      </c>
+      <c r="H21">
+        <v>13.4</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="60">
+        <v>10</v>
+      </c>
+      <c r="E22" s="76" t="s">
+        <v>270</v>
+      </c>
+      <c r="F22" s="78" t="s">
+        <v>277</v>
+      </c>
+      <c r="G22">
+        <v>63</v>
+      </c>
+      <c r="H22">
+        <v>94.3</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="60">
+        <v>6</v>
+      </c>
+      <c r="E23" s="76" t="s">
+        <v>280</v>
+      </c>
+      <c r="F23" s="78" t="s">
+        <v>281</v>
+      </c>
+      <c r="G23">
+        <v>40</v>
+      </c>
+      <c r="H23">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="67"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="78"/>
+    </row>
+    <row r="25" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="57" t="s">
+        <v>284</v>
+      </c>
+      <c r="D25" s="61">
+        <v>15</v>
+      </c>
+      <c r="E25" s="77" t="s">
+        <v>289</v>
+      </c>
+      <c r="F25" s="77" t="s">
+        <v>290</v>
+      </c>
+      <c r="G25" s="56">
+        <v>58</v>
+      </c>
+      <c r="H25" s="56">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="I25" s="62" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="68">
+        <v>5</v>
+      </c>
+      <c r="E26" s="76" t="s">
+        <v>270</v>
+      </c>
+      <c r="F26" s="78" t="s">
+        <v>271</v>
+      </c>
+      <c r="G26">
+        <v>9</v>
+      </c>
+      <c r="H26">
+        <v>13.4</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+    </row>
+    <row r="28" spans="2:9" s="56" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="C28" s="58"/>
+      <c r="D28" s="64">
+        <v>21</v>
+      </c>
+      <c r="E28" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="F28" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="G28" s="56">
+        <v>95.5</v>
+      </c>
+      <c r="H28" s="56">
+        <v>140</v>
+      </c>
+      <c r="I28" s="62" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="68">
+        <v>5</v>
+      </c>
+      <c r="E29" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="F29" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="G29">
+        <v>53</v>
+      </c>
+      <c r="H29">
+        <v>48.9</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="8">
+        <v>10</v>
+      </c>
+      <c r="E30" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="F30" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="G30">
+        <v>134.5</v>
+      </c>
+      <c r="H30">
+        <v>194.9</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="60">
+        <v>6</v>
+      </c>
+      <c r="E31" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="F31" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="G31">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="H31">
+        <v>47.7</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+    </row>
+    <row r="33" spans="3:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="57" t="s">
+        <v>284</v>
+      </c>
+      <c r="D33" s="61">
+        <v>15</v>
+      </c>
+      <c r="E33" s="82" t="s">
+        <v>261</v>
+      </c>
+      <c r="F33" s="82" t="s">
+        <v>261</v>
+      </c>
+      <c r="G33" s="56">
+        <v>108.7</v>
+      </c>
+      <c r="H33" s="56">
+        <v>162.80000000000001</v>
+      </c>
+      <c r="I33" s="62" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="68">
+        <v>5</v>
+      </c>
+      <c r="E34" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="F34" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="G34">
+        <v>53</v>
+      </c>
+      <c r="H34">
+        <v>48.9</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I35"/>
+    </row>
+    <row r="36" spans="3:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I36"/>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I37"/>
+    </row>
+    <row r="38" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I38"/>
+    </row>
+    <row r="39" spans="3:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I39"/>
+    </row>
+    <row r="40" spans="3:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I40"/>
+    </row>
+    <row r="41" spans="3:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I41"/>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I43"/>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I44"/>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I45"/>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I46"/>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I47"/>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="I48"/>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I49"/>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I50"/>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I51"/>
+    </row>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I52"/>
+    </row>
+    <row r="53" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I53"/>
+    </row>
+    <row r="54" spans="9:9" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I54"/>
+    </row>
+    <row r="55" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I55"/>
+    </row>
+    <row r="56" spans="9:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I56"/>
+    </row>
+    <row r="57" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I57"/>
+    </row>
+    <row r="58" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I58"/>
+    </row>
+    <row r="59" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I59"/>
+    </row>
+    <row r="60" spans="9:9" ht="56" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I60"/>
+    </row>
+    <row r="61" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I61"/>
+    </row>
+    <row r="62" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I62"/>
+    </row>
+    <row r="63" spans="9:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I63"/>
+    </row>
+    <row r="64" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I64"/>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I65"/>
+    </row>
+    <row r="66" spans="9:9" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I66"/>
+    </row>
+    <row r="67" spans="9:9" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I67"/>
+    </row>
+    <row r="68" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I68"/>
+    </row>
+    <row r="69" spans="9:9" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I69"/>
+    </row>
+    <row r="70" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I70"/>
+    </row>
+    <row r="71" spans="9:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I71"/>
+    </row>
+    <row r="72" spans="9:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I72"/>
+    </row>
+    <row r="73" spans="9:9" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I73"/>
+    </row>
+    <row r="74" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="I13" twoDigitTextYear="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/OREI_files/40-herd data/descriptive stat sheets by group.xlsx
+++ b/OREI_files/40-herd data/descriptive stat sheets by group.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/40-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1030" documentId="8_{126BB96A-507C-4CDA-9D59-67A075BB21DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75F4BD05-3E48-4BF5-9DC2-34BE66D24FED}"/>
+  <xr:revisionPtr revIDLastSave="1111" documentId="8_{126BB96A-507C-4CDA-9D59-67A075BB21DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB3B0A5D-F7F2-40AB-A122-10BC30C85F39}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="5" xr2:uid="{BD75E345-1D78-4F68-86D2-D9942F22A602}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="7" xr2:uid="{BD75E345-1D78-4F68-86D2-D9942F22A602}"/>
   </bookViews>
   <sheets>
     <sheet name="farm traits + lact cow housing" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="289">
   <si>
     <t>Range</t>
   </si>
@@ -137,16 +137,10 @@
     <t>Windham</t>
   </si>
   <si>
-    <t>Ayrshire</t>
-  </si>
-  <si>
     <t>Holstein</t>
   </si>
   <si>
     <t>Jersey</t>
-  </si>
-  <si>
-    <t>Mixed</t>
   </si>
   <si>
     <t>30 to 55</t>
@@ -380,15 +374,9 @@
     <t>Frequency of milking cows per day (n=20, 1 robotic herd)</t>
   </si>
   <si>
-    <t>What type of milking system used</t>
-  </si>
-  <si>
     <t>Parlor</t>
   </si>
   <si>
-    <t>Robot</t>
-  </si>
-  <si>
     <t>If milk in parlor:</t>
   </si>
   <si>
@@ -410,12 +398,6 @@
     <t>No, only at the completion of milking</t>
   </si>
   <si>
-    <t>Occasionally, if the milking unit gets very dirty</t>
-  </si>
-  <si>
-    <t>Yes, routinely between milking individual cows</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pre-dip teats with a chemical disinfectant </t>
   </si>
   <si>
@@ -455,18 +437,12 @@
     <t>Paper</t>
   </si>
   <si>
-    <t>Depends how dirty the udder is</t>
-  </si>
-  <si>
     <t>How many cows are wiped with each towel?</t>
   </si>
   <si>
     <t>One</t>
   </si>
   <si>
-    <t>Two</t>
-  </si>
-  <si>
     <t>Do milkers wear gloves during milking</t>
   </si>
   <si>
@@ -569,15 +545,9 @@
     <t>Where are cultures from mastitic cows performed</t>
   </si>
   <si>
-    <t>On-farm</t>
-  </si>
-  <si>
     <t>Reference lab</t>
   </si>
   <si>
-    <t>Local veterinarian</t>
-  </si>
-  <si>
     <t>Never culture</t>
   </si>
   <si>
@@ -930,6 +900,107 @@
   </si>
   <si>
     <t>*"Wood shavings" is wood shaving bedding managed in any type of stall</t>
+  </si>
+  <si>
+    <t>Poor/Fair</t>
+  </si>
+  <si>
+    <t>What type of milking system used (n=20, 1 robotic herd)</t>
+  </si>
+  <si>
+    <r>
+      <t>Yes, routinely between milking individual cows</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Occasionally, if the milking unit gets very dirty</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Two </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Depends how dirty the udder is</t>
+    </r>
+  </si>
+  <si>
+    <t>Written (paper, whiteboard)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">On-farm </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Local veterinarian</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1215,12 +1286,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1253,6 +1318,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1576,10 +1647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BA11CA-1FD6-4FCA-95C7-2B3DA00AB707}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1607,15 +1678,15 @@
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65" t="s">
+      <c r="E2" s="81"/>
+      <c r="F2" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -1888,10 +1959,10 @@
         <v>32</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E23">
-        <v>4.8</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.35">
@@ -1900,43 +1971,52 @@
         <v>33</v>
       </c>
       <c r="D24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E24">
-        <v>38.1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B25" s="4"/>
-      <c r="C25" t="s">
+        <v>47.6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="6"/>
+      <c r="C25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3</v>
+      </c>
+      <c r="E25" s="7">
+        <v>14.3</v>
+      </c>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
         <v>34</v>
       </c>
-      <c r="D25">
-        <v>10</v>
-      </c>
-      <c r="E25">
-        <v>47.6</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="6"/>
-      <c r="C26" s="7" t="s">
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>28.6</v>
+      </c>
+      <c r="F26">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="G26">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B27" s="4"/>
+      <c r="C27" t="s">
         <v>35</v>
-      </c>
-      <c r="D26" s="7">
-        <v>2</v>
-      </c>
-      <c r="E26" s="7">
-        <v>9.5</v>
-      </c>
-      <c r="H26" s="12"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B27" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" t="s">
-        <v>36</v>
       </c>
       <c r="D27">
         <v>6</v>
@@ -1944,278 +2024,280 @@
       <c r="E27">
         <v>28.6</v>
       </c>
-      <c r="F27">
-        <v>64.900000000000006</v>
-      </c>
-      <c r="G27">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="H27" s="8" t="s">
+    </row>
+    <row r="28" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="6"/>
+      <c r="C28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="7">
+        <v>9</v>
+      </c>
+      <c r="E28" s="7">
+        <v>42.8</v>
+      </c>
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" spans="2:8" s="30" customFormat="1" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="30">
+        <v>12</v>
+      </c>
+      <c r="E29" s="30">
+        <v>60</v>
+      </c>
+      <c r="H29" s="49"/>
+    </row>
+    <row r="30" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="7">
+        <v>8</v>
+      </c>
+      <c r="E30" s="7">
         <v>40</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B28" s="4"/>
-      <c r="C28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28">
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>283</v>
+      </c>
+      <c r="D31">
         <v>6</v>
       </c>
-      <c r="E28">
+      <c r="E31">
         <v>28.6</v>
       </c>
     </row>
-    <row r="29" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="6"/>
-      <c r="C29" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="7">
-        <v>9</v>
-      </c>
-      <c r="E29" s="7">
-        <v>42.8</v>
-      </c>
-      <c r="H29" s="12"/>
-    </row>
-    <row r="30" spans="2:8" s="30" customFormat="1" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="47" t="s">
-        <v>184</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="30">
-        <v>12</v>
-      </c>
-      <c r="E30" s="30">
-        <v>60</v>
-      </c>
-      <c r="H30" s="49"/>
-    </row>
-    <row r="31" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="50" t="s">
-        <v>185</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="7">
-        <v>8</v>
-      </c>
-      <c r="E31" s="7">
-        <v>40</v>
-      </c>
-      <c r="H31" s="12"/>
-    </row>
-    <row r="32" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="5" t="s">
-        <v>41</v>
-      </c>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
         <v>49</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E32">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C33" t="s">
+        <v>38.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="7">
+        <v>7</v>
+      </c>
+      <c r="E33" s="7">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="H33" s="12"/>
+    </row>
+    <row r="34" spans="1:8" ht="56" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B35" s="4"/>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35">
         <v>5</v>
       </c>
-      <c r="E33">
+      <c r="E35">
         <v>23.8</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C34" t="s">
+    <row r="36" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="6"/>
+      <c r="C36" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="7">
+        <v>16</v>
+      </c>
+      <c r="E36" s="7">
+        <v>76.2</v>
+      </c>
+      <c r="H36" s="12"/>
+    </row>
+    <row r="37" spans="1:8" s="10" customFormat="1" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F37" s="10">
+        <v>47</v>
+      </c>
+      <c r="G37" s="10">
+        <v>42</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B38" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
         <v>51</v>
       </c>
-      <c r="D34">
+      <c r="D38">
         <v>8</v>
       </c>
-      <c r="E34">
+      <c r="E38">
         <v>38.1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C35" s="7" t="s">
+    <row r="39" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D39" s="7">
+        <v>13</v>
+      </c>
+      <c r="E39" s="7">
+        <v>61.9</v>
+      </c>
+      <c r="H39" s="12"/>
+    </row>
+    <row r="40" spans="1:8" s="10" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="10">
+        <v>6</v>
+      </c>
+      <c r="F40" s="10">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G40" s="10">
+        <v>0.38</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="30"/>
+      <c r="C42" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="7">
         <v>7</v>
       </c>
-      <c r="E35" s="7">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="H35" s="12"/>
-    </row>
-    <row r="36" spans="1:8" ht="56" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B37" s="4"/>
-      <c r="C37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37">
-        <v>5</v>
-      </c>
-      <c r="E37">
-        <v>23.8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="6"/>
-      <c r="C38" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="7">
-        <v>16</v>
-      </c>
-      <c r="E38" s="7">
-        <v>76.2</v>
-      </c>
-      <c r="H38" s="12"/>
-    </row>
-    <row r="39" spans="1:8" s="10" customFormat="1" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="F39" s="10">
-        <v>47</v>
-      </c>
-      <c r="G39" s="10">
-        <v>42</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B40" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40">
-        <v>8</v>
-      </c>
-      <c r="E40">
-        <v>38.1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C41" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" s="7">
-        <v>13</v>
-      </c>
-      <c r="E41" s="7">
-        <v>61.9</v>
-      </c>
-      <c r="H41" s="12"/>
-    </row>
-    <row r="42" spans="1:8" s="10" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="37" t="s">
+      <c r="E42" s="7">
+        <v>70</v>
+      </c>
+      <c r="H42" s="12"/>
+    </row>
+    <row r="43" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" s="10">
-        <v>6</v>
-      </c>
-      <c r="F42" s="10">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="G42" s="10">
-        <v>0.38</v>
-      </c>
-      <c r="H42" s="13" t="s">
+      <c r="B43" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" t="s">
-        <v>57</v>
       </c>
       <c r="D43">
         <v>3</v>
       </c>
       <c r="E43">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="30"/>
       <c r="C44" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D44" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E44" s="7">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B45" s="5" t="s">
+    <row r="45" spans="1:8" s="10" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="10">
+        <v>5</v>
+      </c>
+      <c r="F45" s="10">
+        <v>52.2</v>
+      </c>
+      <c r="G45" s="10">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="10" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="10">
+        <v>5</v>
+      </c>
+      <c r="F46" s="10">
+        <v>8.1</v>
+      </c>
+      <c r="G46" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="H46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C45" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45">
-        <v>3</v>
-      </c>
-      <c r="E45">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C46" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46" s="7">
-        <v>2</v>
-      </c>
-      <c r="E46" s="7">
-        <v>40</v>
-      </c>
-      <c r="H46" s="12"/>
-    </row>
-    <row r="47" spans="1:8" s="10" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:8" s="10" customFormat="1" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="11" t="s">
         <v>46</v>
       </c>
@@ -2223,47 +2305,13 @@
         <v>5</v>
       </c>
       <c r="F47" s="10">
-        <v>52.2</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="G47" s="10">
-        <v>17.100000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="H47" s="13" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" s="10" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" s="10">
-        <v>5</v>
-      </c>
-      <c r="F48" s="10">
-        <v>8.1</v>
-      </c>
-      <c r="G48" s="10">
-        <v>1.7</v>
-      </c>
-      <c r="H48" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" s="10" customFormat="1" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D49" s="10">
-        <v>5</v>
-      </c>
-      <c r="F49" s="10">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="G49" s="10">
-        <v>0.23</v>
-      </c>
-      <c r="H49" s="13" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2280,7 +2328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC7B1E9-526D-41DC-A523-0A5494D9C7DD}">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -2296,29 +2344,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
+      <c r="A1" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65" t="s">
+      <c r="E2" s="81"/>
+      <c r="F2" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -2345,13 +2393,13 @@
     </row>
     <row r="4" spans="1:8" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -2363,7 +2411,7 @@
     <row r="5" spans="1:8" s="7" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="18"/>
       <c r="C5" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D5" s="7">
         <v>12</v>
@@ -2375,10 +2423,10 @@
     </row>
     <row r="6" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2389,10 +2437,10 @@
     </row>
     <row r="7" spans="1:8" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D7" s="7">
         <v>17</v>
@@ -2404,15 +2452,15 @@
     </row>
     <row r="8" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -2424,7 +2472,7 @@
     <row r="10" spans="1:8" s="7" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="23"/>
       <c r="C10" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -2436,10 +2484,10 @@
     </row>
     <row r="11" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B11" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2451,7 +2499,7 @@
     <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="23"/>
       <c r="C12" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D12" s="7">
         <v>2</v>
@@ -2463,10 +2511,10 @@
     </row>
     <row r="13" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2477,7 +2525,7 @@
     </row>
     <row r="14" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C14" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D14" s="7">
         <v>2</v>
@@ -2489,10 +2537,10 @@
     </row>
     <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2504,7 +2552,7 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="15"/>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2516,7 +2564,7 @@
     <row r="17" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B17" s="18"/>
       <c r="C17" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D17" s="7">
         <v>1</v>
@@ -2528,10 +2576,10 @@
     </row>
     <row r="18" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -2540,7 +2588,7 @@
     <row r="19" spans="1:8" s="7" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="25"/>
       <c r="C19" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" s="7">
         <v>16</v>
@@ -2549,10 +2597,10 @@
     </row>
     <row r="20" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F20">
         <v>6.2</v>
@@ -2561,13 +2609,13 @@
         <v>5.4</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="7" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="23"/>
       <c r="C21" s="48" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="48"/>
@@ -2575,13 +2623,13 @@
     </row>
     <row r="22" spans="1:8" s="7" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B22" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="F22" s="7">
         <v>12.2</v>
@@ -2590,16 +2638,16 @@
         <v>10</v>
       </c>
       <c r="H22" s="32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="10" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="22"/>
       <c r="B23" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F23" s="10">
         <v>27.6</v>
@@ -2608,15 +2656,15 @@
         <v>13.6</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="10" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F24" s="10">
         <v>4.5</v>
@@ -2625,15 +2673,15 @@
         <v>3.5</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -2645,7 +2693,7 @@
     <row r="26" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B26" s="18"/>
       <c r="C26" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D26" s="7">
         <v>4</v>
@@ -2657,7 +2705,7 @@
     </row>
     <row r="27" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B27" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -2678,10 +2726,10 @@
     </row>
     <row r="29" spans="1:8" s="30" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C29" s="30">
         <v>0</v>
@@ -2715,7 +2763,7 @@
     </row>
     <row r="32" spans="1:8" s="30" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B32" s="34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C32" s="30">
         <v>10.199999999999999</v>
@@ -2747,10 +2795,10 @@
     </row>
     <row r="35" spans="2:8" s="30" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B35" s="34" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="F35" s="30">
         <v>0.9</v>
@@ -2759,7 +2807,7 @@
         <v>0.12</v>
       </c>
       <c r="H35" s="35" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="2:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
@@ -2768,7 +2816,7 @@
     </row>
     <row r="37" spans="2:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B37" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C37" s="30">
         <v>0.9</v>
@@ -2828,10 +2876,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21AE885A-FF7F-4688-80AC-54ECDDAC6CBC}">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2846,29 +2894,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="66" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
+      <c r="A1" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65" t="s">
+      <c r="E2" s="81"/>
+      <c r="F2" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -2895,10 +2943,10 @@
     </row>
     <row r="4" spans="1:8" s="7" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="39" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D4" s="7">
         <v>20</v>
@@ -2907,373 +2955,346 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21"/>
-      <c r="B5" s="4" t="s">
-        <v>109</v>
+      <c r="B5" s="5" t="s">
+        <v>284</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D5">
         <v>7</v>
       </c>
       <c r="E5">
-        <v>33.299999999999997</v>
+        <v>35</v>
       </c>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" t="s">
+    <row r="6" spans="1:8" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="7">
+        <v>13</v>
+      </c>
+      <c r="E6" s="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>42.8</v>
+      </c>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="38"/>
+      <c r="C8" t="s">
         <v>111</v>
       </c>
-      <c r="D6">
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>28.6</v>
+      </c>
+      <c r="H8"/>
+    </row>
+    <row r="9" spans="1:8" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="1:8" s="7" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="40"/>
+      <c r="C11" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2</v>
+      </c>
+      <c r="E11" s="7">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="10" customFormat="1" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="43"/>
+      <c r="B12" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="10">
+        <v>21</v>
+      </c>
+      <c r="E12" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B13" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>85.7</v>
+      </c>
+      <c r="H13"/>
+    </row>
+    <row r="14" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="7">
+        <v>3</v>
+      </c>
+      <c r="E14" s="7">
+        <v>41.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="10" customFormat="1" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="10">
+        <v>21</v>
+      </c>
+      <c r="E15" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="21"/>
+      <c r="B16" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>95.2</v>
+      </c>
+      <c r="H16"/>
+    </row>
+    <row r="17" spans="1:8" s="7" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="40"/>
+      <c r="C17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="7">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="E17" s="7">
         <v>4.8</v>
       </c>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:8" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="7">
-        <v>13</v>
-      </c>
-      <c r="E7" s="7">
-        <v>61.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>42.8</v>
-      </c>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="38"/>
-      <c r="C9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>28.6</v>
-      </c>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:8" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="7">
-        <v>2</v>
-      </c>
-      <c r="E10" s="7">
-        <v>28.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="52" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>14.3</v>
-      </c>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:8" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>28.6</v>
-      </c>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:8" s="7" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="40"/>
-      <c r="C13" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="7">
-        <v>4</v>
-      </c>
-      <c r="E13" s="7">
-        <v>57.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="10" customFormat="1" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="43"/>
-      <c r="B14" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="10">
-        <v>21</v>
-      </c>
-      <c r="E14" s="10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B15" s="4" t="s">
+    </row>
+    <row r="18" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="21"/>
+      <c r="B18" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C15" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15">
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18">
         <v>18</v>
       </c>
-      <c r="E15">
+      <c r="E18">
         <v>85.7</v>
       </c>
-      <c r="H15"/>
-    </row>
-    <row r="16" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="7">
-        <v>3</v>
-      </c>
-      <c r="E16" s="7">
-        <v>41.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="10" customFormat="1" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="10">
-        <v>21</v>
-      </c>
-      <c r="E17" s="10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="21"/>
-      <c r="B18" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C18" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>95.2</v>
-      </c>
       <c r="H18"/>
     </row>
-    <row r="19" spans="1:8" s="7" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" s="7" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="40"/>
       <c r="C19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3</v>
+      </c>
+      <c r="E19" s="7">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="21"/>
+      <c r="B20" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>95.2</v>
+      </c>
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="1:8" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="40"/>
+      <c r="B21" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>15</v>
+      </c>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="1:8" s="7" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="7">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="21"/>
-      <c r="B20" s="5" t="s">
+      <c r="D23" s="7">
+        <v>17</v>
+      </c>
+      <c r="E23" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20">
-        <v>18</v>
-      </c>
-      <c r="E20">
-        <v>85.7</v>
-      </c>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="1:8" s="7" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="40"/>
-      <c r="C21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3</v>
-      </c>
-      <c r="E21" s="7">
-        <v>14.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="21"/>
-      <c r="B22" s="42" t="s">
+      <c r="C24" t="s">
         <v>129</v>
       </c>
-      <c r="C22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22">
+      <c r="D24">
+        <v>16</v>
+      </c>
+      <c r="E24">
+        <v>80</v>
+      </c>
+      <c r="H24"/>
+    </row>
+    <row r="25" spans="1:8" s="7" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="40"/>
+      <c r="C25" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="D25" s="7">
+        <v>4</v>
+      </c>
+      <c r="E25" s="7">
         <v>20</v>
       </c>
-      <c r="E22">
-        <v>95.2</v>
-      </c>
-      <c r="H22"/>
-    </row>
-    <row r="23" spans="1:8" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="40"/>
-      <c r="B23" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1</v>
-      </c>
-      <c r="E23" s="7">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="37" t="s">
+    </row>
+    <row r="26" spans="1:8" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C26" t="s">
         <v>131</v>
       </c>
-      <c r="C24" t="s">
-        <v>132</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24">
-        <v>15</v>
-      </c>
-      <c r="H24"/>
-    </row>
-    <row r="25" spans="1:8" s="7" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" s="7">
-        <v>17</v>
-      </c>
-      <c r="E25" s="7">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" t="s">
-        <v>136</v>
-      </c>
       <c r="D26">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E26">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E27">
+        <v>20</v>
+      </c>
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28">
         <v>5</v>
       </c>
-      <c r="H27"/>
-    </row>
-    <row r="28" spans="1:8" s="7" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="40"/>
-      <c r="C28" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="D28" s="7">
-        <v>3</v>
-      </c>
-      <c r="E28" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C29" t="s">
-        <v>139</v>
-      </c>
-      <c r="D29">
-        <v>11</v>
-      </c>
-      <c r="E29">
-        <v>55</v>
-      </c>
+      <c r="E28">
+        <v>25</v>
+      </c>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H29"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C30" t="s">
-        <v>140</v>
-      </c>
-      <c r="D30">
-        <v>4</v>
-      </c>
-      <c r="E30">
-        <v>20</v>
-      </c>
       <c r="H30"/>
     </row>
-    <row r="31" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D31">
-        <v>5</v>
-      </c>
-      <c r="E31">
-        <v>25</v>
-      </c>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H31"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
@@ -3300,21 +3321,12 @@
     <row r="39" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H39"/>
     </row>
-    <row r="40" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H40"/>
-    </row>
-    <row r="41" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H41"/>
-    </row>
-    <row r="42" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H42"/>
-    </row>
-    <row r="46" spans="8:8" ht="33" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="56" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" ht="32" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" ht="46.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" ht="45.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="8:8" ht="33" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="8:8" ht="56" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="32" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="46.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="45.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
@@ -3322,22 +3334,23 @@
     <mergeCell ref="F2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D8786C-3CBC-46E6-B609-6E603B1DCDFC}">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="33.36328125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="23.81640625" customWidth="1"/>
+    <col min="3" max="3" width="27.81640625" customWidth="1"/>
     <col min="4" max="4" width="12.54296875" customWidth="1"/>
     <col min="5" max="5" width="14.08984375" customWidth="1"/>
     <col min="7" max="7" width="6.90625" customWidth="1"/>
@@ -3345,29 +3358,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="66" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
+      <c r="A1" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="3"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65" t="s">
+      <c r="E2" s="81"/>
+      <c r="F2" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
@@ -3394,10 +3407,10 @@
     </row>
     <row r="4" spans="1:8" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="42" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -3409,7 +3422,7 @@
     </row>
     <row r="5" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -3421,7 +3434,7 @@
     </row>
     <row r="6" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3434,7 +3447,7 @@
     <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="45"/>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -3446,7 +3459,7 @@
     </row>
     <row r="8" spans="1:8" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C8" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -3458,7 +3471,7 @@
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -3470,7 +3483,7 @@
     </row>
     <row r="10" spans="1:8" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -3482,7 +3495,7 @@
     </row>
     <row r="11" spans="1:8" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -3494,7 +3507,7 @@
     </row>
     <row r="12" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -3506,7 +3519,7 @@
     </row>
     <row r="13" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C13" s="30" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D13" s="30">
         <v>2</v>
@@ -3524,10 +3537,10 @@
     </row>
     <row r="15" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D15" s="30">
         <v>8</v>
@@ -3540,7 +3553,7 @@
     <row r="16" spans="1:8" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="46"/>
       <c r="C16" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D16" s="7">
         <v>13</v>
@@ -3551,10 +3564,10 @@
     </row>
     <row r="17" spans="1:8" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -3567,7 +3580,7 @@
     <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B18" s="46"/>
       <c r="C18" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="7">
         <v>5</v>
@@ -3578,10 +3591,10 @@
     </row>
     <row r="19" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="5" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -3595,7 +3608,7 @@
       <c r="A20" s="40"/>
       <c r="B20" s="46"/>
       <c r="C20" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D20" s="7">
         <v>19</v>
@@ -3607,10 +3620,10 @@
     <row r="21" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="21"/>
       <c r="B21" s="5" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C21" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D21">
         <v>8</v>
@@ -3623,7 +3636,7 @@
     <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="21"/>
       <c r="C22" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -3635,7 +3648,7 @@
     </row>
     <row r="23" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -3648,7 +3661,7 @@
     <row r="24" spans="1:8" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="46"/>
       <c r="C24" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D24" s="7">
         <v>6</v>
@@ -3659,132 +3672,132 @@
     </row>
     <row r="25" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="37" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C25" t="s">
-        <v>133</v>
+        <v>287</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25">
         <v>26.7</v>
       </c>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C26" t="s">
-        <v>160</v>
-      </c>
-      <c r="D26">
+    <row r="26" spans="1:8" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="46"/>
+      <c r="C26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" s="7">
         <v>4</v>
       </c>
-      <c r="E26">
-        <v>66.7</v>
-      </c>
-      <c r="H26"/>
-    </row>
-    <row r="27" spans="1:8" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="46"/>
-      <c r="C27" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1</v>
-      </c>
-      <c r="E27" s="7">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="5" t="s">
-        <v>164</v>
-      </c>
+      <c r="E26" s="7">
+        <v>73.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>19</v>
+      </c>
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E28">
-        <v>19</v>
+        <v>42.9</v>
       </c>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C29" t="s">
+    <row r="29" spans="1:8" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="46"/>
+      <c r="C29" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="7">
+        <v>8</v>
+      </c>
+      <c r="E29" s="7">
+        <v>38.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D29">
-        <v>9</v>
-      </c>
-      <c r="E29">
-        <v>42.9</v>
-      </c>
-      <c r="H29"/>
-    </row>
-    <row r="30" spans="1:8" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="46"/>
-      <c r="C30" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="D30" s="7">
-        <v>8</v>
-      </c>
-      <c r="E30" s="7">
-        <v>38.1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="5" t="s">
-        <v>165</v>
-      </c>
+      <c r="C30" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>14.3</v>
+      </c>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E31">
-        <v>14.3</v>
+        <v>28.6</v>
       </c>
       <c r="H31"/>
     </row>
-    <row r="32" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C32" t="s">
-        <v>157</v>
-      </c>
-      <c r="D32">
-        <v>6</v>
-      </c>
-      <c r="E32">
-        <v>28.6</v>
-      </c>
-      <c r="H32"/>
-    </row>
-    <row r="33" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="40"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="D33" s="7">
+    <row r="32" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="40"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" s="7">
         <v>12</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E32" s="7">
         <v>57.1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="21"/>
-      <c r="B34" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="C34" t="s">
-        <v>156</v>
+    <row r="33" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="21"/>
+      <c r="B33" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C34" s="30" t="s">
+        <v>149</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -3796,46 +3809,50 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C35" s="30" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D35">
+        <v>17</v>
+      </c>
+      <c r="E35">
+        <v>81</v>
+      </c>
+      <c r="H35"/>
+    </row>
+    <row r="36" spans="1:8" s="7" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="46"/>
+      <c r="C36" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="D36" s="7">
+        <v>4</v>
+      </c>
+      <c r="E36" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B37" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37">
         <v>0</v>
       </c>
-      <c r="E35">
+      <c r="E37">
         <v>0</v>
       </c>
-      <c r="H35"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C36" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="D36">
-        <v>17</v>
-      </c>
-      <c r="E36">
-        <v>81</v>
-      </c>
-      <c r="H36"/>
-    </row>
-    <row r="37" spans="1:8" s="7" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="46"/>
-      <c r="C37" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="D37" s="7">
-        <v>4</v>
-      </c>
-      <c r="E37" s="7">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="B38" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="C38" t="s">
-        <v>156</v>
+      <c r="H37"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="21"/>
+      <c r="B38" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>149</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -3846,197 +3863,169 @@
       <c r="H38"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="21"/>
-      <c r="B39" s="5" t="s">
-        <v>169</v>
-      </c>
       <c r="C39" s="30" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="H39"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C40" s="30" t="s">
+    <row r="40" spans="1:8" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B40" s="46"/>
+      <c r="C40" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="7">
+        <v>4</v>
+      </c>
+      <c r="E40" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="37"/>
+      <c r="B41" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" t="s">
+        <v>288</v>
+      </c>
+      <c r="D41">
+        <v>9</v>
+      </c>
+      <c r="E41">
+        <v>42.9</v>
+      </c>
+      <c r="H41"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="21"/>
+      <c r="C42" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>23.8</v>
+      </c>
+      <c r="H42"/>
+    </row>
+    <row r="43" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="46"/>
+      <c r="C43" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D43" s="7">
+        <v>7</v>
+      </c>
+      <c r="E43" s="7">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44">
         <v>17</v>
       </c>
-      <c r="E40">
+      <c r="E44">
         <v>81</v>
       </c>
-      <c r="H40"/>
-    </row>
-    <row r="41" spans="1:8" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B41" s="46"/>
-      <c r="C41" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="D41" s="7">
-        <v>4</v>
-      </c>
-      <c r="E41" s="7">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="37"/>
-      <c r="B42" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C42" t="s">
-        <v>172</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>4.8</v>
-      </c>
-      <c r="H42"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="21"/>
-      <c r="C43" t="s">
-        <v>173</v>
-      </c>
-      <c r="D43">
-        <v>5</v>
-      </c>
-      <c r="E43">
-        <v>23.8</v>
-      </c>
-      <c r="H43"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C44" t="s">
-        <v>174</v>
-      </c>
-      <c r="D44">
-        <v>8</v>
-      </c>
-      <c r="E44">
-        <v>38.1</v>
-      </c>
-      <c r="H44"/>
     </row>
     <row r="45" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B45" s="46"/>
       <c r="C45" s="7" t="s">
-        <v>175</v>
+        <v>55</v>
       </c>
       <c r="D45" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E45" s="7">
-        <v>33.299999999999997</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+      <c r="H45" s="32"/>
+    </row>
+    <row r="46" spans="1:8" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="21"/>
       <c r="B46" s="5" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D46">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E46">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+        <v>71.400000000000006</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="40"/>
       <c r="B47" s="46"/>
       <c r="C47" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D47" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E47" s="7">
-        <v>19</v>
+        <v>28.6</v>
       </c>
       <c r="H47" s="32"/>
     </row>
-    <row r="48" spans="1:8" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" ht="52" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="21"/>
       <c r="B48" s="5" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>170</v>
       </c>
       <c r="D48">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E48">
-        <v>71.400000000000006</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="40"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D49" s="7">
-        <v>6</v>
-      </c>
-      <c r="E49" s="7">
-        <v>28.6</v>
-      </c>
-      <c r="H49" s="32"/>
-    </row>
-    <row r="50" spans="1:8" ht="52" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="21"/>
-      <c r="B50" s="5" t="s">
-        <v>178</v>
-      </c>
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="21"/>
+      <c r="C49" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C50" t="s">
-        <v>180</v>
+        <v>54</v>
       </c>
       <c r="D50">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E50">
-        <v>23.8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="21"/>
-      <c r="C51" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D51">
-        <v>5</v>
-      </c>
-      <c r="E51">
-        <v>23.8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C52" t="s">
-        <v>56</v>
-      </c>
-      <c r="D52">
-        <v>11</v>
-      </c>
-      <c r="E52">
         <v>52.4</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="56" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="46.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="45.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="45.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
@@ -4051,7 +4040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038FDC8F-9E4C-4978-BA7D-5D5F8FB46B0A}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -4067,7 +4056,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -4080,19 +4069,19 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="65" t="s">
-        <v>194</v>
-      </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
+      <c r="E2" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
@@ -4106,113 +4095,113 @@
     </row>
     <row r="4" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="60">
         <v>21</v>
       </c>
-      <c r="E4" s="69">
+      <c r="E4" s="67">
         <v>144286</v>
       </c>
-      <c r="F4" s="70">
+      <c r="F4" s="68">
         <v>53934.35</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="68">
+      <c r="D5" s="66">
         <v>5</v>
       </c>
-      <c r="E5" s="69">
+      <c r="E5" s="67">
         <v>107600</v>
       </c>
-      <c r="F5" s="70">
+      <c r="F5" s="68">
         <v>42582.9</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="65" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="60">
         <v>10</v>
       </c>
-      <c r="E6" s="69">
+      <c r="E6" s="67">
         <v>146400</v>
       </c>
-      <c r="F6" s="70">
+      <c r="F6" s="68">
         <v>52055.95</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="65" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="60">
         <v>6</v>
       </c>
-      <c r="E7" s="69">
+      <c r="E7" s="67">
         <v>171333</v>
       </c>
-      <c r="F7" s="70">
+      <c r="F7" s="68">
         <v>55449.68</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="67"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="60"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
     </row>
     <row r="9" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="4"/>
       <c r="C9" s="57" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D9" s="61">
         <v>15</v>
       </c>
-      <c r="E9" s="79">
+      <c r="E9" s="77">
         <v>152800</v>
       </c>
-      <c r="F9" s="80">
+      <c r="F9" s="78">
         <v>53455.19</v>
       </c>
       <c r="G9" s="62" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="68">
+      <c r="D10" s="66">
         <v>5</v>
       </c>
-      <c r="E10" s="69">
+      <c r="E10" s="67">
         <v>107600</v>
       </c>
-      <c r="F10" s="70">
+      <c r="F10" s="68">
         <v>42582.9</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4220,7 +4209,7 @@
     </row>
     <row r="12" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="57" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C12" s="57"/>
       <c r="D12" s="61">
@@ -4233,14 +4222,14 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G12" s="62" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="68">
+      <c r="D13" s="66">
         <v>5</v>
       </c>
       <c r="E13">
@@ -4250,11 +4239,11 @@
         <v>0.62</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="65" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="60">
@@ -4267,11 +4256,11 @@
         <v>0.49</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="65" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="60">
@@ -4284,16 +4273,16 @@
         <v>0.49</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="67"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="60"/>
     </row>
     <row r="17" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="57" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D17" s="61">
         <v>15</v>
@@ -4305,14 +4294,14 @@
         <v>0.49</v>
       </c>
       <c r="G17" s="62" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="68">
+      <c r="D18" s="66">
         <v>5</v>
       </c>
       <c r="E18">
@@ -4322,7 +4311,7 @@
         <v>0.62</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.35">
@@ -4332,7 +4321,7 @@
     </row>
     <row r="20" spans="2:7" s="56" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="57" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C20" s="57"/>
       <c r="D20" s="63">
@@ -4345,14 +4334,14 @@
         <v>0.17</v>
       </c>
       <c r="G20" s="62" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="67" t="s">
+      <c r="C21" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="68">
+      <c r="D21" s="66">
         <v>5</v>
       </c>
       <c r="E21">
@@ -4362,11 +4351,11 @@
         <v>0.19</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="65" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="60">
@@ -4379,11 +4368,11 @@
         <v>0.15</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="65" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="60">
@@ -4396,7 +4385,7 @@
         <v>0.15</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
@@ -4406,7 +4395,7 @@
     </row>
     <row r="25" spans="2:7" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C25" s="57" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D25" s="61">
         <v>15</v>
@@ -4418,14 +4407,14 @@
         <v>0.15</v>
       </c>
       <c r="G25" s="62" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="67" t="s">
+      <c r="C26" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="68">
+      <c r="D26" s="66">
         <v>5</v>
       </c>
       <c r="E26">
@@ -4435,7 +4424,7 @@
         <v>0.19</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4586,7 +4575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450D3C41-EA67-4045-92C3-4FCA41EBE615}">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
@@ -4602,7 +4591,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -4611,7 +4600,7 @@
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
       <c r="K1" s="83" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="L1" s="83"/>
       <c r="M1" s="83"/>
@@ -4621,19 +4610,19 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="65" t="s">
-        <v>194</v>
-      </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
+      <c r="E2" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
@@ -4647,7 +4636,7 @@
     </row>
     <row r="4" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="60">
@@ -4660,15 +4649,15 @@
         <v>3.7</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="68" t="s">
-        <v>208</v>
+      <c r="D5" s="66" t="s">
+        <v>198</v>
       </c>
       <c r="E5">
         <v>7</v>
@@ -4677,11 +4666,11 @@
         <v>4.8</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="65" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="60">
@@ -4694,11 +4683,11 @@
         <v>3.9</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="65" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="60">
@@ -4711,17 +4700,17 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="67"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="60"/>
     </row>
     <row r="9" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="4"/>
       <c r="C9" s="57" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D9" s="61">
         <v>15</v>
@@ -4733,16 +4722,16 @@
         <v>3.7</v>
       </c>
       <c r="G9" s="62" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="68" t="s">
-        <v>208</v>
+      <c r="D10" s="66" t="s">
+        <v>198</v>
       </c>
       <c r="E10">
         <v>7</v>
@@ -4751,7 +4740,7 @@
         <v>4.8</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4759,7 +4748,7 @@
     </row>
     <row r="12" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="57" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C12" s="57"/>
       <c r="D12" s="61">
@@ -4772,15 +4761,15 @@
         <v>5.8</v>
       </c>
       <c r="G12" s="62" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="68" t="s">
-        <v>208</v>
+      <c r="D13" s="66" t="s">
+        <v>198</v>
       </c>
       <c r="E13">
         <v>14.5</v>
@@ -4789,11 +4778,11 @@
         <v>10.4</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="65" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="60">
@@ -4806,11 +4795,11 @@
         <v>3.9</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="65" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="60">
@@ -4823,16 +4812,16 @@
         <v>6.6</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="67"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="60"/>
     </row>
     <row r="17" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="57" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D17" s="61">
         <v>15</v>
@@ -4844,15 +4833,15 @@
         <v>5.2</v>
       </c>
       <c r="G17" s="62" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="68" t="s">
-        <v>208</v>
+      <c r="D18" s="66" t="s">
+        <v>198</v>
       </c>
       <c r="E18">
         <v>14.5</v>
@@ -4861,7 +4850,7 @@
         <v>10.4</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
@@ -4871,7 +4860,7 @@
     </row>
     <row r="20" spans="2:7" s="56" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="57" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C20" s="57"/>
       <c r="D20" s="63">
@@ -4884,15 +4873,15 @@
         <v>7.8</v>
       </c>
       <c r="G20" s="62" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="67" t="s">
+      <c r="C21" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="68" t="s">
-        <v>208</v>
+      <c r="D21" s="66" t="s">
+        <v>198</v>
       </c>
       <c r="E21">
         <v>26</v>
@@ -4901,11 +4890,11 @@
         <v>15.2</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="65" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="60">
@@ -4918,11 +4907,11 @@
         <v>5.2</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="65" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="60">
@@ -4935,16 +4924,16 @@
         <v>8.5</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="67"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="60"/>
     </row>
     <row r="25" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C25" s="57" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D25" s="61">
         <v>15</v>
@@ -4956,15 +4945,15 @@
         <v>6.6</v>
       </c>
       <c r="G25" s="62" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="67" t="s">
+      <c r="C26" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="68" t="s">
-        <v>208</v>
+      <c r="D26" s="66" t="s">
+        <v>198</v>
       </c>
       <c r="E26">
         <v>26</v>
@@ -4973,7 +4962,7 @@
         <v>15.2</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4983,7 +4972,7 @@
     </row>
     <row r="28" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B28" s="58" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C28" s="58"/>
       <c r="D28" s="64">
@@ -4996,15 +4985,15 @@
         <v>10.1</v>
       </c>
       <c r="G28" s="62" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="68" t="s">
-        <v>209</v>
+      <c r="D29" s="66" t="s">
+        <v>199</v>
       </c>
       <c r="E29">
         <v>46.9</v>
@@ -5013,15 +5002,15 @@
         <v>8.1</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="67" t="s">
+      <c r="C30" s="65" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E30">
         <v>49.4</v>
@@ -5030,11 +5019,11 @@
         <v>10.199999999999999</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="67" t="s">
+      <c r="C31" s="65" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="60">
@@ -5047,16 +5036,16 @@
         <v>11.9</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="67"/>
+      <c r="C32" s="65"/>
       <c r="D32" s="60"/>
     </row>
     <row r="33" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C33" s="57" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D33" s="61">
         <v>15</v>
@@ -5068,15 +5057,15 @@
         <v>11</v>
       </c>
       <c r="G33" s="62" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="67" t="s">
+      <c r="C34" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="68" t="s">
-        <v>209</v>
+      <c r="D34" s="66" t="s">
+        <v>199</v>
       </c>
       <c r="E34">
         <v>46.9</v>
@@ -5085,7 +5074,7 @@
         <v>8.1</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5095,7 +5084,7 @@
     </row>
     <row r="36" spans="2:7" s="56" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="59" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C36" s="59"/>
       <c r="D36" s="63">
@@ -5108,15 +5097,15 @@
         <v>0.42</v>
       </c>
       <c r="G36" s="62" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="67" t="s">
+      <c r="C37" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="68" t="s">
-        <v>209</v>
+      <c r="D37" s="66" t="s">
+        <v>199</v>
       </c>
       <c r="E37">
         <v>2.38</v>
@@ -5125,11 +5114,11 @@
         <v>0.61</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="67" t="s">
+      <c r="C38" s="65" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="60">
@@ -5142,11 +5131,11 @@
         <v>0.23</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="67" t="s">
+      <c r="C39" s="65" t="s">
         <v>16</v>
       </c>
       <c r="D39" s="60">
@@ -5159,16 +5148,16 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="67"/>
+      <c r="C40" s="65"/>
       <c r="D40" s="60"/>
     </row>
     <row r="41" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C41" s="57" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D41" s="61">
         <v>15</v>
@@ -5180,15 +5169,15 @@
         <v>0.38</v>
       </c>
       <c r="G41" s="62" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C42" s="67" t="s">
+      <c r="C42" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="68" t="s">
-        <v>209</v>
+      <c r="D42" s="66" t="s">
+        <v>199</v>
       </c>
       <c r="E42">
         <v>2.38</v>
@@ -5197,7 +5186,7 @@
         <v>0.61</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.35">
@@ -5207,7 +5196,7 @@
     </row>
     <row r="44" spans="2:7" s="56" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="59" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C44" s="59"/>
       <c r="D44" s="64">
@@ -5220,15 +5209,15 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G44" s="62" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C45" s="67" t="s">
+      <c r="C45" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="68" t="s">
-        <v>209</v>
+      <c r="D45" s="66" t="s">
+        <v>199</v>
       </c>
       <c r="E45">
         <v>3.48</v>
@@ -5237,11 +5226,11 @@
         <v>0.81</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C46" s="67" t="s">
+      <c r="C46" s="65" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="60">
@@ -5254,11 +5243,11 @@
         <v>0.38</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C47" s="67" t="s">
+      <c r="C47" s="65" t="s">
         <v>16</v>
       </c>
       <c r="D47" s="60">
@@ -5271,12 +5260,12 @@
         <v>0.71</v>
       </c>
       <c r="G47" s="26" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C49" s="57" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D49" s="61">
         <v>15</v>
@@ -5288,15 +5277,15 @@
         <v>0.4</v>
       </c>
       <c r="G49" s="62" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C50" s="67" t="s">
+      <c r="C50" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="68" t="s">
-        <v>209</v>
+      <c r="D50" s="66" t="s">
+        <v>199</v>
       </c>
       <c r="E50">
         <v>3.48</v>
@@ -5305,7 +5294,7 @@
         <v>0.81</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.35">
@@ -5428,7 +5417,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -5441,19 +5430,19 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="65" t="s">
-        <v>194</v>
-      </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
+      <c r="E2" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
@@ -5467,7 +5456,7 @@
     </row>
     <row r="4" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="60">
@@ -5480,14 +5469,14 @@
         <v>0.39</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="68">
+      <c r="D5" s="66">
         <v>5</v>
       </c>
       <c r="E5">
@@ -5497,11 +5486,11 @@
         <v>0.31</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="65" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="60">
@@ -5514,11 +5503,11 @@
         <v>0.42</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="65" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="60">
@@ -5531,16 +5520,16 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="67"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="60"/>
     </row>
     <row r="9" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C9" s="57" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D9" s="61">
         <v>15</v>
@@ -5552,15 +5541,15 @@
         <v>0.41</v>
       </c>
       <c r="G9" s="62" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="68">
+      <c r="D10" s="66">
         <v>5</v>
       </c>
       <c r="E10">
@@ -5570,7 +5559,7 @@
         <v>0.31</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5578,7 +5567,7 @@
     </row>
     <row r="12" spans="1:7" s="56" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="57" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C12" s="57"/>
       <c r="D12" s="61">
@@ -5591,14 +5580,14 @@
         <v>0.2</v>
       </c>
       <c r="G12" s="62" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="68">
+      <c r="D13" s="66">
         <v>5</v>
       </c>
       <c r="E13">
@@ -5608,11 +5597,11 @@
         <v>0.16</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="65" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="60">
@@ -5625,11 +5614,11 @@
         <v>0.21</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="65" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="60">
@@ -5642,7 +5631,7 @@
         <v>0.16</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
@@ -5652,7 +5641,7 @@
     </row>
     <row r="17" spans="3:7" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="57" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D17" s="61">
         <v>15</v>
@@ -5664,14 +5653,14 @@
         <v>0.21</v>
       </c>
       <c r="G17" s="62" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="3:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="68">
+      <c r="D18" s="66">
         <v>5</v>
       </c>
       <c r="E18">
@@ -5681,7 +5670,7 @@
         <v>0.16</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="3:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5844,8 +5833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880F3C97-102F-43A4-90DB-1686244A8CC5}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5861,7 +5850,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -5876,29 +5865,29 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="65" t="s">
-        <v>257</v>
-      </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65" t="s">
-        <v>194</v>
-      </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
+      <c r="E2" s="81" t="s">
+        <v>247</v>
+      </c>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E3" s="71" t="s">
-        <v>258</v>
-      </c>
-      <c r="F3" s="71" t="s">
-        <v>259</v>
+        <v>185</v>
+      </c>
+      <c r="E3" s="69" t="s">
+        <v>248</v>
+      </c>
+      <c r="F3" s="69" t="s">
+        <v>249</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>2</v>
@@ -5912,272 +5901,272 @@
     </row>
     <row r="4" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="60">
         <v>21</v>
       </c>
-      <c r="E4" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="72" t="s">
-        <v>260</v>
-      </c>
-      <c r="G4" s="73" t="s">
-        <v>261</v>
-      </c>
-      <c r="H4" s="73" t="s">
-        <v>261</v>
-      </c>
-      <c r="I4" s="73" t="s">
-        <v>261</v>
+      <c r="E4" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="70" t="s">
+        <v>250</v>
+      </c>
+      <c r="G4" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="H4" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="I4" s="71" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="68">
+      <c r="D5" s="66">
         <v>5</v>
       </c>
-      <c r="E5" s="72" t="s">
-        <v>267</v>
-      </c>
-      <c r="F5" s="72" t="s">
-        <v>266</v>
-      </c>
-      <c r="G5" s="73" t="s">
-        <v>261</v>
-      </c>
-      <c r="H5" s="73" t="s">
-        <v>261</v>
-      </c>
-      <c r="I5" s="73" t="s">
-        <v>261</v>
+      <c r="E5" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>256</v>
+      </c>
+      <c r="G5" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="H5" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="I5" s="71" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="65" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="60">
         <v>10</v>
       </c>
-      <c r="E6" s="72" t="s">
-        <v>274</v>
-      </c>
-      <c r="F6" s="72" t="s">
-        <v>275</v>
-      </c>
-      <c r="G6" s="73" t="s">
-        <v>261</v>
-      </c>
-      <c r="H6" s="73" t="s">
-        <v>261</v>
-      </c>
-      <c r="I6" s="73" t="s">
-        <v>261</v>
+      <c r="E6" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="G6" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="H6" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="I6" s="71" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="65" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="60">
         <v>6</v>
       </c>
-      <c r="E7" s="72" t="s">
-        <v>260</v>
-      </c>
-      <c r="F7" s="72" t="s">
-        <v>266</v>
-      </c>
-      <c r="G7" s="73" t="s">
-        <v>261</v>
-      </c>
-      <c r="H7" s="73" t="s">
-        <v>261</v>
-      </c>
-      <c r="I7" s="73" t="s">
-        <v>261</v>
+      <c r="E7" s="70" t="s">
+        <v>250</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>256</v>
+      </c>
+      <c r="G7" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="H7" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="I7" s="71" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="67"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="60"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
     </row>
     <row r="9" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="4"/>
       <c r="C9" s="57" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D9" s="61">
         <v>15</v>
       </c>
-      <c r="E9" s="81" t="s">
-        <v>288</v>
-      </c>
-      <c r="F9" s="81" t="s">
-        <v>267</v>
-      </c>
-      <c r="G9" s="82" t="s">
-        <v>261</v>
-      </c>
-      <c r="H9" s="82" t="s">
-        <v>261</v>
-      </c>
-      <c r="I9" s="82" t="s">
-        <v>261</v>
+      <c r="E9" s="79" t="s">
+        <v>278</v>
+      </c>
+      <c r="F9" s="79" t="s">
+        <v>257</v>
+      </c>
+      <c r="G9" s="80" t="s">
+        <v>251</v>
+      </c>
+      <c r="H9" s="80" t="s">
+        <v>251</v>
+      </c>
+      <c r="I9" s="80" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="68">
+      <c r="D10" s="66">
         <v>5</v>
       </c>
-      <c r="E10" s="72" t="s">
-        <v>267</v>
-      </c>
-      <c r="F10" s="72" t="s">
-        <v>266</v>
-      </c>
-      <c r="G10" s="73" t="s">
-        <v>261</v>
-      </c>
-      <c r="H10" s="73" t="s">
-        <v>261</v>
-      </c>
-      <c r="I10" s="73" t="s">
-        <v>261</v>
+      <c r="E10" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="F10" s="70" t="s">
+        <v>256</v>
+      </c>
+      <c r="G10" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="H10" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="I10" s="71" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D11" s="60"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="57" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C12" s="57"/>
       <c r="D12" s="61">
         <v>21</v>
       </c>
-      <c r="E12" s="73" t="s">
-        <v>261</v>
-      </c>
-      <c r="F12" s="73" t="s">
-        <v>261</v>
-      </c>
-      <c r="G12" s="73">
+      <c r="E12" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="F12" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="G12" s="71">
         <v>156.4</v>
       </c>
       <c r="H12" s="56">
         <v>268</v>
       </c>
       <c r="I12" s="62" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="68">
+      <c r="D13" s="66">
         <v>5</v>
       </c>
-      <c r="E13" s="73" t="s">
-        <v>261</v>
-      </c>
-      <c r="F13" s="73" t="s">
-        <v>261</v>
-      </c>
-      <c r="G13" s="73">
+      <c r="E13" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="F13" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="G13" s="71">
         <v>39</v>
       </c>
       <c r="H13">
         <v>25.3</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="65" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="60">
         <v>10</v>
       </c>
-      <c r="E14" s="73" t="s">
-        <v>261</v>
-      </c>
-      <c r="F14" s="73" t="s">
-        <v>261</v>
-      </c>
-      <c r="G14" s="73">
+      <c r="E14" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="F14" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="G14" s="71">
         <v>255.5</v>
       </c>
       <c r="H14">
         <v>364.6</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="65" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="60">
         <v>6</v>
       </c>
-      <c r="E15" s="73" t="s">
-        <v>261</v>
-      </c>
-      <c r="F15" s="73" t="s">
-        <v>261</v>
-      </c>
-      <c r="G15" s="73">
+      <c r="E15" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="F15" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="G15" s="71">
         <v>89.2</v>
       </c>
       <c r="H15">
         <v>97.5</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="67"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="60"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
     </row>
     <row r="17" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="57" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D17" s="61">
         <v>15</v>
       </c>
-      <c r="E17" s="82" t="s">
-        <v>261</v>
-      </c>
-      <c r="F17" s="82" t="s">
-        <v>261</v>
+      <c r="E17" s="80" t="s">
+        <v>251</v>
+      </c>
+      <c r="F17" s="80" t="s">
+        <v>251</v>
       </c>
       <c r="G17" s="56">
         <v>204</v>
@@ -6186,52 +6175,52 @@
         <v>307</v>
       </c>
       <c r="I17" s="62" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="68">
+      <c r="D18" s="66">
         <v>5</v>
       </c>
-      <c r="E18" s="73" t="s">
-        <v>261</v>
-      </c>
-      <c r="F18" s="73" t="s">
-        <v>261</v>
-      </c>
-      <c r="G18" s="73">
+      <c r="E18" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="F18" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="G18" s="71">
         <v>39</v>
       </c>
       <c r="H18">
         <v>25.3</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
       <c r="D19" s="51"/>
-      <c r="E19" s="75"/>
+      <c r="E19" s="73"/>
       <c r="F19" s="51"/>
     </row>
     <row r="20" spans="2:9" s="56" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="57" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C20" s="57"/>
       <c r="D20" s="63">
         <v>21</v>
       </c>
-      <c r="E20" s="76" t="s">
-        <v>269</v>
-      </c>
-      <c r="F20" s="77" t="s">
-        <v>263</v>
+      <c r="E20" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="F20" s="75" t="s">
+        <v>253</v>
       </c>
       <c r="G20" s="56">
         <v>43.6</v>
@@ -6240,21 +6229,21 @@
         <v>69.900000000000006</v>
       </c>
       <c r="I20" s="62" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="67" t="s">
+      <c r="C21" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="68">
+      <c r="D21" s="66">
         <v>5</v>
       </c>
-      <c r="E21" s="76" t="s">
-        <v>270</v>
-      </c>
-      <c r="F21" s="78" t="s">
-        <v>271</v>
+      <c r="E21" s="74" t="s">
+        <v>260</v>
+      </c>
+      <c r="F21" s="76" t="s">
+        <v>261</v>
       </c>
       <c r="G21">
         <v>9</v>
@@ -6263,21 +6252,21 @@
         <v>13.4</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="65" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="60">
         <v>10</v>
       </c>
-      <c r="E22" s="76" t="s">
-        <v>270</v>
-      </c>
-      <c r="F22" s="78" t="s">
-        <v>277</v>
+      <c r="E22" s="74" t="s">
+        <v>260</v>
+      </c>
+      <c r="F22" s="76" t="s">
+        <v>267</v>
       </c>
       <c r="G22">
         <v>63</v>
@@ -6286,21 +6275,21 @@
         <v>94.3</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="37" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="65" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="60">
         <v>6</v>
       </c>
-      <c r="E23" s="76" t="s">
-        <v>280</v>
-      </c>
-      <c r="F23" s="78" t="s">
-        <v>281</v>
+      <c r="E23" s="74" t="s">
+        <v>270</v>
+      </c>
+      <c r="F23" s="76" t="s">
+        <v>271</v>
       </c>
       <c r="G23">
         <v>40</v>
@@ -6309,27 +6298,27 @@
         <v>37.799999999999997</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="67"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="60"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="78"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="76"/>
     </row>
     <row r="25" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C25" s="57" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D25" s="61">
         <v>15</v>
       </c>
-      <c r="E25" s="77" t="s">
-        <v>289</v>
-      </c>
-      <c r="F25" s="77" t="s">
-        <v>290</v>
+      <c r="E25" s="75" t="s">
+        <v>279</v>
+      </c>
+      <c r="F25" s="75" t="s">
+        <v>280</v>
       </c>
       <c r="G25" s="56">
         <v>58</v>
@@ -6338,21 +6327,21 @@
         <v>78.400000000000006</v>
       </c>
       <c r="I25" s="62" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="67" t="s">
+      <c r="C26" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="68">
+      <c r="D26" s="66">
         <v>5</v>
       </c>
-      <c r="E26" s="76" t="s">
-        <v>270</v>
-      </c>
-      <c r="F26" s="78" t="s">
-        <v>271</v>
+      <c r="E26" s="74" t="s">
+        <v>260</v>
+      </c>
+      <c r="F26" s="76" t="s">
+        <v>261</v>
       </c>
       <c r="G26">
         <v>9</v>
@@ -6361,29 +6350,29 @@
         <v>13.4</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="51"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
     </row>
     <row r="28" spans="2:9" s="56" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B28" s="58" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C28" s="58"/>
       <c r="D28" s="64">
         <v>21</v>
       </c>
-      <c r="E28" s="73" t="s">
-        <v>261</v>
-      </c>
-      <c r="F28" s="73" t="s">
-        <v>261</v>
+      <c r="E28" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="F28" s="71" t="s">
+        <v>251</v>
       </c>
       <c r="G28" s="56">
         <v>95.5</v>
@@ -6392,21 +6381,21 @@
         <v>140</v>
       </c>
       <c r="I28" s="62" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="68">
+      <c r="D29" s="66">
         <v>5</v>
       </c>
-      <c r="E29" s="73" t="s">
-        <v>261</v>
-      </c>
-      <c r="F29" s="73" t="s">
-        <v>261</v>
+      <c r="E29" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="F29" s="71" t="s">
+        <v>251</v>
       </c>
       <c r="G29">
         <v>53</v>
@@ -6415,21 +6404,21 @@
         <v>48.9</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="67" t="s">
+      <c r="C30" s="65" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="8">
         <v>10</v>
       </c>
-      <c r="E30" s="73" t="s">
-        <v>261</v>
-      </c>
-      <c r="F30" s="73" t="s">
-        <v>261</v>
+      <c r="E30" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="F30" s="71" t="s">
+        <v>251</v>
       </c>
       <c r="G30">
         <v>134.5</v>
@@ -6438,21 +6427,21 @@
         <v>194.9</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="67" t="s">
+      <c r="C31" s="65" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="60">
         <v>6</v>
       </c>
-      <c r="E31" s="73" t="s">
-        <v>261</v>
-      </c>
-      <c r="F31" s="73" t="s">
-        <v>261</v>
+      <c r="E31" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="F31" s="71" t="s">
+        <v>251</v>
       </c>
       <c r="G31">
         <v>65.900000000000006</v>
@@ -6461,7 +6450,7 @@
         <v>47.7</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.35">
@@ -6473,16 +6462,16 @@
     </row>
     <row r="33" spans="3:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C33" s="57" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D33" s="61">
         <v>15</v>
       </c>
-      <c r="E33" s="82" t="s">
-        <v>261</v>
-      </c>
-      <c r="F33" s="82" t="s">
-        <v>261</v>
+      <c r="E33" s="80" t="s">
+        <v>251</v>
+      </c>
+      <c r="F33" s="80" t="s">
+        <v>251</v>
       </c>
       <c r="G33" s="56">
         <v>108.7</v>
@@ -6491,21 +6480,21 @@
         <v>162.80000000000001</v>
       </c>
       <c r="I33" s="62" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="3:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="67" t="s">
+      <c r="C34" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="68">
+      <c r="D34" s="66">
         <v>5</v>
       </c>
-      <c r="E34" s="73" t="s">
-        <v>261</v>
-      </c>
-      <c r="F34" s="73" t="s">
-        <v>261</v>
+      <c r="E34" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="F34" s="71" t="s">
+        <v>251</v>
       </c>
       <c r="G34">
         <v>53</v>
@@ -6514,7 +6503,7 @@
         <v>48.9</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="3:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">

--- a/OREI_files/40-herd data/descriptive stat sheets by group.xlsx
+++ b/OREI_files/40-herd data/descriptive stat sheets by group.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/40-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1111" documentId="8_{126BB96A-507C-4CDA-9D59-67A075BB21DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB3B0A5D-F7F2-40AB-A122-10BC30C85F39}"/>
+  <xr:revisionPtr revIDLastSave="1132" documentId="8_{126BB96A-507C-4CDA-9D59-67A075BB21DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{512C6919-DE5E-4341-91F0-0373B9238027}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="7" xr2:uid="{BD75E345-1D78-4F68-86D2-D9942F22A602}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{BD75E345-1D78-4F68-86D2-D9942F22A602}"/>
   </bookViews>
   <sheets>
     <sheet name="farm traits + lact cow housing" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="291">
   <si>
     <t>Range</t>
   </si>
@@ -174,9 +174,6 @@
   </si>
   <si>
     <t>Number of cows on bedded pack</t>
-  </si>
-  <si>
-    <t>Resting area per cow bedded pack (m^2/cow)</t>
   </si>
   <si>
     <t>Bedding pack stocking density (percent)</t>
@@ -341,19 +338,10 @@
     </r>
   </si>
   <si>
-    <t>How alleyway is cleaned, if applicable</t>
-  </si>
-  <si>
     <t>Continuous automated scraper</t>
   </si>
   <si>
     <t xml:space="preserve">Skid steer </t>
-  </si>
-  <si>
-    <t>Frequency of running gutter cleaner per week, if applicable</t>
-  </si>
-  <si>
-    <t>Frequency of tilling pack per week, if applicable</t>
   </si>
   <si>
     <t>Depth of tilling pack, if applicable (cm)</t>
@@ -1001,6 +989,24 @@
       </rPr>
       <t>Local veterinarian</t>
     </r>
+  </si>
+  <si>
+    <t>Resting area per cow bedded pack (m2/cow)</t>
+  </si>
+  <si>
+    <t>Frequency of tilling pack per week</t>
+  </si>
+  <si>
+    <t>Twice daily</t>
+  </si>
+  <si>
+    <t>Once daily</t>
+  </si>
+  <si>
+    <t>How alleyway is cleaned (freestall)</t>
+  </si>
+  <si>
+    <t>Frequency of running gutter cleaner (tiestall)</t>
   </si>
 </sst>
 </file>
@@ -1649,8 +1655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BA11CA-1FD6-4FCA-95C7-2B3DA00AB707}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1980,7 +1986,7 @@
     <row r="25" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B25" s="6"/>
       <c r="C25" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D25" s="7">
         <v>3</v>
@@ -2040,10 +2046,10 @@
     </row>
     <row r="29" spans="2:8" s="30" customFormat="1" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="47" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D29" s="30">
         <v>12</v>
@@ -2055,10 +2061,10 @@
     </row>
     <row r="30" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B30" s="50" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" s="7">
         <v>8</v>
@@ -2073,7 +2079,7 @@
         <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D31">
         <v>6</v>
@@ -2084,7 +2090,7 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D32">
         <v>8</v>
@@ -2095,7 +2101,7 @@
     </row>
     <row r="33" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D33" s="7">
         <v>7</v>
@@ -2110,7 +2116,7 @@
         <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2122,7 +2128,7 @@
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B35" s="4"/>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D35">
         <v>5</v>
@@ -2134,7 +2140,7 @@
     <row r="36" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B36" s="6"/>
       <c r="C36" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36" s="7">
         <v>16</v>
@@ -2146,7 +2152,7 @@
     </row>
     <row r="37" spans="1:8" s="10" customFormat="1" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F37" s="10">
         <v>47</v>
@@ -2155,7 +2161,7 @@
         <v>42</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
@@ -2163,7 +2169,7 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D38">
         <v>8</v>
@@ -2174,7 +2180,7 @@
     </row>
     <row r="39" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C39" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D39" s="7">
         <v>13</v>
@@ -2186,7 +2192,7 @@
     </row>
     <row r="40" spans="1:8" s="10" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>42</v>
@@ -2201,18 +2207,18 @@
         <v>0.38</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D41">
         <v>3</v>
@@ -2224,7 +2230,7 @@
     <row r="42" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="30"/>
       <c r="C42" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D42" s="7">
         <v>7</v>
@@ -2236,13 +2242,13 @@
     </row>
     <row r="43" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D43">
         <v>3</v>
@@ -2253,7 +2259,7 @@
     </row>
     <row r="44" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C44" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D44" s="7">
         <v>2</v>
@@ -2277,12 +2283,12 @@
         <v>17.100000000000001</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="10" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="11" t="s">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="D46" s="10">
         <v>5</v>
@@ -2294,12 +2300,12 @@
         <v>1.7</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="10" customFormat="1" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D47" s="10">
         <v>5</v>
@@ -2311,7 +2317,7 @@
         <v>0.23</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2328,8 +2334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC7B1E9-526D-41DC-A523-0A5494D9C7DD}">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2345,7 +2351,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="82"/>
       <c r="C1" s="82"/>
@@ -2393,13 +2399,13 @@
     </row>
     <row r="4" spans="1:8" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -2411,7 +2417,7 @@
     <row r="5" spans="1:8" s="7" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="18"/>
       <c r="C5" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="7">
         <v>12</v>
@@ -2423,10 +2429,10 @@
     </row>
     <row r="6" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2437,10 +2443,10 @@
     </row>
     <row r="7" spans="1:8" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="7">
         <v>17</v>
@@ -2452,15 +2458,15 @@
     </row>
     <row r="8" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
         <v>73</v>
-      </c>
-      <c r="C9" t="s">
-        <v>74</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -2472,7 +2478,7 @@
     <row r="10" spans="1:8" s="7" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="23"/>
       <c r="C10" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -2484,10 +2490,10 @@
     </row>
     <row r="11" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B11" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2499,7 +2505,7 @@
     <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="23"/>
       <c r="C12" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="7">
         <v>2</v>
@@ -2511,10 +2517,10 @@
     </row>
     <row r="13" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
         <v>78</v>
-      </c>
-      <c r="C13" t="s">
-        <v>79</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2525,7 +2531,7 @@
     </row>
     <row r="14" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C14" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14" s="7">
         <v>2</v>
@@ -2537,10 +2543,10 @@
     </row>
     <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2552,7 +2558,7 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="15"/>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2564,7 +2570,7 @@
     <row r="17" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B17" s="18"/>
       <c r="C17" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D17" s="7">
         <v>1</v>
@@ -2576,10 +2582,10 @@
     </row>
     <row r="18" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -2588,7 +2594,7 @@
     <row r="19" spans="1:8" s="7" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="25"/>
       <c r="C19" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="7">
         <v>16</v>
@@ -2597,10 +2603,10 @@
     </row>
     <row r="20" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F20">
         <v>6.2</v>
@@ -2609,13 +2615,13 @@
         <v>5.4</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="7" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="23"/>
       <c r="C21" s="48" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="48"/>
@@ -2623,13 +2629,13 @@
     </row>
     <row r="22" spans="1:8" s="7" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="23" t="s">
-        <v>87</v>
-      </c>
       <c r="C22" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F22" s="7">
         <v>12.2</v>
@@ -2638,16 +2644,16 @@
         <v>10</v>
       </c>
       <c r="H22" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="10" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="22"/>
       <c r="B23" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F23" s="10">
         <v>27.6</v>
@@ -2656,15 +2662,15 @@
         <v>13.6</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="10" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>94</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>95</v>
       </c>
       <c r="F24" s="10">
         <v>4.5</v>
@@ -2673,15 +2679,15 @@
         <v>3.5</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="16" t="s">
-        <v>96</v>
+        <v>289</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -2693,7 +2699,7 @@
     <row r="26" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B26" s="18"/>
       <c r="C26" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D26" s="7">
         <v>4</v>
@@ -2703,38 +2709,47 @@
       </c>
       <c r="H26" s="32"/>
     </row>
-    <row r="27" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B27" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27">
-        <v>7</v>
+        <v>290</v>
+      </c>
+      <c r="C27" t="s">
+        <v>288</v>
       </c>
       <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B28" s="23"/>
-      <c r="C28" s="7">
-        <v>14</v>
+      <c r="C28" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="D28" s="7">
+        <v>7</v>
+      </c>
+      <c r="E28" s="7">
         <v>70</v>
       </c>
       <c r="H28" s="32"/>
     </row>
-    <row r="29" spans="1:8" s="30" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" s="30" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>100</v>
+        <v>286</v>
       </c>
       <c r="C29" s="30">
+        <v>3</v>
+      </c>
+      <c r="D29" s="30">
         <v>0</v>
       </c>
-      <c r="D29" s="30">
+      <c r="E29" s="30">
         <v>40</v>
       </c>
       <c r="H29" s="35"/>
@@ -2742,10 +2757,10 @@
     <row r="30" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="27"/>
       <c r="B30" s="34"/>
-      <c r="C30" s="30">
+      <c r="D30" s="30">
         <v>3.5</v>
       </c>
-      <c r="D30" s="30">
+      <c r="E30" s="30">
         <v>20</v>
       </c>
       <c r="H30" s="35"/>
@@ -2753,52 +2768,55 @@
     <row r="31" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="28"/>
       <c r="B31" s="23"/>
-      <c r="C31" s="7">
+      <c r="D31" s="7">
         <v>14</v>
       </c>
-      <c r="D31" s="7">
+      <c r="E31" s="7">
         <v>40</v>
       </c>
       <c r="H31" s="32"/>
     </row>
     <row r="32" spans="1:8" s="30" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B32" s="34" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C32" s="30">
+        <v>3</v>
+      </c>
+      <c r="D32" s="30">
         <v>10.199999999999999</v>
       </c>
-      <c r="D32" s="30">
+      <c r="E32" s="30">
         <v>33.299999999999997</v>
       </c>
       <c r="H32" s="35"/>
     </row>
     <row r="33" spans="2:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B33" s="34"/>
-      <c r="C33" s="30">
+      <c r="D33" s="30">
         <v>23.3</v>
       </c>
-      <c r="D33" s="30">
+      <c r="E33" s="30">
         <v>33.299999999999997</v>
       </c>
       <c r="H33" s="35"/>
     </row>
     <row r="34" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B34" s="23"/>
-      <c r="C34" s="7">
+      <c r="D34" s="7">
         <v>30.5</v>
       </c>
-      <c r="D34" s="7">
+      <c r="E34" s="7">
         <v>33.299999999999997</v>
       </c>
       <c r="H34" s="32"/>
     </row>
     <row r="35" spans="2:8" s="30" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B35" s="34" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F35" s="30">
         <v>0.9</v>
@@ -2807,7 +2825,7 @@
         <v>0.12</v>
       </c>
       <c r="H35" s="35" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="2:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
@@ -2816,41 +2834,41 @@
     </row>
     <row r="37" spans="2:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B37" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="C37" s="30">
+        <v>98</v>
+      </c>
+      <c r="D37" s="30">
         <v>0.9</v>
       </c>
-      <c r="D37" s="30">
+      <c r="E37" s="30">
         <v>20</v>
       </c>
       <c r="H37" s="35"/>
     </row>
     <row r="38" spans="2:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B38" s="34"/>
-      <c r="C38" s="30">
+      <c r="D38" s="30">
         <v>1.2</v>
       </c>
-      <c r="D38" s="30">
+      <c r="E38" s="30">
         <v>40</v>
       </c>
       <c r="H38" s="35"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B39" s="15"/>
-      <c r="C39">
+      <c r="D39">
         <v>1.5</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>20</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B40" s="15"/>
-      <c r="C40">
+      <c r="D40">
         <v>1.7</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>20</v>
       </c>
     </row>
@@ -2878,8 +2896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21AE885A-FF7F-4688-80AC-54ECDDAC6CBC}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2895,7 +2913,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="82" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B1" s="82"/>
       <c r="C1" s="82"/>
@@ -2943,10 +2961,10 @@
     </row>
     <row r="4" spans="1:8" s="7" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="39" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D4" s="7">
         <v>20</v>
@@ -2958,10 +2976,10 @@
     <row r="5" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21"/>
       <c r="B5" s="5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -2984,13 +3002,13 @@
     </row>
     <row r="7" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="37" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -3003,7 +3021,7 @@
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="38"/>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -3015,7 +3033,7 @@
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C9" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D9" s="7">
         <v>2</v>
@@ -3026,10 +3044,10 @@
     </row>
     <row r="10" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -3042,7 +3060,7 @@
     <row r="11" spans="1:8" s="7" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="40"/>
       <c r="C11" s="41" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D11" s="7">
         <v>2</v>
@@ -3054,10 +3072,10 @@
     <row r="12" spans="1:8" s="10" customFormat="1" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="43"/>
       <c r="B12" s="44" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="10">
         <v>21</v>
@@ -3068,10 +3086,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D13">
         <v>18</v>
@@ -3083,7 +3101,7 @@
     </row>
     <row r="14" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C14" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D14" s="7">
         <v>3</v>
@@ -3094,10 +3112,10 @@
     </row>
     <row r="15" spans="1:8" s="10" customFormat="1" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="44" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="10">
         <v>21</v>
@@ -3109,10 +3127,10 @@
     <row r="16" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="21"/>
       <c r="B16" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D16">
         <v>20</v>
@@ -3125,7 +3143,7 @@
     <row r="17" spans="1:8" s="7" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="40"/>
       <c r="C17" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D17" s="7">
         <v>1</v>
@@ -3137,10 +3155,10 @@
     <row r="18" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="21"/>
       <c r="B18" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18">
         <v>18</v>
@@ -3153,7 +3171,7 @@
     <row r="19" spans="1:8" s="7" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="40"/>
       <c r="C19" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="7">
         <v>3</v>
@@ -3165,10 +3183,10 @@
     <row r="20" spans="1:8" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="21"/>
       <c r="B20" s="42" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20">
         <v>20</v>
@@ -3181,10 +3199,10 @@
     <row r="21" spans="1:8" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="40"/>
       <c r="B21" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="7">
         <v>1</v>
@@ -3195,13 +3213,13 @@
     </row>
     <row r="22" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="37" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -3213,7 +3231,7 @@
     </row>
     <row r="23" spans="1:8" s="7" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C23" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D23" s="7">
         <v>17</v>
@@ -3224,10 +3242,10 @@
     </row>
     <row r="24" spans="1:8" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C24" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D24">
         <v>16</v>
@@ -3240,7 +3258,7 @@
     <row r="25" spans="1:8" s="7" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="40"/>
       <c r="C25" s="41" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D25" s="7">
         <v>4</v>
@@ -3251,10 +3269,10 @@
     </row>
     <row r="26" spans="1:8" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D26">
         <v>11</v>
@@ -3266,7 +3284,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D27">
         <v>4</v>
@@ -3278,7 +3296,7 @@
     </row>
     <row r="28" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C28" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D28">
         <v>5</v>
@@ -3342,8 +3360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D8786C-3CBC-46E6-B609-6E603B1DCDFC}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3359,7 +3377,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="82" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B1" s="82"/>
       <c r="C1" s="82"/>
@@ -3407,10 +3425,10 @@
     </row>
     <row r="4" spans="1:8" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="42" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -3422,7 +3440,7 @@
     </row>
     <row r="5" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -3434,7 +3452,7 @@
     </row>
     <row r="6" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3447,7 +3465,7 @@
     <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="45"/>
       <c r="C7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -3459,7 +3477,7 @@
     </row>
     <row r="8" spans="1:8" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C8" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -3471,7 +3489,7 @@
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -3483,7 +3501,7 @@
     </row>
     <row r="10" spans="1:8" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -3495,7 +3513,7 @@
     </row>
     <row r="11" spans="1:8" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -3507,7 +3525,7 @@
     </row>
     <row r="12" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -3519,7 +3537,7 @@
     </row>
     <row r="13" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C13" s="30" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D13" s="30">
         <v>2</v>
@@ -3537,10 +3555,10 @@
     </row>
     <row r="15" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="30">
         <v>8</v>
@@ -3553,7 +3571,7 @@
     <row r="16" spans="1:8" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="46"/>
       <c r="C16" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" s="7">
         <v>13</v>
@@ -3564,10 +3582,10 @@
     </row>
     <row r="17" spans="1:8" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -3580,7 +3598,7 @@
     <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B18" s="46"/>
       <c r="C18" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="7">
         <v>5</v>
@@ -3591,10 +3609,10 @@
     </row>
     <row r="19" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -3608,7 +3626,7 @@
       <c r="A20" s="40"/>
       <c r="B20" s="46"/>
       <c r="C20" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="7">
         <v>19</v>
@@ -3620,10 +3638,10 @@
     <row r="21" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="21"/>
       <c r="B21" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C21" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D21">
         <v>8</v>
@@ -3636,7 +3654,7 @@
     <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="21"/>
       <c r="C22" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -3648,7 +3666,7 @@
     </row>
     <row r="23" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -3661,7 +3679,7 @@
     <row r="24" spans="1:8" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="46"/>
       <c r="C24" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D24" s="7">
         <v>6</v>
@@ -3672,13 +3690,13 @@
     </row>
     <row r="25" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="37" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C25" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D25">
         <v>11</v>
@@ -3691,7 +3709,7 @@
     <row r="26" spans="1:8" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="46"/>
       <c r="C26" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D26" s="7">
         <v>4</v>
@@ -3702,10 +3720,10 @@
     </row>
     <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C27" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D27">
         <v>4</v>
@@ -3717,7 +3735,7 @@
     </row>
     <row r="28" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D28">
         <v>9</v>
@@ -3730,7 +3748,7 @@
     <row r="29" spans="1:8" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="46"/>
       <c r="C29" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D29" s="7">
         <v>8</v>
@@ -3741,10 +3759,10 @@
     </row>
     <row r="30" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C30" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -3756,7 +3774,7 @@
     </row>
     <row r="31" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D31">
         <v>6</v>
@@ -3770,7 +3788,7 @@
       <c r="A32" s="40"/>
       <c r="B32" s="46"/>
       <c r="C32" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D32" s="7">
         <v>12</v>
@@ -3782,10 +3800,10 @@
     <row r="33" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="21"/>
       <c r="B33" s="42" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C33" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -3797,7 +3815,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C34" s="30" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -3809,7 +3827,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C35" s="30" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D35">
         <v>17</v>
@@ -3822,7 +3840,7 @@
     <row r="36" spans="1:8" s="7" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="46"/>
       <c r="C36" s="41" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D36" s="7">
         <v>4</v>
@@ -3833,10 +3851,10 @@
     </row>
     <row r="37" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B37" s="42" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C37" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -3849,10 +3867,10 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="21"/>
       <c r="B38" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -3864,7 +3882,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C39" s="30" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D39">
         <v>17</v>
@@ -3877,7 +3895,7 @@
     <row r="40" spans="1:8" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B40" s="46"/>
       <c r="C40" s="41" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D40" s="7">
         <v>4</v>
@@ -3889,10 +3907,10 @@
     <row r="41" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="37"/>
       <c r="B41" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C41" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D41">
         <v>9</v>
@@ -3905,7 +3923,7 @@
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="21"/>
       <c r="C42" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D42">
         <v>5</v>
@@ -3918,7 +3936,7 @@
     <row r="43" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B43" s="46"/>
       <c r="C43" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D43" s="7">
         <v>7</v>
@@ -3929,10 +3947,10 @@
     </row>
     <row r="44" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D44">
         <v>17</v>
@@ -3944,7 +3962,7 @@
     <row r="45" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B45" s="46"/>
       <c r="C45" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D45" s="7">
         <v>4</v>
@@ -3957,10 +3975,10 @@
     <row r="46" spans="1:8" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="21"/>
       <c r="B46" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D46">
         <v>15</v>
@@ -3973,7 +3991,7 @@
       <c r="A47" s="40"/>
       <c r="B47" s="46"/>
       <c r="C47" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D47" s="7">
         <v>6</v>
@@ -3986,10 +4004,10 @@
     <row r="48" spans="1:8" ht="52" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="21"/>
       <c r="B48" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C48" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D48">
         <v>5</v>
@@ -4001,7 +4019,7 @@
     <row r="49" spans="1:5" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="21"/>
       <c r="C49" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D49">
         <v>5</v>
@@ -4012,7 +4030,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D50">
         <v>11</v>
@@ -4040,7 +4058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038FDC8F-9E4C-4978-BA7D-5D5F8FB46B0A}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -4056,7 +4074,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -4070,18 +4088,18 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="81" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F2" s="81"/>
       <c r="G2" s="81"/>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
@@ -4095,7 +4113,7 @@
     </row>
     <row r="4" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="60">
@@ -4108,7 +4126,7 @@
         <v>53934.35</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4125,7 +4143,7 @@
         <v>42582.9</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4142,7 +4160,7 @@
         <v>52055.95</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4159,7 +4177,7 @@
         <v>55449.68</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4171,7 +4189,7 @@
     <row r="9" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="4"/>
       <c r="C9" s="57" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D9" s="61">
         <v>15</v>
@@ -4183,7 +4201,7 @@
         <v>53455.19</v>
       </c>
       <c r="G9" s="62" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4201,7 +4219,7 @@
         <v>42582.9</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4209,7 +4227,7 @@
     </row>
     <row r="12" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="57" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C12" s="57"/>
       <c r="D12" s="61">
@@ -4222,7 +4240,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G12" s="62" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4239,7 +4257,7 @@
         <v>0.62</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4256,7 +4274,7 @@
         <v>0.49</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4273,7 +4291,7 @@
         <v>0.49</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4282,7 +4300,7 @@
     </row>
     <row r="17" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="57" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D17" s="61">
         <v>15</v>
@@ -4294,7 +4312,7 @@
         <v>0.49</v>
       </c>
       <c r="G17" s="62" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4311,7 +4329,7 @@
         <v>0.62</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.35">
@@ -4321,7 +4339,7 @@
     </row>
     <row r="20" spans="2:7" s="56" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="57" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C20" s="57"/>
       <c r="D20" s="63">
@@ -4334,7 +4352,7 @@
         <v>0.17</v>
       </c>
       <c r="G20" s="62" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4351,7 +4369,7 @@
         <v>0.19</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4368,7 +4386,7 @@
         <v>0.15</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4385,7 +4403,7 @@
         <v>0.15</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
@@ -4395,7 +4413,7 @@
     </row>
     <row r="25" spans="2:7" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C25" s="57" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D25" s="61">
         <v>15</v>
@@ -4407,7 +4425,7 @@
         <v>0.15</v>
       </c>
       <c r="G25" s="62" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4424,7 +4442,7 @@
         <v>0.19</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4576,7 +4594,7 @@
   <dimension ref="A1:N80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4591,7 +4609,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -4600,7 +4618,7 @@
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
       <c r="K1" s="83" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L1" s="83"/>
       <c r="M1" s="83"/>
@@ -4611,18 +4629,18 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="81" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F2" s="81"/>
       <c r="G2" s="81"/>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
@@ -4636,7 +4654,7 @@
     </row>
     <row r="4" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="60">
@@ -4649,7 +4667,7 @@
         <v>3.7</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4657,7 +4675,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E5">
         <v>7</v>
@@ -4666,7 +4684,7 @@
         <v>4.8</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4683,7 +4701,7 @@
         <v>3.9</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4700,7 +4718,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4710,7 +4728,7 @@
     <row r="9" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="4"/>
       <c r="C9" s="57" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D9" s="61">
         <v>15</v>
@@ -4722,7 +4740,7 @@
         <v>3.7</v>
       </c>
       <c r="G9" s="62" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4731,7 +4749,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="66" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E10">
         <v>7</v>
@@ -4740,7 +4758,7 @@
         <v>4.8</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4748,7 +4766,7 @@
     </row>
     <row r="12" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="57" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C12" s="57"/>
       <c r="D12" s="61">
@@ -4761,7 +4779,7 @@
         <v>5.8</v>
       </c>
       <c r="G12" s="62" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4769,7 +4787,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="66" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E13">
         <v>14.5</v>
@@ -4778,7 +4796,7 @@
         <v>10.4</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4795,7 +4813,7 @@
         <v>3.9</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4812,7 +4830,7 @@
         <v>6.6</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4821,7 +4839,7 @@
     </row>
     <row r="17" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="57" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D17" s="61">
         <v>15</v>
@@ -4833,7 +4851,7 @@
         <v>5.2</v>
       </c>
       <c r="G17" s="62" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4841,7 +4859,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="66" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E18">
         <v>14.5</v>
@@ -4850,7 +4868,7 @@
         <v>10.4</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
@@ -4860,7 +4878,7 @@
     </row>
     <row r="20" spans="2:7" s="56" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="57" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C20" s="57"/>
       <c r="D20" s="63">
@@ -4873,7 +4891,7 @@
         <v>7.8</v>
       </c>
       <c r="G20" s="62" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4881,7 +4899,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="66" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E21">
         <v>26</v>
@@ -4890,7 +4908,7 @@
         <v>15.2</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4907,7 +4925,7 @@
         <v>5.2</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4924,7 +4942,7 @@
         <v>8.5</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4933,7 +4951,7 @@
     </row>
     <row r="25" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C25" s="57" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D25" s="61">
         <v>15</v>
@@ -4945,7 +4963,7 @@
         <v>6.6</v>
       </c>
       <c r="G25" s="62" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4953,7 +4971,7 @@
         <v>15</v>
       </c>
       <c r="D26" s="66" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E26">
         <v>26</v>
@@ -4962,7 +4980,7 @@
         <v>15.2</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4972,7 +4990,7 @@
     </row>
     <row r="28" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B28" s="58" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C28" s="58"/>
       <c r="D28" s="64">
@@ -4985,7 +5003,7 @@
         <v>10.1</v>
       </c>
       <c r="G28" s="62" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4993,7 +5011,7 @@
         <v>15</v>
       </c>
       <c r="D29" s="66" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E29">
         <v>46.9</v>
@@ -5002,7 +5020,7 @@
         <v>8.1</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5010,7 +5028,7 @@
         <v>17</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E30">
         <v>49.4</v>
@@ -5019,7 +5037,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5036,7 +5054,7 @@
         <v>11.9</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5045,7 +5063,7 @@
     </row>
     <row r="33" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C33" s="57" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D33" s="61">
         <v>15</v>
@@ -5057,7 +5075,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="62" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5065,7 +5083,7 @@
         <v>15</v>
       </c>
       <c r="D34" s="66" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E34">
         <v>46.9</v>
@@ -5074,7 +5092,7 @@
         <v>8.1</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5084,7 +5102,7 @@
     </row>
     <row r="36" spans="2:7" s="56" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="59" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C36" s="59"/>
       <c r="D36" s="63">
@@ -5097,7 +5115,7 @@
         <v>0.42</v>
       </c>
       <c r="G36" s="62" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5105,7 +5123,7 @@
         <v>15</v>
       </c>
       <c r="D37" s="66" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E37">
         <v>2.38</v>
@@ -5114,7 +5132,7 @@
         <v>0.61</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5131,7 +5149,7 @@
         <v>0.23</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5148,7 +5166,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5157,7 +5175,7 @@
     </row>
     <row r="41" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C41" s="57" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D41" s="61">
         <v>15</v>
@@ -5169,7 +5187,7 @@
         <v>0.38</v>
       </c>
       <c r="G41" s="62" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5177,7 +5195,7 @@
         <v>15</v>
       </c>
       <c r="D42" s="66" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E42">
         <v>2.38</v>
@@ -5186,7 +5204,7 @@
         <v>0.61</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.35">
@@ -5196,7 +5214,7 @@
     </row>
     <row r="44" spans="2:7" s="56" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="59" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C44" s="59"/>
       <c r="D44" s="64">
@@ -5209,7 +5227,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G44" s="62" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5217,7 +5235,7 @@
         <v>15</v>
       </c>
       <c r="D45" s="66" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E45">
         <v>3.48</v>
@@ -5226,7 +5244,7 @@
         <v>0.81</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5243,7 +5261,7 @@
         <v>0.38</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5260,12 +5278,12 @@
         <v>0.71</v>
       </c>
       <c r="G47" s="26" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C49" s="57" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D49" s="61">
         <v>15</v>
@@ -5277,7 +5295,7 @@
         <v>0.4</v>
       </c>
       <c r="G49" s="62" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.35">
@@ -5285,7 +5303,7 @@
         <v>15</v>
       </c>
       <c r="D50" s="66" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E50">
         <v>3.48</v>
@@ -5294,7 +5312,7 @@
         <v>0.81</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.35">
@@ -5401,7 +5419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AE9ADA-651B-4047-9589-3FDFC20B586D}">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -5417,7 +5435,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -5431,18 +5449,18 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="81" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F2" s="81"/>
       <c r="G2" s="81"/>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
@@ -5456,7 +5474,7 @@
     </row>
     <row r="4" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="60">
@@ -5469,7 +5487,7 @@
         <v>0.39</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5486,7 +5504,7 @@
         <v>0.31</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5503,7 +5521,7 @@
         <v>0.42</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5520,7 +5538,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5529,7 +5547,7 @@
     </row>
     <row r="9" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C9" s="57" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D9" s="61">
         <v>15</v>
@@ -5541,7 +5559,7 @@
         <v>0.41</v>
       </c>
       <c r="G9" s="62" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5559,7 +5577,7 @@
         <v>0.31</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5567,7 +5585,7 @@
     </row>
     <row r="12" spans="1:7" s="56" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="57" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C12" s="57"/>
       <c r="D12" s="61">
@@ -5580,7 +5598,7 @@
         <v>0.2</v>
       </c>
       <c r="G12" s="62" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5597,7 +5615,7 @@
         <v>0.16</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5614,7 +5632,7 @@
         <v>0.21</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5631,7 +5649,7 @@
         <v>0.16</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
@@ -5641,7 +5659,7 @@
     </row>
     <row r="17" spans="3:7" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="57" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D17" s="61">
         <v>15</v>
@@ -5653,7 +5671,7 @@
         <v>0.21</v>
       </c>
       <c r="G17" s="62" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="3:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5670,7 +5688,7 @@
         <v>0.16</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="3:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5833,7 +5851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880F3C97-102F-43A4-90DB-1686244A8CC5}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -5850,7 +5868,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -5866,28 +5884,28 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="81" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F2" s="81"/>
       <c r="G2" s="81" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H2" s="81"/>
       <c r="I2" s="81"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E3" s="69" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F3" s="69" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>2</v>
@@ -5901,26 +5919,26 @@
     </row>
     <row r="4" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="60">
         <v>21</v>
       </c>
       <c r="E4" s="70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F4" s="70" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G4" s="71" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H4" s="71" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I4" s="71" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5931,19 +5949,19 @@
         <v>5</v>
       </c>
       <c r="E5" s="70" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F5" s="70" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G5" s="71" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H5" s="71" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I5" s="71" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5954,19 +5972,19 @@
         <v>10</v>
       </c>
       <c r="E6" s="70" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F6" s="70" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G6" s="71" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H6" s="71" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I6" s="71" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5977,19 +5995,19 @@
         <v>6</v>
       </c>
       <c r="E7" s="70" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F7" s="70" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G7" s="71" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H7" s="71" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I7" s="71" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6004,25 +6022,25 @@
     <row r="9" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="4"/>
       <c r="C9" s="57" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D9" s="61">
         <v>15</v>
       </c>
       <c r="E9" s="79" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F9" s="79" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G9" s="80" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H9" s="80" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I9" s="80" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6034,19 +6052,19 @@
         <v>5</v>
       </c>
       <c r="E10" s="70" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F10" s="70" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G10" s="71" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H10" s="71" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I10" s="71" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6057,17 +6075,17 @@
     </row>
     <row r="12" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="57" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C12" s="57"/>
       <c r="D12" s="61">
         <v>21</v>
       </c>
       <c r="E12" s="71" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F12" s="71" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G12" s="71">
         <v>156.4</v>
@@ -6076,7 +6094,7 @@
         <v>268</v>
       </c>
       <c r="I12" s="62" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6087,10 +6105,10 @@
         <v>5</v>
       </c>
       <c r="E13" s="71" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F13" s="71" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G13" s="71">
         <v>39</v>
@@ -6099,7 +6117,7 @@
         <v>25.3</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6110,10 +6128,10 @@
         <v>10</v>
       </c>
       <c r="E14" s="71" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F14" s="71" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G14" s="71">
         <v>255.5</v>
@@ -6122,7 +6140,7 @@
         <v>364.6</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6133,10 +6151,10 @@
         <v>6</v>
       </c>
       <c r="E15" s="71" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F15" s="71" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G15" s="71">
         <v>89.2</v>
@@ -6145,7 +6163,7 @@
         <v>97.5</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6157,16 +6175,16 @@
     </row>
     <row r="17" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="57" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D17" s="61">
         <v>15</v>
       </c>
       <c r="E17" s="80" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F17" s="80" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G17" s="56">
         <v>204</v>
@@ -6175,7 +6193,7 @@
         <v>307</v>
       </c>
       <c r="I17" s="62" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6186,10 +6204,10 @@
         <v>5</v>
       </c>
       <c r="E18" s="71" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F18" s="71" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G18" s="71">
         <v>39</v>
@@ -6198,7 +6216,7 @@
         <v>25.3</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6210,17 +6228,17 @@
     </row>
     <row r="20" spans="2:9" s="56" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="57" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C20" s="57"/>
       <c r="D20" s="63">
         <v>21</v>
       </c>
       <c r="E20" s="74" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F20" s="75" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G20" s="56">
         <v>43.6</v>
@@ -6229,7 +6247,7 @@
         <v>69.900000000000006</v>
       </c>
       <c r="I20" s="62" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="34" customHeight="1" x14ac:dyDescent="0.35">
@@ -6240,10 +6258,10 @@
         <v>5</v>
       </c>
       <c r="E21" s="74" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F21" s="76" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G21">
         <v>9</v>
@@ -6252,7 +6270,7 @@
         <v>13.4</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="32" customHeight="1" x14ac:dyDescent="0.35">
@@ -6263,10 +6281,10 @@
         <v>10</v>
       </c>
       <c r="E22" s="74" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F22" s="76" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G22">
         <v>63</v>
@@ -6275,7 +6293,7 @@
         <v>94.3</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="37" customHeight="1" x14ac:dyDescent="0.35">
@@ -6286,10 +6304,10 @@
         <v>6</v>
       </c>
       <c r="E23" s="74" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F23" s="76" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G23">
         <v>40</v>
@@ -6298,7 +6316,7 @@
         <v>37.799999999999997</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6309,16 +6327,16 @@
     </row>
     <row r="25" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C25" s="57" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D25" s="61">
         <v>15</v>
       </c>
       <c r="E25" s="75" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F25" s="75" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G25" s="56">
         <v>58</v>
@@ -6327,7 +6345,7 @@
         <v>78.400000000000006</v>
       </c>
       <c r="I25" s="62" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -6338,10 +6356,10 @@
         <v>5</v>
       </c>
       <c r="E26" s="74" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F26" s="76" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G26">
         <v>9</v>
@@ -6350,7 +6368,7 @@
         <v>13.4</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6362,17 +6380,17 @@
     </row>
     <row r="28" spans="2:9" s="56" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B28" s="58" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C28" s="58"/>
       <c r="D28" s="64">
         <v>21</v>
       </c>
       <c r="E28" s="71" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F28" s="71" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G28" s="56">
         <v>95.5</v>
@@ -6381,7 +6399,7 @@
         <v>140</v>
       </c>
       <c r="I28" s="62" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6392,10 +6410,10 @@
         <v>5</v>
       </c>
       <c r="E29" s="71" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F29" s="71" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G29">
         <v>53</v>
@@ -6404,7 +6422,7 @@
         <v>48.9</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6415,10 +6433,10 @@
         <v>10</v>
       </c>
       <c r="E30" s="71" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F30" s="71" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G30">
         <v>134.5</v>
@@ -6427,7 +6445,7 @@
         <v>194.9</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6438,10 +6456,10 @@
         <v>6</v>
       </c>
       <c r="E31" s="71" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F31" s="71" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G31">
         <v>65.900000000000006</v>
@@ -6450,7 +6468,7 @@
         <v>47.7</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.35">
@@ -6462,16 +6480,16 @@
     </row>
     <row r="33" spans="3:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C33" s="57" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D33" s="61">
         <v>15</v>
       </c>
       <c r="E33" s="80" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F33" s="80" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G33" s="56">
         <v>108.7</v>
@@ -6480,7 +6498,7 @@
         <v>162.80000000000001</v>
       </c>
       <c r="I33" s="62" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="3:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6491,10 +6509,10 @@
         <v>5</v>
       </c>
       <c r="E34" s="71" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F34" s="71" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G34">
         <v>53</v>
@@ -6503,7 +6521,7 @@
         <v>48.9</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="3:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">

--- a/OREI_files/40-herd data/descriptive stat sheets by group.xlsx
+++ b/OREI_files/40-herd data/descriptive stat sheets by group.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/40-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1132" documentId="8_{126BB96A-507C-4CDA-9D59-67A075BB21DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{512C6919-DE5E-4341-91F0-0373B9238027}"/>
+  <xr:revisionPtr revIDLastSave="1140" documentId="8_{126BB96A-507C-4CDA-9D59-67A075BB21DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADDB8646-6264-42C9-9E5E-531CFD36E299}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{BD75E345-1D78-4F68-86D2-D9942F22A602}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{BD75E345-1D78-4F68-86D2-D9942F22A602}"/>
   </bookViews>
   <sheets>
     <sheet name="farm traits + lact cow housing" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="mastitis control" sheetId="4" r:id="rId4"/>
     <sheet name="outcome- SCC (raw, log2, log10)" sheetId="8" r:id="rId5"/>
     <sheet name="outcome- udder health+prod" sheetId="5" r:id="rId6"/>
-    <sheet name="outcome- udder hygiene" sheetId="7" r:id="rId7"/>
-    <sheet name="outcome- BTM culture" sheetId="9" r:id="rId8"/>
+    <sheet name="outcome- BTM culture" sheetId="9" r:id="rId7"/>
+    <sheet name="outcome- udder hygiene" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="335">
   <si>
     <t>Range</t>
   </si>
@@ -1007,6 +1007,138 @@
   </si>
   <si>
     <t>Frequency of running gutter cleaner (tiestall)</t>
+  </si>
+  <si>
+    <t>19,000 pounds RHA estimated</t>
+  </si>
+  <si>
+    <t>15,200 pounds RHA</t>
+  </si>
+  <si>
+    <t>15-16,000 pounds RHA</t>
+  </si>
+  <si>
+    <t>12,563 pounds RHA</t>
+  </si>
+  <si>
+    <t>14,574 pounds RHA</t>
+  </si>
+  <si>
+    <t>17,961 pounds RHA</t>
+  </si>
+  <si>
+    <t>21204 pounds RHA</t>
+  </si>
+  <si>
+    <t>11,794 pounds RHA</t>
+  </si>
+  <si>
+    <t>16,500 pounds RHA</t>
+  </si>
+  <si>
+    <t>11,734 pounds RHA</t>
+  </si>
+  <si>
+    <t>10,628 pounds RHA</t>
+  </si>
+  <si>
+    <t>13,500 pounds RHA</t>
+  </si>
+  <si>
+    <t>16,728 pounds RHA</t>
+  </si>
+  <si>
+    <t>15,210 pounds RHA</t>
+  </si>
+  <si>
+    <t>15,087 pounds RHA</t>
+  </si>
+  <si>
+    <t>11,467 pounds RHA</t>
+  </si>
+  <si>
+    <t>20,323 all me305</t>
+  </si>
+  <si>
+    <t>12,000 pounds/cow/year RHA</t>
+  </si>
+  <si>
+    <t>12,500 pounds RHA</t>
+  </si>
+  <si>
+    <t>11,106 pounds RHA</t>
+  </si>
+  <si>
+    <t>9,000 pounds RHA</t>
+  </si>
+  <si>
+    <t>Hall and Breen Farm</t>
+  </si>
+  <si>
+    <t>Glennview Farm</t>
+  </si>
+  <si>
+    <t>BJ Family Farms</t>
+  </si>
+  <si>
+    <t>Corse Farm Dairy</t>
+  </si>
+  <si>
+    <t>Swallowdale Farm</t>
+  </si>
+  <si>
+    <t>J and L dairy</t>
+  </si>
+  <si>
+    <t>Paddlebridge Holsteins</t>
+  </si>
+  <si>
+    <t>Butterworks Farm</t>
+  </si>
+  <si>
+    <t>Molly Brook Farm LLC</t>
+  </si>
+  <si>
+    <t>MacBain Homestead</t>
+  </si>
+  <si>
+    <t>Hillside Farm</t>
+  </si>
+  <si>
+    <t>Oughta-Be Farm</t>
+  </si>
+  <si>
+    <t>Chapman Family Farm</t>
+  </si>
+  <si>
+    <t>Hoyt Hill Farm</t>
+  </si>
+  <si>
+    <t>Pembrook Heritage Farm</t>
+  </si>
+  <si>
+    <t>Holyoke Farm</t>
+  </si>
+  <si>
+    <t>Bouchard Family Dairy</t>
+  </si>
+  <si>
+    <t>Choiniere Family Farm</t>
+  </si>
+  <si>
+    <t>Stony Pond Farm</t>
+  </si>
+  <si>
+    <t>Davis Farm</t>
+  </si>
+  <si>
+    <t>Donegan family farm</t>
+  </si>
+  <si>
+    <t>Rolling herd average (pounds)</t>
+  </si>
+  <si>
+    <t>(9,000-21,204)</t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1292,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1324,6 +1456,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1653,20 +1786,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BA11CA-1FD6-4FCA-95C7-2B3DA00AB707}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD39"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="22.453125" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="2" max="2" width="27.26953125" customWidth="1"/>
     <col min="3" max="3" width="18.81640625" customWidth="1"/>
     <col min="4" max="4" width="12.54296875" customWidth="1"/>
     <col min="5" max="5" width="14.08984375" customWidth="1"/>
     <col min="7" max="7" width="6.90625" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" style="8"/>
+    <col min="8" max="8" width="14.81640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.35">
@@ -1684,15 +1818,15 @@
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="82"/>
+      <c r="F2" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -2044,280 +2178,528 @@
       </c>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="2:8" s="30" customFormat="1" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="47" t="s">
+    <row r="29" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="D29" s="10">
+        <v>20</v>
+      </c>
+      <c r="F29" s="81">
+        <v>14163</v>
+      </c>
+      <c r="G29" s="81">
+        <v>3096</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" s="30" customFormat="1" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C30" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="30">
+      <c r="D30" s="30">
         <v>12</v>
       </c>
-      <c r="E29" s="30">
+      <c r="E30" s="30">
         <v>60</v>
       </c>
-      <c r="H29" s="49"/>
-    </row>
-    <row r="30" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="50" t="s">
+      <c r="H30" s="49"/>
+    </row>
+    <row r="31" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D31" s="7">
         <v>8</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E31" s="7">
         <v>40</v>
       </c>
-      <c r="H30" s="12"/>
-    </row>
-    <row r="31" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="5" t="s">
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>279</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>6</v>
       </c>
-      <c r="E31">
+      <c r="E32">
         <v>28.6</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C32" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C33" t="s">
         <v>48</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>8</v>
       </c>
-      <c r="E32">
+      <c r="E33">
         <v>38.1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="7" t="s">
+    <row r="34" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D34" s="7">
         <v>7</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E34" s="7">
         <v>33.299999999999997</v>
       </c>
-      <c r="H33" s="12"/>
-    </row>
-    <row r="34" spans="1:8" ht="56" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="5" t="s">
+      <c r="H34" s="12"/>
+    </row>
+    <row r="35" spans="1:8" ht="56" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>46</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <v>0</v>
       </c>
-      <c r="E34">
+      <c r="E35">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B35" s="4"/>
-      <c r="C35" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B36" s="4"/>
+      <c r="C36" t="s">
         <v>47</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>5</v>
       </c>
-      <c r="E35">
+      <c r="E36">
         <v>23.8</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="6"/>
-      <c r="C36" s="7" t="s">
+    <row r="37" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="6"/>
+      <c r="C37" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D37" s="7">
         <v>16</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E37" s="7">
         <v>76.2</v>
       </c>
-      <c r="H36" s="12"/>
-    </row>
-    <row r="37" spans="1:8" s="10" customFormat="1" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="11" t="s">
+      <c r="H37" s="12"/>
+    </row>
+    <row r="38" spans="1:8" s="10" customFormat="1" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F38" s="10">
         <v>47</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G38" s="10">
         <v>42</v>
       </c>
-      <c r="H37" s="13" t="s">
+      <c r="H38" s="13" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B38" s="4" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B39" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>50</v>
       </c>
-      <c r="D38">
+      <c r="D39">
         <v>8</v>
       </c>
-      <c r="E38">
+      <c r="E39">
         <v>38.1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="7" t="s">
+    <row r="40" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D40" s="7">
         <v>13</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E40" s="7">
         <v>61.9</v>
       </c>
-      <c r="H39" s="12"/>
-    </row>
-    <row r="40" spans="1:8" s="10" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="37" t="s">
+      <c r="H40" s="12"/>
+    </row>
+    <row r="41" spans="1:8" s="10" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B41" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D41" s="10">
         <v>6</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F41" s="10">
         <v>1.1599999999999999</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G41" s="10">
         <v>0.38</v>
       </c>
-      <c r="H40" s="13" t="s">
+      <c r="H41" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="37" t="s">
+    <row r="42" spans="1:8" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>54</v>
       </c>
-      <c r="D41">
+      <c r="D42">
         <v>3</v>
       </c>
-      <c r="E41">
+      <c r="E42">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="30"/>
-      <c r="C42" s="7" t="s">
+    <row r="43" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="30"/>
+      <c r="C43" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D43" s="7">
         <v>7</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E43" s="7">
         <v>70</v>
       </c>
-      <c r="H42" s="12"/>
-    </row>
-    <row r="43" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="36" t="s">
+      <c r="H43" s="12"/>
+    </row>
+    <row r="44" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B44" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>54</v>
       </c>
-      <c r="D43">
+      <c r="D44">
         <v>3</v>
       </c>
-      <c r="E43">
+      <c r="E44">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C44" s="7" t="s">
+    <row r="45" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C45" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D45" s="7">
         <v>2</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E45" s="7">
         <v>40</v>
       </c>
-      <c r="H44" s="12"/>
-    </row>
-    <row r="45" spans="1:8" s="10" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="11" t="s">
+      <c r="H45" s="12"/>
+    </row>
+    <row r="46" spans="1:8" s="10" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="11" t="s">
         <v>44</v>
-      </c>
-      <c r="D45" s="10">
-        <v>5</v>
-      </c>
-      <c r="F45" s="10">
-        <v>52.2</v>
-      </c>
-      <c r="G45" s="10">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="10" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="11" t="s">
-        <v>285</v>
       </c>
       <c r="D46" s="10">
         <v>5</v>
       </c>
       <c r="F46" s="10">
-        <v>8.1</v>
+        <v>52.2</v>
       </c>
       <c r="G46" s="10">
-        <v>1.7</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" s="10" customFormat="1" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="10" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="11" t="s">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="D47" s="10">
         <v>5</v>
       </c>
       <c r="F47" s="10">
+        <v>8.1</v>
+      </c>
+      <c r="G47" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="10" customFormat="1" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="10">
+        <v>5</v>
+      </c>
+      <c r="F48" s="10">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G48" s="10">
         <v>0.23</v>
       </c>
-      <c r="H47" s="13" t="s">
+      <c r="H48" s="13" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B72" t="s">
+        <v>312</v>
+      </c>
+      <c r="C72" t="s">
+        <v>291</v>
+      </c>
+      <c r="E72">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B73" t="s">
+        <v>313</v>
+      </c>
+      <c r="C73" t="s">
+        <v>292</v>
+      </c>
+      <c r="E73">
+        <v>15200</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C74" t="s">
+        <v>293</v>
+      </c>
+      <c r="E74">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B75" t="s">
+        <v>315</v>
+      </c>
+      <c r="C75" t="s">
+        <v>294</v>
+      </c>
+      <c r="E75">
+        <v>12563</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B76" t="s">
+        <v>316</v>
+      </c>
+      <c r="C76" t="s">
+        <v>295</v>
+      </c>
+      <c r="E76">
+        <v>14574</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B77" t="s">
+        <v>317</v>
+      </c>
+      <c r="C77" t="s">
+        <v>296</v>
+      </c>
+      <c r="E77">
+        <v>17961</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B78" t="s">
+        <v>318</v>
+      </c>
+      <c r="C78" t="s">
+        <v>297</v>
+      </c>
+      <c r="E78">
+        <v>21204</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B79" t="s">
+        <v>319</v>
+      </c>
+      <c r="C79" t="s">
+        <v>298</v>
+      </c>
+      <c r="E79">
+        <v>11794</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B80" t="s">
+        <v>320</v>
+      </c>
+      <c r="C80" t="s">
+        <v>299</v>
+      </c>
+      <c r="E80">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B81" t="s">
+        <v>321</v>
+      </c>
+      <c r="C81" t="s">
+        <v>300</v>
+      </c>
+      <c r="E81">
+        <v>11734</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B82" t="s">
+        <v>322</v>
+      </c>
+      <c r="C82" t="s">
+        <v>301</v>
+      </c>
+      <c r="E82">
+        <v>10628</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B83" t="s">
+        <v>323</v>
+      </c>
+      <c r="C83" t="s">
+        <v>302</v>
+      </c>
+      <c r="E83">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B84" t="s">
+        <v>324</v>
+      </c>
+      <c r="C84" t="s">
+        <v>303</v>
+      </c>
+      <c r="E84">
+        <v>16728</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B85" t="s">
+        <v>325</v>
+      </c>
+      <c r="C85" t="s">
+        <v>304</v>
+      </c>
+      <c r="E85">
+        <v>15210</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B86" t="s">
+        <v>326</v>
+      </c>
+      <c r="C86" t="s">
+        <v>305</v>
+      </c>
+      <c r="E86">
+        <v>15087</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B87" t="s">
+        <v>327</v>
+      </c>
+      <c r="C87" t="s">
+        <v>306</v>
+      </c>
+      <c r="E87">
+        <v>11467</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B88" t="s">
+        <v>328</v>
+      </c>
+      <c r="C88" t="s">
+        <v>307</v>
+      </c>
+      <c r="E88">
+        <v>20323</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B89" t="s">
+        <v>329</v>
+      </c>
+      <c r="C89" t="s">
+        <v>308</v>
+      </c>
+      <c r="E89">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B90" t="s">
+        <v>330</v>
+      </c>
+      <c r="C90" t="s">
+        <v>309</v>
+      </c>
+      <c r="E90">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B91" t="s">
+        <v>331</v>
+      </c>
+      <c r="C91" t="s">
+        <v>310</v>
+      </c>
+      <c r="E91">
+        <v>11106</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B92" t="s">
+        <v>332</v>
+      </c>
+      <c r="C92" t="s">
+        <v>311</v>
+      </c>
+      <c r="E92">
+        <v>9000</v>
       </c>
     </row>
   </sheetData>
@@ -2334,8 +2716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC7B1E9-526D-41DC-A523-0A5494D9C7DD}">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2350,29 +2732,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="82"/>
+      <c r="F2" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -2896,7 +3278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21AE885A-FF7F-4688-80AC-54ECDDAC6CBC}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -2912,29 +3294,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="82"/>
+      <c r="F2" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -3360,8 +3742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D8786C-3CBC-46E6-B609-6E603B1DCDFC}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3376,29 +3758,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="3"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="82"/>
+      <c r="F2" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
@@ -3892,7 +4274,7 @@
       </c>
       <c r="H39"/>
     </row>
-    <row r="40" spans="1:8" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B40" s="46"/>
       <c r="C40" s="41" t="s">
         <v>155</v>
@@ -4058,8 +4440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038FDC8F-9E4C-4978-BA7D-5D5F8FB46B0A}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4087,11 +4469,11 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="82" t="s">
         <v>180</v>
       </c>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -4593,8 +4975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450D3C41-EA67-4045-92C3-4FCA41EBE615}">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4617,22 +4999,22 @@
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
-      <c r="K1" s="83" t="s">
+      <c r="K1" s="84" t="s">
         <v>278</v>
       </c>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="82" t="s">
         <v>180</v>
       </c>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -5416,443 +5798,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AE9ADA-651B-4047-9589-3FDFC20B586D}">
-  <dimension ref="A1:G68"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="22.453125" customWidth="1"/>
-    <col min="2" max="2" width="27.1796875" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" customWidth="1"/>
-    <col min="6" max="6" width="6.90625" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="8" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="81" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-    </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="60">
-        <v>21</v>
-      </c>
-      <c r="E4">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="F4">
-        <v>0.39</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="66">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F5">
-        <v>0.31</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="60">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>2.5</v>
-      </c>
-      <c r="F6">
-        <v>0.42</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="60">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>2.15</v>
-      </c>
-      <c r="F7">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="65"/>
-      <c r="D8" s="60"/>
-    </row>
-    <row r="9" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="57" t="s">
-        <v>270</v>
-      </c>
-      <c r="D9" s="61">
-        <v>15</v>
-      </c>
-      <c r="E9" s="56">
-        <v>2.39</v>
-      </c>
-      <c r="F9" s="56">
-        <v>0.41</v>
-      </c>
-      <c r="G9" s="62" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="4"/>
-      <c r="C10" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="66">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F10">
-        <v>0.31</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="60"/>
-    </row>
-    <row r="12" spans="1:7" s="56" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="61">
-        <v>21</v>
-      </c>
-      <c r="E12" s="56">
-        <v>0.4</v>
-      </c>
-      <c r="F12" s="56">
-        <v>0.2</v>
-      </c>
-      <c r="G12" s="62" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="66">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>0.32</v>
-      </c>
-      <c r="F13">
-        <v>0.16</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="60">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <v>0.49</v>
-      </c>
-      <c r="F14">
-        <v>0.21</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="60">
-        <v>6</v>
-      </c>
-      <c r="E15">
-        <v>0.32</v>
-      </c>
-      <c r="F15">
-        <v>0.16</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-    </row>
-    <row r="17" spans="3:7" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="57" t="s">
-        <v>270</v>
-      </c>
-      <c r="D17" s="61">
-        <v>15</v>
-      </c>
-      <c r="E17" s="56">
-        <v>0.43</v>
-      </c>
-      <c r="F17" s="56">
-        <v>0.21</v>
-      </c>
-      <c r="G17" s="62" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="66">
-        <v>5</v>
-      </c>
-      <c r="E18">
-        <v>0.32</v>
-      </c>
-      <c r="F18">
-        <v>0.16</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G19"/>
-    </row>
-    <row r="20" spans="3:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G20"/>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="G21"/>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="G22"/>
-    </row>
-    <row r="23" spans="3:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G23"/>
-    </row>
-    <row r="24" spans="3:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G24"/>
-    </row>
-    <row r="25" spans="3:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G25"/>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="G26"/>
-    </row>
-    <row r="27" spans="3:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G27"/>
-    </row>
-    <row r="28" spans="3:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G28"/>
-    </row>
-    <row r="29" spans="3:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G29"/>
-    </row>
-    <row r="30" spans="3:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G30"/>
-    </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="G31"/>
-    </row>
-    <row r="32" spans="3:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G32"/>
-    </row>
-    <row r="33" spans="7:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G33"/>
-    </row>
-    <row r="34" spans="7:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G34"/>
-    </row>
-    <row r="35" spans="7:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G35"/>
-    </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G37"/>
-    </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G38"/>
-    </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G39"/>
-    </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G40"/>
-    </row>
-    <row r="41" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G41"/>
-    </row>
-    <row r="42" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G42"/>
-    </row>
-    <row r="43" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G43"/>
-    </row>
-    <row r="44" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G44"/>
-    </row>
-    <row r="45" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G45"/>
-    </row>
-    <row r="46" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G46"/>
-    </row>
-    <row r="47" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G47"/>
-    </row>
-    <row r="48" spans="7:7" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G48"/>
-    </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G49"/>
-    </row>
-    <row r="50" spans="7:7" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G50"/>
-    </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G51"/>
-    </row>
-    <row r="52" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G52"/>
-    </row>
-    <row r="53" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G53"/>
-    </row>
-    <row r="54" spans="7:7" ht="56" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G54"/>
-    </row>
-    <row r="55" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G55"/>
-    </row>
-    <row r="56" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G56"/>
-    </row>
-    <row r="57" spans="7:7" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G57"/>
-    </row>
-    <row r="58" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G58"/>
-    </row>
-    <row r="59" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G59"/>
-    </row>
-    <row r="60" spans="7:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G60"/>
-    </row>
-    <row r="61" spans="7:7" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G61"/>
-    </row>
-    <row r="62" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G62"/>
-    </row>
-    <row r="63" spans="7:7" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G63"/>
-    </row>
-    <row r="64" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G64"/>
-    </row>
-    <row r="65" spans="7:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G65"/>
-    </row>
-    <row r="66" spans="7:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G66"/>
-    </row>
-    <row r="67" spans="7:7" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G67"/>
-    </row>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G68"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:G2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880F3C97-102F-43A4-90DB-1686244A8CC5}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5883,15 +5833,15 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="82" t="s">
         <v>243</v>
       </c>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81" t="s">
+      <c r="F2" s="82"/>
+      <c r="G2" s="82" t="s">
         <v>180</v>
       </c>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -6652,4 +6602,436 @@
     <ignoredError sqref="I13" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AE9ADA-651B-4047-9589-3FDFC20B586D}">
+  <dimension ref="A1:G68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="2" max="2" width="27.1796875" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="6" max="6" width="6.90625" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="82" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="60">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="F4">
+        <v>0.39</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="66">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F5">
+        <v>0.31</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="60">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>2.5</v>
+      </c>
+      <c r="F6">
+        <v>0.42</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="60">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>2.15</v>
+      </c>
+      <c r="F7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="65"/>
+      <c r="D8" s="60"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="D9" s="61">
+        <v>15</v>
+      </c>
+      <c r="E9" s="56">
+        <v>2.39</v>
+      </c>
+      <c r="F9" s="56">
+        <v>0.41</v>
+      </c>
+      <c r="G9" s="62" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="4"/>
+      <c r="C10" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="66">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F10">
+        <v>0.31</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="60"/>
+    </row>
+    <row r="12" spans="1:7" s="56" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" s="57"/>
+      <c r="D12" s="61">
+        <v>21</v>
+      </c>
+      <c r="E12" s="56">
+        <v>0.4</v>
+      </c>
+      <c r="F12" s="56">
+        <v>0.2</v>
+      </c>
+      <c r="G12" s="62" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="66">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>0.32</v>
+      </c>
+      <c r="F13">
+        <v>0.16</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="60">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>0.49</v>
+      </c>
+      <c r="F14">
+        <v>0.21</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="60">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>0.32</v>
+      </c>
+      <c r="F15">
+        <v>0.16</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+    </row>
+    <row r="17" spans="3:7" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="D17" s="61">
+        <v>15</v>
+      </c>
+      <c r="E17" s="56">
+        <v>0.43</v>
+      </c>
+      <c r="F17" s="56">
+        <v>0.21</v>
+      </c>
+      <c r="G17" s="62" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="66">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>0.32</v>
+      </c>
+      <c r="F18">
+        <v>0.16</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="3:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="3:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="3:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="3:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="G26"/>
+    </row>
+    <row r="27" spans="3:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G27"/>
+    </row>
+    <row r="28" spans="3:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G28"/>
+    </row>
+    <row r="29" spans="3:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G29"/>
+    </row>
+    <row r="30" spans="3:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G30"/>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="3:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G32"/>
+    </row>
+    <row r="33" spans="7:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="7:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G34"/>
+    </row>
+    <row r="35" spans="7:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G35"/>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G37"/>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G38"/>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G39"/>
+    </row>
+    <row r="40" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G40"/>
+    </row>
+    <row r="41" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G41"/>
+    </row>
+    <row r="42" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G42"/>
+    </row>
+    <row r="43" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G43"/>
+    </row>
+    <row r="44" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G44"/>
+    </row>
+    <row r="45" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G45"/>
+    </row>
+    <row r="46" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G46"/>
+    </row>
+    <row r="47" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G47"/>
+    </row>
+    <row r="48" spans="7:7" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G48"/>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G49"/>
+    </row>
+    <row r="50" spans="7:7" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G50"/>
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G51"/>
+    </row>
+    <row r="52" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G52"/>
+    </row>
+    <row r="53" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G53"/>
+    </row>
+    <row r="54" spans="7:7" ht="56" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G54"/>
+    </row>
+    <row r="55" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G55"/>
+    </row>
+    <row r="56" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G56"/>
+    </row>
+    <row r="57" spans="7:7" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G57"/>
+    </row>
+    <row r="58" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G58"/>
+    </row>
+    <row r="59" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G59"/>
+    </row>
+    <row r="60" spans="7:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G60"/>
+    </row>
+    <row r="61" spans="7:7" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G61"/>
+    </row>
+    <row r="62" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G62"/>
+    </row>
+    <row r="63" spans="7:7" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G63"/>
+    </row>
+    <row r="64" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G64"/>
+    </row>
+    <row r="65" spans="7:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G65"/>
+    </row>
+    <row r="66" spans="7:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G66"/>
+    </row>
+    <row r="67" spans="7:7" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G67"/>
+    </row>
+    <row r="68" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/OREI_files/40-herd data/descriptive stat sheets by group.xlsx
+++ b/OREI_files/40-herd data/descriptive stat sheets by group.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/40-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1140" documentId="8_{126BB96A-507C-4CDA-9D59-67A075BB21DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADDB8646-6264-42C9-9E5E-531CFD36E299}"/>
+  <xr:revisionPtr revIDLastSave="1141" documentId="8_{126BB96A-507C-4CDA-9D59-67A075BB21DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E854E391-E294-4882-B852-FFCAA977A967}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{BD75E345-1D78-4F68-86D2-D9942F22A602}"/>
   </bookViews>
@@ -2716,8 +2716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC7B1E9-526D-41DC-A523-0A5494D9C7DD}">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3176,7 +3176,7 @@
     <row r="33" spans="2:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B33" s="34"/>
       <c r="D33" s="30">
-        <v>23.3</v>
+        <v>20.3</v>
       </c>
       <c r="E33" s="30">
         <v>33.299999999999997</v>

--- a/OREI_files/40-herd data/descriptive stat sheets by group.xlsx
+++ b/OREI_files/40-herd data/descriptive stat sheets by group.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/40-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1141" documentId="8_{126BB96A-507C-4CDA-9D59-67A075BB21DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E854E391-E294-4882-B852-FFCAA977A967}"/>
+  <xr:revisionPtr revIDLastSave="1144" documentId="8_{126BB96A-507C-4CDA-9D59-67A075BB21DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{935DC075-7F45-4656-8450-569D5E225E4E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{BD75E345-1D78-4F68-86D2-D9942F22A602}"/>
+    <workbookView xWindow="4490" yWindow="0" windowWidth="14440" windowHeight="10170" firstSheet="5" activeTab="5" xr2:uid="{BD75E345-1D78-4F68-86D2-D9942F22A602}"/>
   </bookViews>
   <sheets>
     <sheet name="farm traits + lact cow housing" sheetId="1" r:id="rId1"/>
@@ -629,9 +629,6 @@
     <t>1.7-3.3</t>
   </si>
   <si>
-    <t>2.4-5</t>
-  </si>
-  <si>
     <t>2.9-12.3</t>
   </si>
   <si>
@@ -684,9 +681,6 @@
   </si>
   <si>
     <t>1.9-3.3</t>
-  </si>
-  <si>
-    <t>3-5</t>
   </si>
   <si>
     <t>Average hygiene score</t>
@@ -1139,6 +1133,12 @@
   </si>
   <si>
     <t>(9,000-21,204)</t>
+  </si>
+  <si>
+    <t>3.0-5.0</t>
+  </si>
+  <si>
+    <t>2.4-5.0</t>
   </si>
 </sst>
 </file>
@@ -1292,7 +1292,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1350,14 +1350,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1367,17 +1363,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1398,36 +1387,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1435,24 +1410,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -1487,6 +1458,14 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1788,8 +1767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BA11CA-1FD6-4FCA-95C7-2B3DA00AB707}">
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1818,15 +1797,15 @@
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82" t="s">
+      <c r="E2" s="67"/>
+      <c r="F2" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -2180,38 +2159,37 @@
     </row>
     <row r="29" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B29" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D29" s="10">
         <v>20</v>
       </c>
-      <c r="F29" s="81">
+      <c r="F29" s="66">
         <v>14163</v>
       </c>
-      <c r="G29" s="81">
+      <c r="G29" s="66">
         <v>3096</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" s="30" customFormat="1" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="47" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="30">
+      <c r="D30">
         <v>12</v>
       </c>
-      <c r="E30" s="30">
+      <c r="E30">
         <v>60</v>
       </c>
-      <c r="H30" s="49"/>
     </row>
     <row r="31" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="43" t="s">
         <v>171</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -2230,7 +2208,7 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D32">
         <v>6</v>
@@ -2342,7 +2320,7 @@
       <c r="H40" s="12"/>
     </row>
     <row r="41" spans="1:8" s="10" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="33" t="s">
         <v>69</v>
       </c>
       <c r="B41" s="9" t="s">
@@ -2362,7 +2340,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="37" t="s">
+      <c r="A42" s="33" t="s">
         <v>70</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -2379,7 +2357,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="30"/>
+      <c r="A43"/>
       <c r="C43" s="7" t="s">
         <v>53</v>
       </c>
@@ -2392,7 +2370,7 @@
       <c r="H43" s="12"/>
     </row>
     <row r="44" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="36" t="s">
+      <c r="A44" s="32" t="s">
         <v>71</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -2439,7 +2417,7 @@
     </row>
     <row r="47" spans="1:8" s="10" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D47" s="10">
         <v>5</v>
@@ -2473,10 +2451,10 @@
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C72" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E72">
         <v>19000</v>
@@ -2484,10 +2462,10 @@
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C73" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E73">
         <v>15200</v>
@@ -2495,10 +2473,10 @@
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C74" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E74">
         <v>15500</v>
@@ -2506,10 +2484,10 @@
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C75" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E75">
         <v>12563</v>
@@ -2517,10 +2495,10 @@
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C76" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E76">
         <v>14574</v>
@@ -2528,10 +2506,10 @@
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C77" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E77">
         <v>17961</v>
@@ -2539,10 +2517,10 @@
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C78" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E78">
         <v>21204</v>
@@ -2550,10 +2528,10 @@
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C79" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E79">
         <v>11794</v>
@@ -2561,10 +2539,10 @@
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C80" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E80">
         <v>16500</v>
@@ -2572,10 +2550,10 @@
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C81" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E81">
         <v>11734</v>
@@ -2583,10 +2561,10 @@
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C82" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E82">
         <v>10628</v>
@@ -2594,10 +2572,10 @@
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C83" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E83">
         <v>13500</v>
@@ -2605,10 +2583,10 @@
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C84" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E84">
         <v>16728</v>
@@ -2616,10 +2594,10 @@
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C85" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E85">
         <v>15210</v>
@@ -2627,10 +2605,10 @@
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C86" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E86">
         <v>15087</v>
@@ -2638,10 +2616,10 @@
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C87" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E87">
         <v>11467</v>
@@ -2649,10 +2627,10 @@
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C88" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E88">
         <v>20323</v>
@@ -2660,10 +2638,10 @@
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C89" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E89">
         <v>12000</v>
@@ -2671,10 +2649,10 @@
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C90" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E90">
         <v>12500</v>
@@ -2682,10 +2660,10 @@
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C91" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E91">
         <v>11106</v>
@@ -2693,10 +2671,10 @@
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C92" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E92">
         <v>9000</v>
@@ -2716,7 +2694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC7B1E9-526D-41DC-A523-0A5494D9C7DD}">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
@@ -2732,29 +2710,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82" t="s">
+      <c r="E2" s="67"/>
+      <c r="F2" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -2775,7 +2753,7 @@
       <c r="G3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="29" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2807,7 +2785,7 @@
       <c r="E5" s="7">
         <v>60</v>
       </c>
-      <c r="H5" s="32"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="16" t="s">
@@ -2836,7 +2814,7 @@
       <c r="E7" s="7">
         <v>94.4</v>
       </c>
-      <c r="H7" s="32"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="8" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
@@ -2868,7 +2846,7 @@
       <c r="E10" s="7">
         <v>33.299999999999997</v>
       </c>
-      <c r="H10" s="32"/>
+      <c r="H10" s="30"/>
     </row>
     <row r="11" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B11" s="16" t="s">
@@ -2895,7 +2873,7 @@
       <c r="E12" s="7">
         <v>66.7</v>
       </c>
-      <c r="H12" s="32"/>
+      <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="16" t="s">
@@ -2921,7 +2899,7 @@
       <c r="E14" s="7">
         <v>66.7</v>
       </c>
-      <c r="H14" s="32"/>
+      <c r="H14" s="30"/>
     </row>
     <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="16" t="s">
@@ -2960,7 +2938,7 @@
       <c r="E17" s="7">
         <v>33.299999999999997</v>
       </c>
-      <c r="H17" s="32"/>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="17" t="s">
@@ -2981,7 +2959,7 @@
       <c r="D19" s="7">
         <v>16</v>
       </c>
-      <c r="H19" s="32"/>
+      <c r="H19" s="30"/>
     </row>
     <row r="20" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="16" t="s">
@@ -3002,15 +2980,15 @@
     </row>
     <row r="21" spans="1:8" s="7" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="23"/>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="48"/>
-      <c r="H21" s="32"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="42"/>
+      <c r="H21" s="30"/>
     </row>
     <row r="22" spans="1:8" s="7" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="27" t="s">
         <v>85</v>
       </c>
       <c r="B22" s="23" t="s">
@@ -3025,7 +3003,7 @@
       <c r="G22" s="7">
         <v>10</v>
       </c>
-      <c r="H22" s="32" t="s">
+      <c r="H22" s="30" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3043,7 +3021,7 @@
       <c r="G23" s="10">
         <v>13.6</v>
       </c>
-      <c r="H23" s="33" t="s">
+      <c r="H23" s="31" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3060,13 +3038,13 @@
       <c r="G24" s="10">
         <v>3.5</v>
       </c>
-      <c r="H24" s="33" t="s">
+      <c r="H24" s="31" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="16" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>95</v>
@@ -3089,14 +3067,14 @@
       <c r="E26" s="7">
         <v>66.7</v>
       </c>
-      <c r="H26" s="32"/>
+      <c r="H26" s="30"/>
     </row>
     <row r="27" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="B27" s="34" t="s">
-        <v>290</v>
+      <c r="B27" s="16" t="s">
+        <v>288</v>
       </c>
       <c r="C27" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -3108,7 +3086,7 @@
     <row r="28" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B28" s="23"/>
       <c r="C28" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D28" s="7">
         <v>7</v>
@@ -3116,39 +3094,37 @@
       <c r="E28" s="7">
         <v>70</v>
       </c>
-      <c r="H28" s="32"/>
-    </row>
-    <row r="29" spans="1:8" s="30" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="36" t="s">
+      <c r="H28" s="30"/>
+    </row>
+    <row r="29" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="34" t="s">
-        <v>286</v>
-      </c>
-      <c r="C29" s="30">
+      <c r="B29" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="C29">
         <v>3</v>
       </c>
-      <c r="D29" s="30">
+      <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29" s="30">
+      <c r="E29">
         <v>40</v>
       </c>
-      <c r="H29" s="35"/>
-    </row>
-    <row r="30" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="27"/>
-      <c r="B30" s="34"/>
-      <c r="D30" s="30">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="3"/>
+      <c r="B30" s="16"/>
+      <c r="D30">
         <v>3.5</v>
       </c>
-      <c r="E30" s="30">
+      <c r="E30">
         <v>20</v>
       </c>
-      <c r="H30" s="35"/>
     </row>
     <row r="31" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="28"/>
+      <c r="A31" s="27"/>
       <c r="B31" s="23"/>
       <c r="D31" s="7">
         <v>14</v>
@@ -3156,32 +3132,30 @@
       <c r="E31" s="7">
         <v>40</v>
       </c>
-      <c r="H31" s="32"/>
-    </row>
-    <row r="32" spans="1:8" s="30" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B32" s="34" t="s">
+      <c r="H31" s="30"/>
+    </row>
+    <row r="32" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B32" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C32" s="30">
+      <c r="C32">
         <v>3</v>
       </c>
-      <c r="D32" s="30">
+      <c r="D32">
         <v>10.199999999999999</v>
       </c>
-      <c r="E32" s="30">
+      <c r="E32">
         <v>33.299999999999997</v>
       </c>
-      <c r="H32" s="35"/>
-    </row>
-    <row r="33" spans="2:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="34"/>
-      <c r="D33" s="30">
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B33" s="16"/>
+      <c r="D33">
         <v>20.3</v>
       </c>
-      <c r="E33" s="30">
+      <c r="E33">
         <v>33.299999999999997</v>
       </c>
-      <c r="H33" s="35"/>
     </row>
     <row r="34" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B34" s="23"/>
@@ -3191,50 +3165,47 @@
       <c r="E34" s="7">
         <v>33.299999999999997</v>
       </c>
-      <c r="H34" s="32"/>
-    </row>
-    <row r="35" spans="2:8" s="30" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B35" s="34" t="s">
+      <c r="H34" s="30"/>
+    </row>
+    <row r="35" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B35" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" t="s">
         <v>175</v>
       </c>
-      <c r="F35" s="30">
+      <c r="F35">
         <v>0.9</v>
       </c>
-      <c r="G35" s="30">
+      <c r="G35">
         <v>0.12</v>
       </c>
-      <c r="H35" s="35" t="s">
+      <c r="H35" s="26" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="36" spans="2:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="34"/>
-      <c r="H36" s="35"/>
-    </row>
-    <row r="37" spans="2:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="34" t="s">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B36" s="16"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B37" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="30">
+      <c r="D37">
         <v>0.9</v>
       </c>
-      <c r="E37" s="30">
+      <c r="E37">
         <v>20</v>
       </c>
-      <c r="H37" s="35"/>
-    </row>
-    <row r="38" spans="2:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="34"/>
-      <c r="D38" s="30">
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B38" s="16"/>
+      <c r="D38">
         <v>1.2</v>
       </c>
-      <c r="E38" s="30">
+      <c r="E38">
         <v>40</v>
       </c>
-      <c r="H38" s="35"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B39" s="15"/>
@@ -3294,29 +3265,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82" t="s">
+      <c r="E2" s="67"/>
+      <c r="F2" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -3337,12 +3308,12 @@
       <c r="G3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="29" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="7" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="34" t="s">
         <v>102</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -3358,7 +3329,7 @@
     <row r="5" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21"/>
       <c r="B5" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -3383,7 +3354,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="33" t="s">
         <v>104</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -3401,7 +3372,7 @@
       <c r="H7"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="38"/>
+      <c r="A8" s="21"/>
       <c r="C8" t="s">
         <v>107</v>
       </c>
@@ -3429,7 +3400,7 @@
         <v>109</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -3440,8 +3411,8 @@
       <c r="H10"/>
     </row>
     <row r="11" spans="1:8" s="7" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="40"/>
-      <c r="C11" s="41" t="s">
+      <c r="A11" s="35"/>
+      <c r="C11" s="36" t="s">
         <v>110</v>
       </c>
       <c r="D11" s="7">
@@ -3452,8 +3423,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="10" customFormat="1" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="43"/>
-      <c r="B12" s="44" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="39" t="s">
         <v>111</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -3493,7 +3464,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" s="10" customFormat="1" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="39" t="s">
         <v>115</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -3523,7 +3494,7 @@
       <c r="H16"/>
     </row>
     <row r="17" spans="1:8" s="7" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="40"/>
+      <c r="A17" s="35"/>
       <c r="C17" s="7" t="s">
         <v>117</v>
       </c>
@@ -3551,7 +3522,7 @@
       <c r="H18"/>
     </row>
     <row r="19" spans="1:8" s="7" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="40"/>
+      <c r="A19" s="35"/>
       <c r="C19" s="7" t="s">
         <v>53</v>
       </c>
@@ -3564,7 +3535,7 @@
     </row>
     <row r="20" spans="1:8" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="21"/>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="37" t="s">
         <v>119</v>
       </c>
       <c r="C20" t="s">
@@ -3579,7 +3550,7 @@
       <c r="H20"/>
     </row>
     <row r="21" spans="1:8" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="40"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="6" t="s">
         <v>158</v>
       </c>
@@ -3594,7 +3565,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="33" t="s">
         <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -3638,9 +3609,9 @@
       <c r="H24"/>
     </row>
     <row r="25" spans="1:8" s="7" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="40"/>
-      <c r="C25" s="41" t="s">
-        <v>282</v>
+      <c r="A25" s="35"/>
+      <c r="C25" s="36" t="s">
+        <v>280</v>
       </c>
       <c r="D25" s="7">
         <v>4</v>
@@ -3758,29 +3729,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="3"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82" t="s">
+      <c r="E2" s="67"/>
+      <c r="F2" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
@@ -3801,12 +3772,12 @@
       <c r="G3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="29" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="49" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="37" t="s">
         <v>169</v>
       </c>
       <c r="C4" t="s">
@@ -3845,7 +3816,7 @@
       <c r="H6"/>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="45"/>
+      <c r="A7" s="40"/>
       <c r="C7" t="s">
         <v>134</v>
       </c>
@@ -3918,40 +3889,37 @@
       <c r="H12"/>
     </row>
     <row r="13" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="30" t="s">
+      <c r="C13" t="s">
         <v>140</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13">
         <v>2</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13">
         <v>9.5</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
       <c r="H14"/>
     </row>
     <row r="15" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15">
         <v>8</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15">
         <v>38.1</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16" spans="1:8" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="46"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="7" t="s">
         <v>53</v>
       </c>
@@ -3978,7 +3946,7 @@
       <c r="H17"/>
     </row>
     <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="46"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="7" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +3973,8 @@
       <c r="H19"/>
     </row>
     <row r="20" spans="1:8" s="7" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="40"/>
-      <c r="B20" s="46"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="7" t="s">
         <v>54</v>
       </c>
@@ -4059,7 +4027,7 @@
       <c r="H23"/>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="46"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="7" t="s">
         <v>147</v>
       </c>
@@ -4071,14 +4039,14 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="33" t="s">
         <v>150</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>151</v>
       </c>
       <c r="C25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D25">
         <v>11</v>
@@ -4089,7 +4057,7 @@
       <c r="H25"/>
     </row>
     <row r="26" spans="1:8" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="46"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="7" t="s">
         <v>148</v>
       </c>
@@ -4128,7 +4096,7 @@
       <c r="H28"/>
     </row>
     <row r="29" spans="1:8" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="46"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="7" t="s">
         <v>147</v>
       </c>
@@ -4167,8 +4135,8 @@
       <c r="H31"/>
     </row>
     <row r="32" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="40"/>
-      <c r="B32" s="46"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="41"/>
       <c r="C32" s="7" t="s">
         <v>147</v>
       </c>
@@ -4181,7 +4149,7 @@
     </row>
     <row r="33" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="21"/>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="37" t="s">
         <v>154</v>
       </c>
       <c r="C33" t="s">
@@ -4196,7 +4164,7 @@
       <c r="H33"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C34" s="30" t="s">
+      <c r="C34" t="s">
         <v>145</v>
       </c>
       <c r="D34">
@@ -4208,7 +4176,7 @@
       <c r="H34"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C35" s="30" t="s">
+      <c r="C35" t="s">
         <v>147</v>
       </c>
       <c r="D35">
@@ -4220,8 +4188,8 @@
       <c r="H35"/>
     </row>
     <row r="36" spans="1:8" s="7" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="46"/>
-      <c r="C36" s="41" t="s">
+      <c r="B36" s="41"/>
+      <c r="C36" s="36" t="s">
         <v>155</v>
       </c>
       <c r="D36" s="7">
@@ -4232,7 +4200,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="37" t="s">
         <v>156</v>
       </c>
       <c r="C37" t="s">
@@ -4251,7 +4219,7 @@
       <c r="B38" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C38" t="s">
         <v>145</v>
       </c>
       <c r="D38">
@@ -4263,7 +4231,7 @@
       <c r="H38"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C39" s="30" t="s">
+      <c r="C39" t="s">
         <v>147</v>
       </c>
       <c r="D39">
@@ -4275,8 +4243,8 @@
       <c r="H39"/>
     </row>
     <row r="40" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="46"/>
-      <c r="C40" s="41" t="s">
+      <c r="B40" s="41"/>
+      <c r="C40" s="36" t="s">
         <v>155</v>
       </c>
       <c r="D40" s="7">
@@ -4287,12 +4255,12 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="37"/>
+      <c r="A41" s="33"/>
       <c r="B41" s="5" t="s">
         <v>159</v>
       </c>
       <c r="C41" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D41">
         <v>9</v>
@@ -4316,7 +4284,7 @@
       <c r="H42"/>
     </row>
     <row r="43" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="46"/>
+      <c r="B43" s="41"/>
       <c r="C43" s="7" t="s">
         <v>161</v>
       </c>
@@ -4342,7 +4310,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="46"/>
+      <c r="B45" s="41"/>
       <c r="C45" s="7" t="s">
         <v>54</v>
       </c>
@@ -4352,7 +4320,7 @@
       <c r="E45" s="7">
         <v>19</v>
       </c>
-      <c r="H45" s="32"/>
+      <c r="H45" s="30"/>
     </row>
     <row r="46" spans="1:8" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="21"/>
@@ -4370,8 +4338,8 @@
       </c>
     </row>
     <row r="47" spans="1:8" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="40"/>
-      <c r="B47" s="46"/>
+      <c r="A47" s="35"/>
+      <c r="B47" s="41"/>
       <c r="C47" s="7" t="s">
         <v>54</v>
       </c>
@@ -4381,7 +4349,7 @@
       <c r="E47" s="7">
         <v>28.6</v>
       </c>
-      <c r="H47" s="32"/>
+      <c r="H47" s="30"/>
     </row>
     <row r="48" spans="1:8" ht="52" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="21"/>
@@ -4440,8 +4408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038FDC8F-9E4C-4978-BA7D-5D5F8FB46B0A}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="93" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4456,7 +4424,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -4469,11 +4437,11 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -4495,141 +4463,138 @@
     </row>
     <row r="4" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="60">
+      <c r="D4">
         <v>21</v>
       </c>
-      <c r="E4" s="67">
+      <c r="E4" s="54">
         <v>144286</v>
       </c>
-      <c r="F4" s="68">
+      <c r="F4" s="55">
         <v>53934.35</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="66">
+      <c r="D5" s="8">
         <v>5</v>
       </c>
-      <c r="E5" s="67">
+      <c r="E5" s="54">
         <v>107600</v>
       </c>
-      <c r="F5" s="68">
+      <c r="F5" s="55">
         <v>42582.9</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="60">
+      <c r="D6">
         <v>10</v>
       </c>
-      <c r="E6" s="67">
+      <c r="E6" s="54">
         <v>146400</v>
       </c>
-      <c r="F6" s="68">
+      <c r="F6" s="55">
         <v>52055.95</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="60">
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="E7" s="67">
+      <c r="E7" s="54">
         <v>171333</v>
       </c>
-      <c r="F7" s="68">
+      <c r="F7" s="55">
         <v>55449.68</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="65"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="68"/>
+      <c r="C8" s="53"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="55"/>
     </row>
     <row r="9" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="4"/>
-      <c r="C9" s="57" t="s">
-        <v>270</v>
-      </c>
-      <c r="D9" s="61">
+      <c r="C9" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" s="47">
         <v>15</v>
       </c>
-      <c r="E9" s="77">
+      <c r="E9" s="62">
         <v>152800</v>
       </c>
-      <c r="F9" s="78">
+      <c r="F9" s="63">
         <v>53455.19</v>
       </c>
-      <c r="G9" s="62" t="s">
-        <v>233</v>
+      <c r="G9" s="51" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="66">
+      <c r="D10" s="8">
         <v>5</v>
       </c>
-      <c r="E10" s="67">
+      <c r="E10" s="54">
         <v>107600</v>
       </c>
-      <c r="F10" s="68">
+      <c r="F10" s="55">
         <v>42582.9</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="60"/>
-    </row>
-    <row r="12" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="57" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="61">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" s="48"/>
+      <c r="D12" s="47">
         <v>21</v>
       </c>
-      <c r="E12" s="56">
+      <c r="E12" s="47">
         <v>3.43</v>
       </c>
-      <c r="F12" s="56">
+      <c r="F12" s="47">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G12" s="62" t="s">
-        <v>228</v>
+      <c r="G12" s="51" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="66">
+      <c r="D13" s="8">
         <v>5</v>
       </c>
       <c r="E13">
@@ -4639,14 +4604,14 @@
         <v>0.62</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="60">
+      <c r="D14">
         <v>10</v>
       </c>
       <c r="E14">
@@ -4656,14 +4621,14 @@
         <v>0.49</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="60">
+      <c r="D15">
         <v>6</v>
       </c>
       <c r="E15">
@@ -4673,35 +4638,34 @@
         <v>0.49</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="65"/>
-      <c r="D16" s="60"/>
+      <c r="C16" s="53"/>
     </row>
     <row r="17" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="57" t="s">
-        <v>270</v>
-      </c>
-      <c r="D17" s="61">
+      <c r="C17" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="D17" s="47">
         <v>15</v>
       </c>
-      <c r="E17" s="56">
+      <c r="E17" s="47">
         <v>3.53</v>
       </c>
-      <c r="F17" s="56">
+      <c r="F17" s="47">
         <v>0.49</v>
       </c>
-      <c r="G17" s="62" t="s">
-        <v>234</v>
+      <c r="G17" s="51" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="66">
+      <c r="D18" s="8">
         <v>5</v>
       </c>
       <c r="E18">
@@ -4711,37 +4675,37 @@
         <v>0.62</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-    </row>
-    <row r="20" spans="2:7" s="56" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="57" t="s">
-        <v>226</v>
-      </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="63">
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+    </row>
+    <row r="20" spans="2:7" s="47" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="C20" s="48"/>
+      <c r="D20" s="47">
         <v>21</v>
       </c>
-      <c r="E20" s="56">
+      <c r="E20" s="47">
         <v>5.13</v>
       </c>
-      <c r="F20" s="56">
+      <c r="F20" s="47">
         <v>0.17</v>
       </c>
-      <c r="G20" s="62" t="s">
-        <v>229</v>
+      <c r="G20" s="51" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="66">
+      <c r="D21" s="8">
         <v>5</v>
       </c>
       <c r="E21">
@@ -4751,14 +4715,14 @@
         <v>0.19</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="60">
+      <c r="D22">
         <v>10</v>
       </c>
       <c r="E22">
@@ -4768,14 +4732,14 @@
         <v>0.15</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="60">
+      <c r="D23">
         <v>6</v>
       </c>
       <c r="E23">
@@ -4785,36 +4749,36 @@
         <v>0.15</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
     </row>
     <row r="25" spans="2:7" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="57" t="s">
-        <v>270</v>
-      </c>
-      <c r="D25" s="61">
+      <c r="C25" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="D25" s="47">
         <v>15</v>
       </c>
-      <c r="E25" s="56">
+      <c r="E25" s="47">
         <v>5.16</v>
       </c>
-      <c r="F25" s="56">
+      <c r="F25" s="47">
         <v>0.15</v>
       </c>
-      <c r="G25" s="62" t="s">
-        <v>235</v>
+      <c r="G25" s="51" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="66">
+      <c r="D26" s="8">
         <v>5</v>
       </c>
       <c r="E26">
@@ -4824,7 +4788,7 @@
         <v>0.19</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4975,8 +4939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450D3C41-EA67-4045-92C3-4FCA41EBE615}">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:A42"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="89" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4999,22 +4963,22 @@
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
-      <c r="K1" s="84" t="s">
-        <v>278</v>
-      </c>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
+      <c r="K1" s="69" t="s">
+        <v>276</v>
+      </c>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -5039,7 +5003,7 @@
         <v>178</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="60">
+      <c r="D4">
         <v>19</v>
       </c>
       <c r="E4">
@@ -5053,11 +5017,11 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="66" t="s">
-        <v>194</v>
+      <c r="D5" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="E5">
         <v>7</v>
@@ -5066,14 +5030,14 @@
         <v>4.8</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="60">
+      <c r="D6">
         <v>10</v>
       </c>
       <c r="E6">
@@ -5083,14 +5047,14 @@
         <v>3.9</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="60">
+      <c r="D7">
         <v>6</v>
       </c>
       <c r="E7">
@@ -5100,38 +5064,37 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="65"/>
-      <c r="D8" s="60"/>
+      <c r="C8" s="53"/>
     </row>
     <row r="9" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="4"/>
-      <c r="C9" s="57" t="s">
-        <v>270</v>
-      </c>
-      <c r="D9" s="61">
+      <c r="C9" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" s="47">
         <v>15</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9" s="47">
         <v>5.53</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="47">
         <v>3.7</v>
       </c>
-      <c r="G9" s="62" t="s">
-        <v>199</v>
+      <c r="G9" s="51" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="66" t="s">
-        <v>194</v>
+      <c r="D10" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="E10">
         <v>7</v>
@@ -5140,36 +5103,34 @@
         <v>4.8</v>
       </c>
       <c r="G10" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="48"/>
+      <c r="D12" s="47">
+        <v>19</v>
+      </c>
+      <c r="E12" s="47">
+        <v>13.6</v>
+      </c>
+      <c r="F12" s="47">
+        <v>5.8</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="60"/>
-    </row>
-    <row r="12" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="57" t="s">
-        <v>182</v>
-      </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="61">
-        <v>19</v>
-      </c>
-      <c r="E12" s="56">
-        <v>13.6</v>
-      </c>
-      <c r="F12" s="56">
-        <v>5.8</v>
-      </c>
-      <c r="G12" s="62" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="66" t="s">
-        <v>194</v>
       </c>
       <c r="E13">
         <v>14.5</v>
@@ -5182,10 +5143,10 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="60">
+      <c r="D14">
         <v>10</v>
       </c>
       <c r="E14">
@@ -5195,14 +5156,14 @@
         <v>3.9</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="60">
+      <c r="D15">
         <v>6</v>
       </c>
       <c r="E15">
@@ -5212,36 +5173,35 @@
         <v>6.6</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="65"/>
-      <c r="D16" s="60"/>
+      <c r="C16" s="53"/>
     </row>
     <row r="17" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="57" t="s">
-        <v>270</v>
-      </c>
-      <c r="D17" s="61">
+      <c r="C17" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="D17" s="47">
         <v>15</v>
       </c>
-      <c r="E17" s="56">
+      <c r="E17" s="47">
         <v>13.4</v>
       </c>
-      <c r="F17" s="56">
+      <c r="F17" s="47">
         <v>5.2</v>
       </c>
-      <c r="G17" s="62" t="s">
-        <v>207</v>
+      <c r="G17" s="51" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="66" t="s">
-        <v>194</v>
+      <c r="D18" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="E18">
         <v>14.5</v>
@@ -5254,34 +5214,34 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-    </row>
-    <row r="20" spans="2:7" s="56" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="57" t="s">
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+    </row>
+    <row r="20" spans="2:7" s="47" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="63">
+      <c r="C20" s="48"/>
+      <c r="D20" s="47">
         <v>19</v>
       </c>
-      <c r="E20" s="56">
+      <c r="E20" s="47">
         <v>25</v>
       </c>
-      <c r="F20" s="56">
+      <c r="F20" s="47">
         <v>7.8</v>
       </c>
-      <c r="G20" s="62" t="s">
+      <c r="G20" s="51" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="66" t="s">
-        <v>194</v>
+      <c r="D21" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="E21">
         <v>26</v>
@@ -5294,10 +5254,10 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="60">
+      <c r="D22">
         <v>10</v>
       </c>
       <c r="E22">
@@ -5307,14 +5267,14 @@
         <v>5.2</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="60">
+      <c r="D23">
         <v>6</v>
       </c>
       <c r="E23">
@@ -5324,36 +5284,35 @@
         <v>8.5</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="65"/>
-      <c r="D24" s="60"/>
+      <c r="C24" s="53"/>
     </row>
     <row r="25" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="57" t="s">
-        <v>270</v>
-      </c>
-      <c r="D25" s="61">
+      <c r="C25" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="D25" s="47">
         <v>15</v>
       </c>
-      <c r="E25" s="56">
+      <c r="E25" s="47">
         <v>24.7</v>
       </c>
-      <c r="F25" s="56">
+      <c r="F25" s="47">
         <v>6.6</v>
       </c>
-      <c r="G25" s="62" t="s">
-        <v>208</v>
+      <c r="G25" s="51" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="66" t="s">
-        <v>194</v>
+      <c r="D26" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="E26">
         <v>26</v>
@@ -5366,34 +5325,34 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-    </row>
-    <row r="28" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="58" t="s">
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+    </row>
+    <row r="28" spans="2:7" s="47" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="64">
+      <c r="C28" s="49"/>
+      <c r="D28" s="52">
         <v>18</v>
       </c>
-      <c r="E28" s="56">
+      <c r="E28" s="47">
         <v>50</v>
       </c>
-      <c r="F28" s="56">
+      <c r="F28" s="47">
         <v>10.1</v>
       </c>
-      <c r="G28" s="62" t="s">
+      <c r="G28" s="51" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="66" t="s">
-        <v>195</v>
+      <c r="D29" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="E29">
         <v>46.9</v>
@@ -5402,15 +5361,15 @@
         <v>8.1</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="65" t="s">
+      <c r="C30" s="53" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E30">
         <v>49.4</v>
@@ -5419,14 +5378,14 @@
         <v>10.199999999999999</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="65" t="s">
+      <c r="C31" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="60">
+      <c r="D31">
         <v>6</v>
       </c>
       <c r="E31">
@@ -5436,36 +5395,35 @@
         <v>11.9</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="65"/>
-      <c r="D32" s="60"/>
+      <c r="C32" s="53"/>
     </row>
     <row r="33" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="57" t="s">
-        <v>270</v>
-      </c>
-      <c r="D33" s="61">
+      <c r="C33" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="D33" s="47">
         <v>15</v>
       </c>
-      <c r="E33" s="56">
+      <c r="E33" s="47">
         <v>51.4</v>
       </c>
-      <c r="F33" s="56">
+      <c r="F33" s="47">
         <v>11</v>
       </c>
-      <c r="G33" s="62" t="s">
+      <c r="G33" s="51" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="65" t="s">
+      <c r="C34" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="66" t="s">
-        <v>195</v>
+      <c r="D34" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="E34">
         <v>46.9</v>
@@ -5474,38 +5432,38 @@
         <v>8.1</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="53"/>
-    </row>
-    <row r="36" spans="2:7" s="56" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="59" t="s">
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="45"/>
+    </row>
+    <row r="36" spans="2:7" s="47" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="C36" s="59"/>
-      <c r="D36" s="63">
+      <c r="C36" s="50"/>
+      <c r="D36" s="47">
         <v>20</v>
       </c>
-      <c r="E36" s="56">
+      <c r="E36" s="47">
         <v>2.44</v>
       </c>
-      <c r="F36" s="56">
+      <c r="F36" s="47">
         <v>0.42</v>
       </c>
-      <c r="G36" s="62" t="s">
+      <c r="G36" s="51" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="65" t="s">
+      <c r="C37" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="66" t="s">
-        <v>195</v>
+      <c r="D37" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="E37">
         <v>2.38</v>
@@ -5514,14 +5472,14 @@
         <v>0.61</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="65" t="s">
+      <c r="C38" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="60">
+      <c r="D38">
         <v>10</v>
       </c>
       <c r="E38">
@@ -5531,14 +5489,14 @@
         <v>0.23</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="65" t="s">
+      <c r="C39" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="60">
+      <c r="D39">
         <v>6</v>
       </c>
       <c r="E39">
@@ -5548,36 +5506,35 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="65"/>
-      <c r="D40" s="60"/>
+      <c r="C40" s="53"/>
     </row>
     <row r="41" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C41" s="57" t="s">
-        <v>270</v>
-      </c>
-      <c r="D41" s="61">
+      <c r="C41" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="D41" s="47">
         <v>15</v>
       </c>
-      <c r="E41" s="56">
+      <c r="E41" s="47">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F41" s="56">
+      <c r="F41" s="47">
         <v>0.38</v>
       </c>
-      <c r="G41" s="62" t="s">
-        <v>210</v>
+      <c r="G41" s="51" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C42" s="65" t="s">
+      <c r="C42" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="66" t="s">
-        <v>195</v>
+      <c r="D42" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="E42">
         <v>2.38</v>
@@ -5586,38 +5543,37 @@
         <v>0.61</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="52"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="55"/>
-    </row>
-    <row r="44" spans="2:7" s="56" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="59" t="s">
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+    </row>
+    <row r="44" spans="2:7" s="47" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="C44" s="59"/>
-      <c r="D44" s="64">
+      <c r="C44" s="50"/>
+      <c r="D44" s="52">
         <v>20</v>
       </c>
-      <c r="E44" s="56">
+      <c r="E44" s="47">
         <v>3.72</v>
       </c>
-      <c r="F44" s="56">
+      <c r="F44" s="47">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G44" s="62" t="s">
-        <v>192</v>
+      <c r="G44" s="51" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C45" s="65" t="s">
+      <c r="C45" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="66" t="s">
-        <v>195</v>
+      <c r="D45" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="E45">
         <v>3.48</v>
@@ -5626,14 +5582,14 @@
         <v>0.81</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C46" s="65" t="s">
+      <c r="C46" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="60">
+      <c r="D46">
         <v>10</v>
       </c>
       <c r="E46">
@@ -5643,14 +5599,14 @@
         <v>0.38</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C47" s="65" t="s">
+      <c r="C47" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="60">
+      <c r="D47">
         <v>6</v>
       </c>
       <c r="E47">
@@ -5660,32 +5616,32 @@
         <v>0.71</v>
       </c>
       <c r="G47" s="26" t="s">
-        <v>211</v>
+        <v>333</v>
       </c>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C49" s="57" t="s">
-        <v>270</v>
-      </c>
-      <c r="D49" s="61">
+      <c r="C49" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="D49" s="47">
         <v>15</v>
       </c>
-      <c r="E49" s="56">
+      <c r="E49" s="47">
         <v>3.7</v>
       </c>
-      <c r="F49" s="56">
+      <c r="F49" s="47">
         <v>0.4</v>
       </c>
-      <c r="G49" s="62" t="s">
-        <v>271</v>
+      <c r="G49" s="51" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C50" s="65" t="s">
+      <c r="C50" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="66" t="s">
-        <v>195</v>
+      <c r="D50" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="E50">
         <v>3.48</v>
@@ -5694,7 +5650,7 @@
         <v>0.81</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.35">
@@ -5801,8 +5757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880F3C97-102F-43A4-90DB-1686244A8CC5}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5818,7 +5774,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -5833,15 +5789,15 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="82" t="s">
-        <v>243</v>
-      </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82" t="s">
+      <c r="E2" s="67" t="s">
+        <v>241</v>
+      </c>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -5851,11 +5807,11 @@
       <c r="D3" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E3" s="69" t="s">
-        <v>244</v>
-      </c>
-      <c r="F3" s="69" t="s">
-        <v>245</v>
+      <c r="E3" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>243</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>2</v>
@@ -5869,349 +5825,346 @@
     </row>
     <row r="4" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="60">
+      <c r="D4">
         <v>21</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="F4" s="70" t="s">
-        <v>246</v>
-      </c>
-      <c r="G4" s="71" t="s">
-        <v>247</v>
-      </c>
-      <c r="H4" s="71" t="s">
-        <v>247</v>
-      </c>
-      <c r="I4" s="71" t="s">
-        <v>247</v>
+      <c r="F4" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="H4" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="66">
+      <c r="D5" s="8">
         <v>5</v>
       </c>
-      <c r="E5" s="70" t="s">
-        <v>253</v>
-      </c>
-      <c r="F5" s="70" t="s">
-        <v>252</v>
-      </c>
-      <c r="G5" s="71" t="s">
-        <v>247</v>
-      </c>
-      <c r="H5" s="71" t="s">
-        <v>247</v>
-      </c>
-      <c r="I5" s="71" t="s">
-        <v>247</v>
+      <c r="E5" s="57" t="s">
+        <v>251</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>250</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="H5" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="I5" s="58" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="60">
+      <c r="D6">
         <v>10</v>
       </c>
-      <c r="E6" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="F6" s="70" t="s">
-        <v>261</v>
-      </c>
-      <c r="G6" s="71" t="s">
-        <v>247</v>
-      </c>
-      <c r="H6" s="71" t="s">
-        <v>247</v>
-      </c>
-      <c r="I6" s="71" t="s">
-        <v>247</v>
+      <c r="E6" s="57" t="s">
+        <v>258</v>
+      </c>
+      <c r="F6" s="57" t="s">
+        <v>259</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="H6" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="60">
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="E7" s="70" t="s">
-        <v>246</v>
-      </c>
-      <c r="F7" s="70" t="s">
-        <v>252</v>
-      </c>
-      <c r="G7" s="71" t="s">
-        <v>247</v>
-      </c>
-      <c r="H7" s="71" t="s">
-        <v>247</v>
-      </c>
-      <c r="I7" s="71" t="s">
-        <v>247</v>
+      <c r="E7" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="F7" s="57" t="s">
+        <v>250</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="65"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
+      <c r="C8" s="53"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
     </row>
     <row r="9" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="4"/>
-      <c r="C9" s="57" t="s">
-        <v>270</v>
-      </c>
-      <c r="D9" s="61">
+      <c r="C9" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" s="47">
         <v>15</v>
       </c>
-      <c r="E9" s="79" t="s">
-        <v>274</v>
-      </c>
-      <c r="F9" s="79" t="s">
-        <v>253</v>
-      </c>
-      <c r="G9" s="80" t="s">
-        <v>247</v>
-      </c>
-      <c r="H9" s="80" t="s">
-        <v>247</v>
-      </c>
-      <c r="I9" s="80" t="s">
-        <v>247</v>
+      <c r="E9" s="64" t="s">
+        <v>272</v>
+      </c>
+      <c r="F9" s="64" t="s">
+        <v>251</v>
+      </c>
+      <c r="G9" s="65" t="s">
+        <v>245</v>
+      </c>
+      <c r="H9" s="65" t="s">
+        <v>245</v>
+      </c>
+      <c r="I9" s="65" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="66">
+      <c r="D10" s="8">
         <v>5</v>
       </c>
-      <c r="E10" s="70" t="s">
-        <v>253</v>
-      </c>
-      <c r="F10" s="70" t="s">
-        <v>252</v>
-      </c>
-      <c r="G10" s="71" t="s">
-        <v>247</v>
-      </c>
-      <c r="H10" s="71" t="s">
-        <v>247</v>
-      </c>
-      <c r="I10" s="71" t="s">
-        <v>247</v>
+      <c r="E10" s="57" t="s">
+        <v>251</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>250</v>
+      </c>
+      <c r="G10" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="H10" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="I10" s="58" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="60"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="57" t="s">
-        <v>240</v>
-      </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="61">
+    <row r="12" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="48" t="s">
+        <v>238</v>
+      </c>
+      <c r="C12" s="48"/>
+      <c r="D12" s="47">
         <v>21</v>
       </c>
-      <c r="E12" s="71" t="s">
-        <v>247</v>
-      </c>
-      <c r="F12" s="71" t="s">
-        <v>247</v>
-      </c>
-      <c r="G12" s="71">
+      <c r="E12" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="F12" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="G12" s="58">
         <v>156.4</v>
       </c>
-      <c r="H12" s="56">
+      <c r="H12" s="47">
         <v>268</v>
       </c>
-      <c r="I12" s="62" t="s">
-        <v>248</v>
+      <c r="I12" s="51" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="66">
+      <c r="D13" s="8">
         <v>5</v>
       </c>
-      <c r="E13" s="71" t="s">
-        <v>247</v>
-      </c>
-      <c r="F13" s="71" t="s">
-        <v>247</v>
-      </c>
-      <c r="G13" s="71">
+      <c r="E13" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="F13" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="G13" s="58">
         <v>39</v>
       </c>
       <c r="H13">
         <v>25.3</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="60">
+      <c r="D14">
         <v>10</v>
       </c>
-      <c r="E14" s="71" t="s">
-        <v>247</v>
-      </c>
-      <c r="F14" s="71" t="s">
-        <v>247</v>
-      </c>
-      <c r="G14" s="71">
+      <c r="E14" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="F14" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="G14" s="58">
         <v>255.5</v>
       </c>
       <c r="H14">
         <v>364.6</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="60">
+      <c r="D15">
         <v>6</v>
       </c>
-      <c r="E15" s="71" t="s">
-        <v>247</v>
-      </c>
-      <c r="F15" s="71" t="s">
-        <v>247</v>
-      </c>
-      <c r="G15" s="71">
+      <c r="E15" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="F15" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="G15" s="58">
         <v>89.2</v>
       </c>
       <c r="H15">
         <v>97.5</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="65"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
+      <c r="C16" s="53"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
     </row>
     <row r="17" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="57" t="s">
-        <v>270</v>
-      </c>
-      <c r="D17" s="61">
+      <c r="C17" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="D17" s="47">
         <v>15</v>
       </c>
-      <c r="E17" s="80" t="s">
-        <v>247</v>
-      </c>
-      <c r="F17" s="80" t="s">
-        <v>247</v>
-      </c>
-      <c r="G17" s="56">
+      <c r="E17" s="65" t="s">
+        <v>245</v>
+      </c>
+      <c r="F17" s="65" t="s">
+        <v>245</v>
+      </c>
+      <c r="G17" s="47">
         <v>204</v>
       </c>
-      <c r="H17" s="56">
+      <c r="H17" s="47">
         <v>307</v>
       </c>
-      <c r="I17" s="62" t="s">
-        <v>262</v>
+      <c r="I17" s="51" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="66">
+      <c r="D18" s="8">
         <v>5</v>
       </c>
-      <c r="E18" s="71" t="s">
-        <v>247</v>
-      </c>
-      <c r="F18" s="71" t="s">
-        <v>247</v>
-      </c>
-      <c r="G18" s="71">
+      <c r="E18" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="F18" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="G18" s="58">
         <v>39</v>
       </c>
       <c r="H18">
         <v>25.3</v>
       </c>
       <c r="I18" s="26" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="44"/>
+    </row>
+    <row r="20" spans="2:9" s="47" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="C20" s="48"/>
+      <c r="D20" s="47">
+        <v>21</v>
+      </c>
+      <c r="E20" s="60" t="s">
+        <v>253</v>
+      </c>
+      <c r="F20" s="61" t="s">
+        <v>247</v>
+      </c>
+      <c r="G20" s="47">
+        <v>43.6</v>
+      </c>
+      <c r="H20" s="47">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="I20" s="51" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="8">
+        <v>5</v>
+      </c>
+      <c r="E21" s="60" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="51"/>
-    </row>
-    <row r="20" spans="2:9" s="56" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="57" t="s">
-        <v>241</v>
-      </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="63">
-        <v>21</v>
-      </c>
-      <c r="E20" s="74" t="s">
+      <c r="F21" s="60" t="s">
         <v>255</v>
-      </c>
-      <c r="F20" s="75" t="s">
-        <v>249</v>
-      </c>
-      <c r="G20" s="56">
-        <v>43.6</v>
-      </c>
-      <c r="H20" s="56">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="I20" s="62" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="66">
-        <v>5</v>
-      </c>
-      <c r="E21" s="74" t="s">
-        <v>256</v>
-      </c>
-      <c r="F21" s="76" t="s">
-        <v>257</v>
       </c>
       <c r="G21">
         <v>9</v>
@@ -6220,21 +6173,21 @@
         <v>13.4</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="60">
+      <c r="D22">
         <v>10</v>
       </c>
-      <c r="E22" s="74" t="s">
-        <v>256</v>
-      </c>
-      <c r="F22" s="76" t="s">
-        <v>263</v>
+      <c r="E22" s="60" t="s">
+        <v>254</v>
+      </c>
+      <c r="F22" s="60" t="s">
+        <v>261</v>
       </c>
       <c r="G22">
         <v>63</v>
@@ -6243,21 +6196,21 @@
         <v>94.3</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="37" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="60">
+      <c r="D23">
         <v>6</v>
       </c>
-      <c r="E23" s="74" t="s">
-        <v>266</v>
-      </c>
-      <c r="F23" s="76" t="s">
-        <v>267</v>
+      <c r="E23" s="60" t="s">
+        <v>264</v>
+      </c>
+      <c r="F23" s="60" t="s">
+        <v>265</v>
       </c>
       <c r="G23">
         <v>40</v>
@@ -6266,50 +6219,49 @@
         <v>37.799999999999997</v>
       </c>
       <c r="I23" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="53"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+    </row>
+    <row r="25" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="48" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="65"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="76"/>
-    </row>
-    <row r="25" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="57" t="s">
-        <v>270</v>
-      </c>
-      <c r="D25" s="61">
+      <c r="D25" s="47">
         <v>15</v>
       </c>
-      <c r="E25" s="75" t="s">
-        <v>275</v>
-      </c>
-      <c r="F25" s="75" t="s">
-        <v>276</v>
-      </c>
-      <c r="G25" s="56">
+      <c r="E25" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="F25" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="G25" s="47">
         <v>58</v>
       </c>
-      <c r="H25" s="56">
+      <c r="H25" s="47">
         <v>78.400000000000006</v>
       </c>
-      <c r="I25" s="62" t="s">
-        <v>250</v>
+      <c r="I25" s="51" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="66">
+      <c r="D26" s="8">
         <v>5</v>
       </c>
-      <c r="E26" s="74" t="s">
-        <v>256</v>
-      </c>
-      <c r="F26" s="76" t="s">
-        <v>257</v>
+      <c r="E26" s="60" t="s">
+        <v>254</v>
+      </c>
+      <c r="F26" s="60" t="s">
+        <v>255</v>
       </c>
       <c r="G26">
         <v>9</v>
@@ -6318,52 +6270,52 @@
         <v>13.4</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-    </row>
-    <row r="28" spans="2:9" s="56" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="58" t="s">
-        <v>242</v>
-      </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="64">
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+    </row>
+    <row r="28" spans="2:9" s="47" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="C28" s="49"/>
+      <c r="D28" s="52">
         <v>21</v>
       </c>
-      <c r="E28" s="71" t="s">
-        <v>247</v>
-      </c>
-      <c r="F28" s="71" t="s">
-        <v>247</v>
-      </c>
-      <c r="G28" s="56">
+      <c r="E28" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="F28" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="G28" s="47">
         <v>95.5</v>
       </c>
-      <c r="H28" s="56">
+      <c r="H28" s="47">
         <v>140</v>
       </c>
-      <c r="I28" s="62" t="s">
-        <v>251</v>
+      <c r="I28" s="51" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="66">
+      <c r="D29" s="8">
         <v>5</v>
       </c>
-      <c r="E29" s="71" t="s">
-        <v>247</v>
-      </c>
-      <c r="F29" s="71" t="s">
-        <v>247</v>
+      <c r="E29" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="F29" s="58" t="s">
+        <v>245</v>
       </c>
       <c r="G29">
         <v>53</v>
@@ -6372,21 +6324,21 @@
         <v>48.9</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="65" t="s">
+      <c r="C30" s="53" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="8">
         <v>10</v>
       </c>
-      <c r="E30" s="71" t="s">
-        <v>247</v>
-      </c>
-      <c r="F30" s="71" t="s">
-        <v>247</v>
+      <c r="E30" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="F30" s="58" t="s">
+        <v>245</v>
       </c>
       <c r="G30">
         <v>134.5</v>
@@ -6395,21 +6347,21 @@
         <v>194.9</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="65" t="s">
+      <c r="C31" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="60">
+      <c r="D31">
         <v>6</v>
       </c>
-      <c r="E31" s="71" t="s">
-        <v>247</v>
-      </c>
-      <c r="F31" s="71" t="s">
-        <v>247</v>
+      <c r="E31" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="F31" s="58" t="s">
+        <v>245</v>
       </c>
       <c r="G31">
         <v>65.900000000000006</v>
@@ -6418,51 +6370,51 @@
         <v>47.7</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
     </row>
     <row r="33" spans="3:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="57" t="s">
-        <v>270</v>
-      </c>
-      <c r="D33" s="61">
+      <c r="C33" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="D33" s="47">
         <v>15</v>
       </c>
-      <c r="E33" s="80" t="s">
-        <v>247</v>
-      </c>
-      <c r="F33" s="80" t="s">
-        <v>247</v>
-      </c>
-      <c r="G33" s="56">
+      <c r="E33" s="65" t="s">
+        <v>245</v>
+      </c>
+      <c r="F33" s="65" t="s">
+        <v>245</v>
+      </c>
+      <c r="G33" s="47">
         <v>108.7</v>
       </c>
-      <c r="H33" s="56">
+      <c r="H33" s="47">
         <v>162.80000000000001</v>
       </c>
-      <c r="I33" s="62" t="s">
-        <v>277</v>
+      <c r="I33" s="51" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="3:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="65" t="s">
+      <c r="C34" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="66">
+      <c r="D34" s="8">
         <v>5</v>
       </c>
-      <c r="E34" s="71" t="s">
-        <v>247</v>
-      </c>
-      <c r="F34" s="71" t="s">
-        <v>247</v>
+      <c r="E34" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="F34" s="58" t="s">
+        <v>245</v>
       </c>
       <c r="G34">
         <v>53</v>
@@ -6471,7 +6423,7 @@
         <v>48.9</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="3:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6609,7 +6561,7 @@
   <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6624,7 +6576,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -6637,11 +6589,11 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -6663,10 +6615,10 @@
     </row>
     <row r="4" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="60">
+      <c r="D4">
         <v>21</v>
       </c>
       <c r="E4">
@@ -6676,14 +6628,14 @@
         <v>0.39</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="66">
+      <c r="D5" s="8">
         <v>5</v>
       </c>
       <c r="E5">
@@ -6693,14 +6645,14 @@
         <v>0.31</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="60">
+      <c r="D6">
         <v>10</v>
       </c>
       <c r="E6">
@@ -6710,14 +6662,14 @@
         <v>0.42</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="60">
+      <c r="D7">
         <v>6</v>
       </c>
       <c r="E7">
@@ -6727,36 +6679,35 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="65"/>
-      <c r="D8" s="60"/>
+      <c r="C8" s="53"/>
     </row>
     <row r="9" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" s="47">
+        <v>15</v>
+      </c>
+      <c r="E9" s="47">
+        <v>2.39</v>
+      </c>
+      <c r="F9" s="47">
+        <v>0.41</v>
+      </c>
+      <c r="G9" s="51" t="s">
         <v>270</v>
-      </c>
-      <c r="D9" s="61">
-        <v>15</v>
-      </c>
-      <c r="E9" s="56">
-        <v>2.39</v>
-      </c>
-      <c r="F9" s="56">
-        <v>0.41</v>
-      </c>
-      <c r="G9" s="62" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="66">
+      <c r="D10" s="8">
         <v>5</v>
       </c>
       <c r="E10">
@@ -6766,35 +6717,33 @@
         <v>0.31</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="60"/>
-    </row>
-    <row r="12" spans="1:7" s="56" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="61">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:7" s="47" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="48"/>
+      <c r="D12" s="47">
         <v>21</v>
       </c>
-      <c r="E12" s="56">
+      <c r="E12" s="47">
         <v>0.4</v>
       </c>
-      <c r="F12" s="56">
+      <c r="F12" s="47">
         <v>0.2</v>
       </c>
-      <c r="G12" s="62" t="s">
-        <v>216</v>
+      <c r="G12" s="51" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="66">
+      <c r="D13" s="8">
         <v>5</v>
       </c>
       <c r="E13">
@@ -6804,14 +6753,14 @@
         <v>0.16</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="60">
+      <c r="D14">
         <v>10</v>
       </c>
       <c r="E14">
@@ -6821,14 +6770,14 @@
         <v>0.21</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="60">
+      <c r="D15">
         <v>6</v>
       </c>
       <c r="E15">
@@ -6838,36 +6787,36 @@
         <v>0.16</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
     </row>
     <row r="17" spans="3:7" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="57" t="s">
-        <v>270</v>
-      </c>
-      <c r="D17" s="61">
+      <c r="C17" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="D17" s="47">
         <v>15</v>
       </c>
-      <c r="E17" s="56">
+      <c r="E17" s="47">
         <v>0.43</v>
       </c>
-      <c r="F17" s="56">
+      <c r="F17" s="47">
         <v>0.21</v>
       </c>
-      <c r="G17" s="62" t="s">
-        <v>273</v>
+      <c r="G17" s="51" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="3:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="66">
+      <c r="D18" s="8">
         <v>5</v>
       </c>
       <c r="E18">
@@ -6877,7 +6826,7 @@
         <v>0.16</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="3:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">

--- a/OREI_files/40-herd data/descriptive stat sheets by group.xlsx
+++ b/OREI_files/40-herd data/descriptive stat sheets by group.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/40-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1144" documentId="8_{126BB96A-507C-4CDA-9D59-67A075BB21DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{935DC075-7F45-4656-8450-569D5E225E4E}"/>
+  <xr:revisionPtr revIDLastSave="1151" documentId="8_{126BB96A-507C-4CDA-9D59-67A075BB21DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{535A4B1E-92EA-4648-997F-93FE8754C120}"/>
   <bookViews>
-    <workbookView xWindow="4490" yWindow="0" windowWidth="14440" windowHeight="10170" firstSheet="5" activeTab="5" xr2:uid="{BD75E345-1D78-4F68-86D2-D9942F22A602}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="8" xr2:uid="{BD75E345-1D78-4F68-86D2-D9942F22A602}"/>
   </bookViews>
   <sheets>
     <sheet name="farm traits + lact cow housing" sheetId="1" r:id="rId1"/>
@@ -21,25 +21,19 @@
     <sheet name="outcome- udder health+prod" sheetId="5" r:id="rId6"/>
     <sheet name="outcome- BTM culture" sheetId="9" r:id="rId7"/>
     <sheet name="outcome- udder hygiene" sheetId="7" r:id="rId8"/>
+    <sheet name="editoutcome- udder health+prod" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="335">
   <si>
     <t>Range</t>
   </si>
@@ -4939,7 +4933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450D3C41-EA67-4045-92C3-4FCA41EBE615}">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="89" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="89" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
@@ -6983,4 +6977,591 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB199DDD-473C-4B0D-BDC2-9C854F89B035}">
+  <dimension ref="A1:N62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="6" max="6" width="6.90625" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+    </row>
+    <row r="3" spans="1:14" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>5.7</v>
+      </c>
+      <c r="F4">
+        <v>3.7</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>4.8</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>5.4</v>
+      </c>
+      <c r="F6">
+        <v>3.9</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>5.6</v>
+      </c>
+      <c r="F7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="53"/>
+    </row>
+    <row r="9" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="48"/>
+      <c r="D9" s="47">
+        <v>19</v>
+      </c>
+      <c r="E9" s="47">
+        <v>13.6</v>
+      </c>
+      <c r="F9" s="47">
+        <v>5.8</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E10">
+        <v>14.5</v>
+      </c>
+      <c r="F10">
+        <v>10.4</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>14.3</v>
+      </c>
+      <c r="F11">
+        <v>3.9</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>6.6</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="53"/>
+    </row>
+    <row r="14" spans="1:14" s="47" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" s="48"/>
+      <c r="D14" s="47">
+        <v>19</v>
+      </c>
+      <c r="E14" s="47">
+        <v>25</v>
+      </c>
+      <c r="F14" s="47">
+        <v>7.8</v>
+      </c>
+      <c r="G14" s="51" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15">
+        <v>26</v>
+      </c>
+      <c r="F15">
+        <v>15.2</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>25.4</v>
+      </c>
+      <c r="F16">
+        <v>5.2</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>23.7</v>
+      </c>
+      <c r="F17">
+        <v>8.5</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="53"/>
+    </row>
+    <row r="19" spans="2:7" s="47" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" s="49"/>
+      <c r="D19" s="52">
+        <v>18</v>
+      </c>
+      <c r="E19" s="47">
+        <v>50</v>
+      </c>
+      <c r="F19" s="47">
+        <v>10.1</v>
+      </c>
+      <c r="G19" s="51" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20">
+        <v>46.9</v>
+      </c>
+      <c r="F20">
+        <v>8.1</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E21">
+        <v>49.4</v>
+      </c>
+      <c r="F21">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>53</v>
+      </c>
+      <c r="F22">
+        <v>11.9</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="53"/>
+    </row>
+    <row r="24" spans="2:7" s="47" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" s="50"/>
+      <c r="D24" s="47">
+        <v>20</v>
+      </c>
+      <c r="E24" s="47">
+        <v>2.44</v>
+      </c>
+      <c r="F24" s="47">
+        <v>0.42</v>
+      </c>
+      <c r="G24" s="51" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25">
+        <v>2.38</v>
+      </c>
+      <c r="F25">
+        <v>0.61</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F26">
+        <v>0.23</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>2.5</v>
+      </c>
+      <c r="F27">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="53"/>
+    </row>
+    <row r="29" spans="2:7" s="47" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" s="50"/>
+      <c r="D29" s="52">
+        <v>20</v>
+      </c>
+      <c r="E29" s="47">
+        <v>3.72</v>
+      </c>
+      <c r="F29" s="47">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G29" s="51" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E30">
+        <v>3.48</v>
+      </c>
+      <c r="F30">
+        <v>0.81</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>3.75</v>
+      </c>
+      <c r="F31">
+        <v>0.38</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>3.83</v>
+      </c>
+      <c r="F32">
+        <v>0.71</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G34"/>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G37"/>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G38"/>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G39"/>
+    </row>
+    <row r="40" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G40"/>
+    </row>
+    <row r="41" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G41"/>
+    </row>
+    <row r="42" spans="7:7" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G42"/>
+    </row>
+    <row r="43" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G43"/>
+    </row>
+    <row r="44" spans="7:7" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G44"/>
+    </row>
+    <row r="45" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G45"/>
+    </row>
+    <row r="46" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G46"/>
+    </row>
+    <row r="47" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G47"/>
+    </row>
+    <row r="48" spans="7:7" ht="56" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G48"/>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G49"/>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G50"/>
+    </row>
+    <row r="51" spans="7:7" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G51"/>
+    </row>
+    <row r="52" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G52"/>
+    </row>
+    <row r="53" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G53"/>
+    </row>
+    <row r="54" spans="7:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G54"/>
+    </row>
+    <row r="55" spans="7:7" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G55"/>
+    </row>
+    <row r="56" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G56"/>
+    </row>
+    <row r="57" spans="7:7" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G57"/>
+    </row>
+    <row r="58" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G58"/>
+    </row>
+    <row r="59" spans="7:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G59"/>
+    </row>
+    <row r="60" spans="7:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G60"/>
+    </row>
+    <row r="61" spans="7:7" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G61"/>
+    </row>
+    <row r="62" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G62"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="E2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/OREI_files/40-herd data/descriptive stat sheets by group.xlsx
+++ b/OREI_files/40-herd data/descriptive stat sheets by group.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/40-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1151" documentId="8_{126BB96A-507C-4CDA-9D59-67A075BB21DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{535A4B1E-92EA-4648-997F-93FE8754C120}"/>
+  <xr:revisionPtr revIDLastSave="1154" documentId="8_{126BB96A-507C-4CDA-9D59-67A075BB21DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5965B21-5EE0-48D0-AF1B-CBE897C3465D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="8" xr2:uid="{BD75E345-1D78-4F68-86D2-D9942F22A602}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="10" xr2:uid="{BD75E345-1D78-4F68-86D2-D9942F22A602}"/>
   </bookViews>
   <sheets>
     <sheet name="farm traits + lact cow housing" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="outcome- BTM culture" sheetId="9" r:id="rId7"/>
     <sheet name="outcome- udder hygiene" sheetId="7" r:id="rId8"/>
     <sheet name="editoutcome- udder health+prod" sheetId="10" r:id="rId9"/>
+    <sheet name="editoutcome- DHIA for manuscrip" sheetId="11" r:id="rId10"/>
+    <sheet name="Sheet2" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="351">
   <si>
     <t>Range</t>
   </si>
@@ -1134,6 +1136,139 @@
   <si>
     <t>2.4-5.0</t>
   </si>
+  <si>
+    <t>Standardized 150-day milk (pounds)</t>
+  </si>
+  <si>
+    <t>Bulk tank milk somatic cell count (cells/mL)</t>
+  </si>
+  <si>
+    <t>Percent of cows with new IMI since last test date (%)</t>
+  </si>
+  <si>
+    <t>Percent of cows with chronic IMI since last test date (%)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Percent of cows with SCC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">≥ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200,000 cells/mL on current test date (%)</t>
+    </r>
+  </si>
+  <si>
+    <t>Average linear score of cows on farm (unweighted)</t>
+  </si>
+  <si>
+    <t>Average linear score of cows on farm (weighted by production)</t>
+  </si>
+  <si>
+    <t>Table 1. Udder health and production outcomes by facility type for 21 Vermont organic dairy herds</t>
+  </si>
+  <si>
+    <r>
+      <t>Bedded pack</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Percent of cows with SCC ≥ 200,000 cells/mL on current test date (%)</t>
+  </si>
+  <si>
+    <r>
+      <t>Bedded pack</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tiestall</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Avg. linear score of cows on farm (unweighted)</t>
+  </si>
+  <si>
+    <t>Avg. linear score of cows on farm (weighted by production)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DHIA data not available for 2 farms</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DHIA data not available for 1 farm</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1142,7 +1277,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1209,6 +1344,20 @@
     <font>
       <i/>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1286,7 +1435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1430,6 +1579,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2684,6 +2847,1180 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39C6CF6-E208-4F6F-9841-EE227F67C47E}">
+  <dimension ref="B1:G66"/>
+  <sheetViews>
+    <sheetView topLeftCell="A41" zoomScale="89" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.6328125" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" customWidth="1"/>
+    <col min="7" max="7" width="20.54296875" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+    </row>
+    <row r="2" spans="2:7" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3">
+        <v>21</v>
+      </c>
+      <c r="E3" s="54">
+        <v>144286</v>
+      </c>
+      <c r="F3" s="55">
+        <v>53934.35</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="8">
+        <v>5</v>
+      </c>
+      <c r="E4" s="54">
+        <v>107600</v>
+      </c>
+      <c r="F4" s="55">
+        <v>42582.9</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5" s="54">
+        <v>146400</v>
+      </c>
+      <c r="F5" s="55">
+        <v>52055.95</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="73">
+        <v>6</v>
+      </c>
+      <c r="E6" s="75">
+        <v>171333</v>
+      </c>
+      <c r="F6" s="76">
+        <v>55449.68</v>
+      </c>
+      <c r="G6" s="77" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="70"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>5.7</v>
+      </c>
+      <c r="F8">
+        <v>3.7</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>4.8</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>5.4</v>
+      </c>
+      <c r="F10">
+        <v>3.9</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>5.6</v>
+      </c>
+      <c r="F11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="53"/>
+    </row>
+    <row r="13" spans="2:7" s="47" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="C13" s="48"/>
+      <c r="D13" s="47">
+        <v>19</v>
+      </c>
+      <c r="E13" s="47">
+        <v>13.6</v>
+      </c>
+      <c r="F13" s="47">
+        <v>5.8</v>
+      </c>
+      <c r="G13" s="51" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14">
+        <v>14.5</v>
+      </c>
+      <c r="F14">
+        <v>10.4</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>14.3</v>
+      </c>
+      <c r="F15">
+        <v>3.9</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>6.6</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="53"/>
+    </row>
+    <row r="18" spans="2:7" s="47" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="48" t="s">
+        <v>339</v>
+      </c>
+      <c r="C18" s="48"/>
+      <c r="D18" s="47">
+        <v>19</v>
+      </c>
+      <c r="E18" s="47">
+        <v>25</v>
+      </c>
+      <c r="F18" s="47">
+        <v>7.8</v>
+      </c>
+      <c r="G18" s="51" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E19">
+        <v>26</v>
+      </c>
+      <c r="F19">
+        <v>15.2</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>25.4</v>
+      </c>
+      <c r="F20">
+        <v>5.2</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>23.7</v>
+      </c>
+      <c r="F21">
+        <v>8.5</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="53"/>
+    </row>
+    <row r="23" spans="2:7" s="47" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="49" t="s">
+        <v>335</v>
+      </c>
+      <c r="C23" s="49"/>
+      <c r="D23" s="52">
+        <v>18</v>
+      </c>
+      <c r="E23" s="47">
+        <v>50</v>
+      </c>
+      <c r="F23" s="47">
+        <v>10.1</v>
+      </c>
+      <c r="G23" s="51" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E24">
+        <v>46.9</v>
+      </c>
+      <c r="F24">
+        <v>8.1</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E25">
+        <v>49.4</v>
+      </c>
+      <c r="F25">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>53</v>
+      </c>
+      <c r="F26">
+        <v>11.9</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="53"/>
+    </row>
+    <row r="28" spans="2:7" s="47" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="50" t="s">
+        <v>340</v>
+      </c>
+      <c r="C28" s="50"/>
+      <c r="D28" s="47">
+        <v>20</v>
+      </c>
+      <c r="E28" s="47">
+        <v>2.44</v>
+      </c>
+      <c r="F28" s="47">
+        <v>0.42</v>
+      </c>
+      <c r="G28" s="51" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E29">
+        <v>2.38</v>
+      </c>
+      <c r="F29">
+        <v>0.61</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F30">
+        <v>0.23</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>2.5</v>
+      </c>
+      <c r="F31">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="53"/>
+    </row>
+    <row r="33" spans="2:7" s="47" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="50" t="s">
+        <v>341</v>
+      </c>
+      <c r="C33" s="50"/>
+      <c r="D33" s="52">
+        <v>20</v>
+      </c>
+      <c r="E33" s="47">
+        <v>3.72</v>
+      </c>
+      <c r="F33" s="47">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G33" s="51" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E34">
+        <v>3.48</v>
+      </c>
+      <c r="F34">
+        <v>0.81</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>3.75</v>
+      </c>
+      <c r="F35">
+        <v>0.38</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>3.83</v>
+      </c>
+      <c r="F36">
+        <v>0.71</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="G38"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="G39"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="G40"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="G41"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="G42"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="G43"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="G44"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="G45"/>
+    </row>
+    <row r="46" spans="2:7" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G46"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="G47"/>
+    </row>
+    <row r="48" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G48"/>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G49"/>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G50"/>
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G51"/>
+    </row>
+    <row r="52" spans="7:7" ht="56" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G52"/>
+    </row>
+    <row r="53" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G53"/>
+    </row>
+    <row r="54" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G54"/>
+    </row>
+    <row r="55" spans="7:7" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G55"/>
+    </row>
+    <row r="56" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G56"/>
+    </row>
+    <row r="57" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G57"/>
+    </row>
+    <row r="58" spans="7:7" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G58"/>
+    </row>
+    <row r="59" spans="7:7" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G59"/>
+    </row>
+    <row r="60" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G60"/>
+    </row>
+    <row r="61" spans="7:7" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G61"/>
+    </row>
+    <row r="62" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G62"/>
+    </row>
+    <row r="63" spans="7:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G63"/>
+    </row>
+    <row r="64" spans="7:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G64"/>
+    </row>
+    <row r="65" spans="7:7" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G65"/>
+    </row>
+    <row r="66" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA55671-101A-4DF0-AD07-EE2E1BCF6FC6}">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>144286</v>
+      </c>
+      <c r="E4">
+        <v>53934.35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>107600</v>
+      </c>
+      <c r="E5">
+        <v>42582.9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>146400</v>
+      </c>
+      <c r="E6">
+        <v>52055.95</v>
+      </c>
+      <c r="F6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>171333</v>
+      </c>
+      <c r="E7">
+        <v>55449.68</v>
+      </c>
+      <c r="F7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C9">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>5.7</v>
+      </c>
+      <c r="E9">
+        <v>3.7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>343</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>4.8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>5.4</v>
+      </c>
+      <c r="E11">
+        <v>3.9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>5.6</v>
+      </c>
+      <c r="E12">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>338</v>
+      </c>
+      <c r="C14">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>13.6</v>
+      </c>
+      <c r="E14">
+        <v>5.8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>343</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>14.5</v>
+      </c>
+      <c r="E15">
+        <v>10.4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>14.3</v>
+      </c>
+      <c r="E16">
+        <v>3.9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>6.6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>344</v>
+      </c>
+      <c r="C19">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>7.8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>343</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>15.2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>25.4</v>
+      </c>
+      <c r="E21">
+        <v>5.2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>23.7</v>
+      </c>
+      <c r="E22">
+        <v>8.5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>335</v>
+      </c>
+      <c r="C24">
+        <v>18</v>
+      </c>
+      <c r="D24">
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <v>10.1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>345</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>46.9</v>
+      </c>
+      <c r="E25">
+        <v>8.1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>346</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>49.4</v>
+      </c>
+      <c r="E26">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>53</v>
+      </c>
+      <c r="E27">
+        <v>11.9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>347</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>2.44</v>
+      </c>
+      <c r="E29">
+        <v>0.42</v>
+      </c>
+      <c r="F29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>345</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>2.38</v>
+      </c>
+      <c r="E30">
+        <v>0.61</v>
+      </c>
+      <c r="F30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E31">
+        <v>0.23</v>
+      </c>
+      <c r="F31" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>2.5</v>
+      </c>
+      <c r="E32">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F32" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>348</v>
+      </c>
+      <c r="C34">
+        <v>20</v>
+      </c>
+      <c r="D34">
+        <v>3.72</v>
+      </c>
+      <c r="E34">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F34" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>345</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>3.48</v>
+      </c>
+      <c r="E35">
+        <v>0.81</v>
+      </c>
+      <c r="F35" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>3.75</v>
+      </c>
+      <c r="E36">
+        <v>0.38</v>
+      </c>
+      <c r="F36" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>3.83</v>
+      </c>
+      <c r="E37">
+        <v>0.71</v>
+      </c>
+      <c r="F37" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>350</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC7B1E9-526D-41DC-A523-0A5494D9C7DD}">
   <dimension ref="A1:H66"/>
@@ -4403,7 +5740,7 @@
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView zoomScale="93" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="B4" sqref="B4:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4933,7 +6270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450D3C41-EA67-4045-92C3-4FCA41EBE615}">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="89" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A42" zoomScale="89" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
@@ -6983,7 +8320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB199DDD-473C-4B0D-BDC2-9C854F89B035}">
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="89" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
